--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>SONY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>82704100</v>
+        <v>81984200</v>
       </c>
       <c r="E8" s="3">
-        <v>75908300</v>
+        <v>75247600</v>
       </c>
       <c r="F8" s="3">
-        <v>79637700</v>
+        <v>78944400</v>
       </c>
       <c r="G8" s="3">
-        <v>78519200</v>
+        <v>77835700</v>
       </c>
       <c r="H8" s="3">
-        <v>69873900</v>
+        <v>69265600</v>
       </c>
       <c r="I8" s="3">
-        <v>74491500</v>
+        <v>73843000</v>
       </c>
       <c r="J8" s="3">
-        <v>75503900</v>
+        <v>74846700</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60300700</v>
+        <v>54991500</v>
       </c>
       <c r="E9" s="3">
-        <v>49862700</v>
+        <v>49428700</v>
       </c>
       <c r="F9" s="3">
-        <v>53136500</v>
+        <v>52674000</v>
       </c>
       <c r="G9" s="3">
-        <v>53043800</v>
+        <v>52582000</v>
       </c>
       <c r="H9" s="3">
-        <v>47932300</v>
+        <v>47515000</v>
       </c>
       <c r="I9" s="3">
-        <v>51523500</v>
+        <v>51074900</v>
       </c>
       <c r="J9" s="3">
-        <v>52326200</v>
+        <v>51870600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22403400</v>
+        <v>26992700</v>
       </c>
       <c r="E10" s="3">
-        <v>26045600</v>
+        <v>25818900</v>
       </c>
       <c r="F10" s="3">
-        <v>26501100</v>
+        <v>26270400</v>
       </c>
       <c r="G10" s="3">
-        <v>25475400</v>
+        <v>25253600</v>
       </c>
       <c r="H10" s="3">
-        <v>21941600</v>
+        <v>21750600</v>
       </c>
       <c r="I10" s="3">
-        <v>22968000</v>
+        <v>22768100</v>
       </c>
       <c r="J10" s="3">
-        <v>23177800</v>
+        <v>22976000</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -804,26 +804,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>4784300</v>
       </c>
       <c r="E12" s="3">
-        <v>4588500</v>
+        <v>4548500</v>
       </c>
       <c r="F12" s="3">
-        <v>4422200</v>
+        <v>4383800</v>
       </c>
       <c r="G12" s="3">
-        <v>4213800</v>
+        <v>4177100</v>
       </c>
       <c r="H12" s="3">
-        <v>4112100</v>
+        <v>4076300</v>
       </c>
       <c r="I12" s="3">
-        <v>4302600</v>
+        <v>4265100</v>
       </c>
       <c r="J12" s="3">
-        <v>4267100</v>
+        <v>4230000</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -858,20 +858,20 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>217100</v>
       </c>
       <c r="E14" s="3">
-        <v>273700</v>
+        <v>271300</v>
       </c>
       <c r="F14" s="3">
-        <v>431300</v>
+        <v>427500</v>
       </c>
       <c r="G14" s="3">
-        <v>354700</v>
+        <v>351600</v>
       </c>
       <c r="H14" s="3">
-        <v>1029900</v>
+        <v>1020900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73772700</v>
+        <v>73130500</v>
       </c>
       <c r="E17" s="3">
-        <v>68138600</v>
+        <v>67545400</v>
       </c>
       <c r="F17" s="3">
-        <v>71419600</v>
+        <v>70797900</v>
       </c>
       <c r="G17" s="3">
-        <v>71765800</v>
+        <v>71141100</v>
       </c>
       <c r="H17" s="3">
-        <v>67220700</v>
+        <v>66635500</v>
       </c>
       <c r="I17" s="3">
-        <v>71787800</v>
+        <v>71162900</v>
       </c>
       <c r="J17" s="3">
-        <v>74874000</v>
+        <v>74222200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8931400</v>
+        <v>8853700</v>
       </c>
       <c r="E18" s="3">
-        <v>7769800</v>
+        <v>7702100</v>
       </c>
       <c r="F18" s="3">
-        <v>8218000</v>
+        <v>8146500</v>
       </c>
       <c r="G18" s="3">
-        <v>6753400</v>
+        <v>6694600</v>
       </c>
       <c r="H18" s="3">
-        <v>2653200</v>
+        <v>2630100</v>
       </c>
       <c r="I18" s="3">
-        <v>2703700</v>
+        <v>2680100</v>
       </c>
       <c r="J18" s="3">
-        <v>630000</v>
+        <v>624500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2138400</v>
+        <v>2119800</v>
       </c>
       <c r="E20" s="3">
-        <v>-320900</v>
+        <v>-318100</v>
       </c>
       <c r="F20" s="3">
-        <v>1193600</v>
+        <v>1183200</v>
       </c>
       <c r="G20" s="3">
-        <v>-204400</v>
+        <v>-202700</v>
       </c>
       <c r="H20" s="3">
-        <v>-207100</v>
+        <v>-205300</v>
       </c>
       <c r="I20" s="3">
-        <v>327100</v>
+        <v>324300</v>
       </c>
       <c r="J20" s="3">
-        <v>-48000</v>
+        <v>-47500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14664200</v>
+        <v>14532700</v>
       </c>
       <c r="E21" s="3">
-        <v>11282000</v>
+        <v>11179600</v>
       </c>
       <c r="F21" s="3">
-        <v>12852700</v>
+        <v>12737100</v>
       </c>
       <c r="G21" s="3">
-        <v>9874200</v>
+        <v>9784700</v>
       </c>
       <c r="H21" s="3">
-        <v>5454900</v>
+        <v>5404200</v>
       </c>
       <c r="I21" s="3">
-        <v>6684000</v>
+        <v>6621900</v>
       </c>
       <c r="J21" s="3">
-        <v>3844500</v>
+        <v>3807600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>112000</v>
+        <v>111000</v>
       </c>
       <c r="E22" s="3">
-        <v>101900</v>
+        <v>101000</v>
       </c>
       <c r="F22" s="3">
-        <v>114600</v>
+        <v>113600</v>
       </c>
       <c r="G22" s="3">
-        <v>124700</v>
+        <v>123600</v>
       </c>
       <c r="H22" s="3">
-        <v>133700</v>
+        <v>132500</v>
       </c>
       <c r="I22" s="3">
-        <v>232400</v>
+        <v>230400</v>
       </c>
       <c r="J22" s="3">
-        <v>216900</v>
+        <v>215000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10957900</v>
+        <v>10862500</v>
       </c>
       <c r="E23" s="3">
-        <v>7346900</v>
+        <v>7283000</v>
       </c>
       <c r="F23" s="3">
-        <v>9297000</v>
+        <v>9216100</v>
       </c>
       <c r="G23" s="3">
-        <v>6424300</v>
+        <v>6368300</v>
       </c>
       <c r="H23" s="3">
-        <v>2312400</v>
+        <v>2292200</v>
       </c>
       <c r="I23" s="3">
-        <v>2798400</v>
+        <v>2774000</v>
       </c>
       <c r="J23" s="3">
-        <v>365100</v>
+        <v>361900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1101,22 +1101,22 @@
         <v>9100</v>
       </c>
       <c r="E24" s="3">
-        <v>1628400</v>
+        <v>1614200</v>
       </c>
       <c r="F24" s="3">
-        <v>414500</v>
+        <v>410800</v>
       </c>
       <c r="G24" s="3">
-        <v>1394800</v>
+        <v>1382600</v>
       </c>
       <c r="H24" s="3">
-        <v>1140100</v>
+        <v>1130200</v>
       </c>
       <c r="I24" s="3">
-        <v>871100</v>
+        <v>863500</v>
       </c>
       <c r="J24" s="3">
-        <v>815500</v>
+        <v>808400</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10948700</v>
+        <v>10853400</v>
       </c>
       <c r="E26" s="3">
-        <v>5718600</v>
+        <v>5668800</v>
       </c>
       <c r="F26" s="3">
-        <v>8882600</v>
+        <v>8805300</v>
       </c>
       <c r="G26" s="3">
-        <v>5029500</v>
+        <v>4985700</v>
       </c>
       <c r="H26" s="3">
-        <v>1172300</v>
+        <v>1162100</v>
       </c>
       <c r="I26" s="3">
-        <v>1927300</v>
+        <v>1910500</v>
       </c>
       <c r="J26" s="3">
-        <v>-450300</v>
+        <v>-446400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10768600</v>
+        <v>10674900</v>
       </c>
       <c r="E27" s="3">
-        <v>5350300</v>
+        <v>5303800</v>
       </c>
       <c r="F27" s="3">
-        <v>8420500</v>
+        <v>8347200</v>
       </c>
       <c r="G27" s="3">
-        <v>4510400</v>
+        <v>4471100</v>
       </c>
       <c r="H27" s="3">
-        <v>673500</v>
+        <v>667700</v>
       </c>
       <c r="I27" s="3">
-        <v>1358200</v>
+        <v>1346400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1157800</v>
+        <v>-1147700</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2138400</v>
+        <v>-2119800</v>
       </c>
       <c r="E32" s="3">
-        <v>320900</v>
+        <v>318100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1193600</v>
+        <v>-1183200</v>
       </c>
       <c r="G32" s="3">
-        <v>204400</v>
+        <v>202700</v>
       </c>
       <c r="H32" s="3">
-        <v>207100</v>
+        <v>205300</v>
       </c>
       <c r="I32" s="3">
-        <v>-327100</v>
+        <v>-324300</v>
       </c>
       <c r="J32" s="3">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10768600</v>
+        <v>10674900</v>
       </c>
       <c r="E33" s="3">
-        <v>5350300</v>
+        <v>5303800</v>
       </c>
       <c r="F33" s="3">
-        <v>8420500</v>
+        <v>8347200</v>
       </c>
       <c r="G33" s="3">
-        <v>4510400</v>
+        <v>4471100</v>
       </c>
       <c r="H33" s="3">
-        <v>673500</v>
+        <v>667700</v>
       </c>
       <c r="I33" s="3">
-        <v>1358200</v>
+        <v>1346400</v>
       </c>
       <c r="J33" s="3">
-        <v>-1157800</v>
+        <v>-1147700</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10768600</v>
+        <v>10674900</v>
       </c>
       <c r="E35" s="3">
-        <v>5350300</v>
+        <v>5303800</v>
       </c>
       <c r="F35" s="3">
-        <v>8420500</v>
+        <v>8347200</v>
       </c>
       <c r="G35" s="3">
-        <v>4510400</v>
+        <v>4471100</v>
       </c>
       <c r="H35" s="3">
-        <v>673500</v>
+        <v>667700</v>
       </c>
       <c r="I35" s="3">
-        <v>1358200</v>
+        <v>1346400</v>
       </c>
       <c r="J35" s="3">
-        <v>-1157800</v>
+        <v>-1147700</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16422400</v>
+        <v>32558800</v>
       </c>
       <c r="E41" s="3">
-        <v>13898600</v>
+        <v>13777600</v>
       </c>
       <c r="F41" s="3">
-        <v>13510000</v>
+        <v>13392400</v>
       </c>
       <c r="G41" s="3">
-        <v>14578400</v>
+        <v>14451500</v>
       </c>
       <c r="H41" s="3">
-        <v>8823700</v>
+        <v>8746900</v>
       </c>
       <c r="I41" s="3">
-        <v>9039400</v>
+        <v>8960700</v>
       </c>
       <c r="J41" s="3">
-        <v>8725100</v>
+        <v>8649200</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26673400</v>
+        <v>31266400</v>
       </c>
       <c r="E42" s="3">
-        <v>16981000</v>
+        <v>16833200</v>
       </c>
       <c r="F42" s="3">
-        <v>12172500</v>
+        <v>12066500</v>
       </c>
       <c r="G42" s="3">
-        <v>10813000</v>
+        <v>10718800</v>
       </c>
       <c r="H42" s="3">
-        <v>9662700</v>
+        <v>9578600</v>
       </c>
       <c r="I42" s="3">
-        <v>8697400</v>
+        <v>8621700</v>
       </c>
       <c r="J42" s="3">
-        <v>8608600</v>
+        <v>8533600</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12437700</v>
+        <v>24769100</v>
       </c>
       <c r="E43" s="3">
-        <v>10945500</v>
+        <v>10850200</v>
       </c>
       <c r="F43" s="3">
-        <v>11849800</v>
+        <v>11746600</v>
       </c>
       <c r="G43" s="3">
-        <v>11060000</v>
+        <v>10963700</v>
       </c>
       <c r="H43" s="3">
-        <v>10820700</v>
+        <v>10726500</v>
       </c>
       <c r="I43" s="3">
-        <v>9738200</v>
+        <v>9653400</v>
       </c>
       <c r="J43" s="3">
-        <v>10401700</v>
+        <v>10311100</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5857600</v>
+        <v>11606700</v>
       </c>
       <c r="E44" s="3">
-        <v>5421800</v>
+        <v>5374600</v>
       </c>
       <c r="F44" s="3">
-        <v>6003600</v>
+        <v>5951400</v>
       </c>
       <c r="G44" s="3">
-        <v>6368100</v>
+        <v>6312700</v>
       </c>
       <c r="H44" s="3">
-        <v>5889300</v>
+        <v>5838000</v>
       </c>
       <c r="I44" s="3">
-        <v>6278100</v>
+        <v>6223500</v>
       </c>
       <c r="J44" s="3">
-        <v>6115300</v>
+        <v>6062100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4949200</v>
+        <v>8515600</v>
       </c>
       <c r="E45" s="3">
-        <v>5459100</v>
+        <v>5411500</v>
       </c>
       <c r="F45" s="3">
-        <v>4680500</v>
+        <v>4639700</v>
       </c>
       <c r="G45" s="3">
-        <v>4748900</v>
+        <v>4707500</v>
       </c>
       <c r="H45" s="3">
-        <v>4832700</v>
+        <v>4790600</v>
       </c>
       <c r="I45" s="3">
-        <v>4814800</v>
+        <v>4772900</v>
       </c>
       <c r="J45" s="3">
-        <v>4728000</v>
+        <v>4686900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>66340300</v>
+        <v>42953800</v>
       </c>
       <c r="E46" s="3">
-        <v>52706000</v>
+        <v>52247200</v>
       </c>
       <c r="F46" s="3">
-        <v>48216400</v>
+        <v>47796600</v>
       </c>
       <c r="G46" s="3">
-        <v>47568300</v>
+        <v>47154200</v>
       </c>
       <c r="H46" s="3">
-        <v>40029100</v>
+        <v>39680600</v>
       </c>
       <c r="I46" s="3">
-        <v>38567900</v>
+        <v>38232200</v>
       </c>
       <c r="J46" s="3">
-        <v>38578700</v>
+        <v>38242900</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131086000</v>
+        <v>295906000</v>
       </c>
       <c r="E47" s="3">
-        <v>117027000</v>
+        <v>116008000</v>
       </c>
       <c r="F47" s="3">
-        <v>107750000</v>
+        <v>106812000</v>
       </c>
       <c r="G47" s="3">
-        <v>98848200</v>
+        <v>97987700</v>
       </c>
       <c r="H47" s="3">
-        <v>92927400</v>
+        <v>92118400</v>
       </c>
       <c r="I47" s="3">
-        <v>84861200</v>
+        <v>84122500</v>
       </c>
       <c r="J47" s="3">
-        <v>78403100</v>
+        <v>77720600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12521600</v>
+        <v>24698100</v>
       </c>
       <c r="E48" s="3">
-        <v>11958500</v>
+        <v>11854400</v>
       </c>
       <c r="F48" s="3">
-        <v>7141100</v>
+        <v>7079000</v>
       </c>
       <c r="G48" s="3">
-        <v>6795700</v>
+        <v>6736600</v>
       </c>
       <c r="H48" s="3">
-        <v>6967800</v>
+        <v>6907200</v>
       </c>
       <c r="I48" s="3">
-        <v>7543300</v>
+        <v>7477700</v>
       </c>
       <c r="J48" s="3">
-        <v>6794000</v>
+        <v>6734900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16757500</v>
+        <v>28933500</v>
       </c>
       <c r="E49" s="3">
-        <v>15532900</v>
+        <v>15397700</v>
       </c>
       <c r="F49" s="3">
-        <v>15499100</v>
+        <v>15364200</v>
       </c>
       <c r="G49" s="3">
-        <v>9719900</v>
+        <v>9635300</v>
       </c>
       <c r="H49" s="3">
-        <v>10170800</v>
+        <v>10082200</v>
       </c>
       <c r="I49" s="3">
-        <v>11230600</v>
+        <v>11132800</v>
       </c>
       <c r="J49" s="3">
-        <v>11061200</v>
+        <v>10964900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15495400</v>
+        <v>18910900</v>
       </c>
       <c r="E52" s="3">
-        <v>14507500</v>
+        <v>14381200</v>
       </c>
       <c r="F52" s="3">
-        <v>14214700</v>
+        <v>14090900</v>
       </c>
       <c r="G52" s="3">
-        <v>12280200</v>
+        <v>12173300</v>
       </c>
       <c r="H52" s="3">
-        <v>12205400</v>
+        <v>12099200</v>
       </c>
       <c r="I52" s="3">
-        <v>11025400</v>
+        <v>10929400</v>
       </c>
       <c r="J52" s="3">
-        <v>10680400</v>
+        <v>10587400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>242201000</v>
+        <v>250596000</v>
       </c>
       <c r="E54" s="3">
-        <v>211732000</v>
+        <v>209888000</v>
       </c>
       <c r="F54" s="3">
-        <v>192821000</v>
+        <v>191142000</v>
       </c>
       <c r="G54" s="3">
-        <v>175212000</v>
+        <v>173687000</v>
       </c>
       <c r="H54" s="3">
-        <v>162301000</v>
+        <v>160888000</v>
       </c>
       <c r="I54" s="3">
-        <v>153229000</v>
+        <v>151895000</v>
       </c>
       <c r="J54" s="3">
-        <v>145518000</v>
+        <v>144251000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21655300</v>
+        <v>36011500</v>
       </c>
       <c r="E57" s="3">
-        <v>18481200</v>
+        <v>18320300</v>
       </c>
       <c r="F57" s="3">
-        <v>20081700</v>
+        <v>19906900</v>
       </c>
       <c r="G57" s="3">
-        <v>18223600</v>
+        <v>18065000</v>
       </c>
       <c r="H57" s="3">
-        <v>17779500</v>
+        <v>17624700</v>
       </c>
       <c r="I57" s="3">
-        <v>17627100</v>
+        <v>17473700</v>
       </c>
       <c r="J57" s="3">
-        <v>18346100</v>
+        <v>18186400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12126800</v>
+        <v>14018900</v>
       </c>
       <c r="E58" s="3">
-        <v>7719400</v>
+        <v>7652200</v>
       </c>
       <c r="F58" s="3">
-        <v>7270000</v>
+        <v>7206700</v>
       </c>
       <c r="G58" s="3">
-        <v>6631600</v>
+        <v>6573900</v>
       </c>
       <c r="H58" s="3">
-        <v>4761100</v>
+        <v>4719700</v>
       </c>
       <c r="I58" s="3">
-        <v>3096500</v>
+        <v>3069500</v>
       </c>
       <c r="J58" s="3">
-        <v>2035800</v>
+        <v>2018100</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38041600</v>
+        <v>52067800</v>
       </c>
       <c r="E59" s="3">
-        <v>31149100</v>
+        <v>30877900</v>
       </c>
       <c r="F59" s="3">
-        <v>28521800</v>
+        <v>28273500</v>
       </c>
       <c r="G59" s="3">
-        <v>26797500</v>
+        <v>26564200</v>
       </c>
       <c r="H59" s="3">
-        <v>25447100</v>
+        <v>25225600</v>
       </c>
       <c r="I59" s="3">
-        <v>23671000</v>
+        <v>23464900</v>
       </c>
       <c r="J59" s="3">
-        <v>23230000</v>
+        <v>23027800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71823700</v>
+        <v>66991300</v>
       </c>
       <c r="E60" s="3">
-        <v>57349700</v>
+        <v>56850400</v>
       </c>
       <c r="F60" s="3">
-        <v>55873500</v>
+        <v>55387100</v>
       </c>
       <c r="G60" s="3">
-        <v>51652800</v>
+        <v>51203100</v>
       </c>
       <c r="H60" s="3">
-        <v>47987800</v>
+        <v>47570000</v>
       </c>
       <c r="I60" s="3">
-        <v>44394600</v>
+        <v>44008100</v>
       </c>
       <c r="J60" s="3">
-        <v>43612000</v>
+        <v>43232300</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7106600</v>
+        <v>9598600</v>
       </c>
       <c r="E61" s="3">
-        <v>5835300</v>
+        <v>5784500</v>
       </c>
       <c r="F61" s="3">
-        <v>5223300</v>
+        <v>5177900</v>
       </c>
       <c r="G61" s="3">
-        <v>5729500</v>
+        <v>5679600</v>
       </c>
       <c r="H61" s="3">
-        <v>6262600</v>
+        <v>6208100</v>
       </c>
       <c r="I61" s="3">
-        <v>5115200</v>
+        <v>5070700</v>
       </c>
       <c r="J61" s="3">
-        <v>6544100</v>
+        <v>6487100</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>111534000</v>
+        <v>123729000</v>
       </c>
       <c r="E62" s="3">
-        <v>104459000</v>
+        <v>103550000</v>
       </c>
       <c r="F62" s="3">
-        <v>90869900</v>
+        <v>90078800</v>
       </c>
       <c r="G62" s="3">
-        <v>84228000</v>
+        <v>83494800</v>
       </c>
       <c r="H62" s="3">
-        <v>79124800</v>
+        <v>78436000</v>
       </c>
       <c r="I62" s="3">
-        <v>74936600</v>
+        <v>74284300</v>
       </c>
       <c r="J62" s="3">
-        <v>68400600</v>
+        <v>67805200</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>190959000</v>
+        <v>189739000</v>
       </c>
       <c r="E66" s="3">
-        <v>173820000</v>
+        <v>172307000</v>
       </c>
       <c r="F66" s="3">
-        <v>158392000</v>
+        <v>157013000</v>
       </c>
       <c r="G66" s="3">
-        <v>147942000</v>
+        <v>146654000</v>
       </c>
       <c r="H66" s="3">
-        <v>139351000</v>
+        <v>138138000</v>
       </c>
       <c r="I66" s="3">
-        <v>130590000</v>
+        <v>129454000</v>
       </c>
       <c r="J66" s="3">
-        <v>124224000</v>
+        <v>123142000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35447200</v>
+        <v>26551100</v>
       </c>
       <c r="E72" s="3">
-        <v>25445800</v>
+        <v>25224300</v>
       </c>
       <c r="F72" s="3">
-        <v>21326200</v>
+        <v>21140500</v>
       </c>
       <c r="G72" s="3">
-        <v>13237200</v>
+        <v>13121900</v>
       </c>
       <c r="H72" s="3">
-        <v>9046300</v>
+        <v>8967600</v>
       </c>
       <c r="I72" s="3">
-        <v>8604900</v>
+        <v>8530000</v>
       </c>
       <c r="J72" s="3">
-        <v>7478500</v>
+        <v>7413400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51242000</v>
+        <v>60857900</v>
       </c>
       <c r="E76" s="3">
-        <v>37911600</v>
+        <v>37581500</v>
       </c>
       <c r="F76" s="3">
-        <v>34429200</v>
+        <v>34129500</v>
       </c>
       <c r="G76" s="3">
-        <v>27270100</v>
+        <v>27032700</v>
       </c>
       <c r="H76" s="3">
-        <v>22949700</v>
+        <v>22749900</v>
       </c>
       <c r="I76" s="3">
-        <v>22638100</v>
+        <v>22441000</v>
       </c>
       <c r="J76" s="3">
-        <v>21293900</v>
+        <v>21108600</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10768600</v>
+        <v>10674900</v>
       </c>
       <c r="E81" s="3">
-        <v>5350300</v>
+        <v>5303800</v>
       </c>
       <c r="F81" s="3">
-        <v>8420500</v>
+        <v>8347200</v>
       </c>
       <c r="G81" s="3">
-        <v>4510400</v>
+        <v>4471100</v>
       </c>
       <c r="H81" s="3">
-        <v>673500</v>
+        <v>667700</v>
       </c>
       <c r="I81" s="3">
-        <v>1358200</v>
+        <v>1346400</v>
       </c>
       <c r="J81" s="3">
-        <v>-1157800</v>
+        <v>-1147700</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3590500</v>
+        <v>3559200</v>
       </c>
       <c r="E83" s="3">
-        <v>3828900</v>
+        <v>3795600</v>
       </c>
       <c r="F83" s="3">
-        <v>3437300</v>
+        <v>3407400</v>
       </c>
       <c r="G83" s="3">
-        <v>3321700</v>
+        <v>3292800</v>
       </c>
       <c r="H83" s="3">
-        <v>3005600</v>
+        <v>2979400</v>
       </c>
       <c r="I83" s="3">
-        <v>3649300</v>
+        <v>3617500</v>
       </c>
       <c r="J83" s="3">
-        <v>3259000</v>
+        <v>3230600</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12402500</v>
+        <v>12294600</v>
       </c>
       <c r="E89" s="3">
-        <v>12377200</v>
+        <v>12269400</v>
       </c>
       <c r="F89" s="3">
-        <v>11533400</v>
+        <v>11433000</v>
       </c>
       <c r="G89" s="3">
-        <v>11463200</v>
+        <v>11363500</v>
       </c>
       <c r="H89" s="3">
-        <v>7437100</v>
+        <v>7372400</v>
       </c>
       <c r="I89" s="3">
-        <v>6884100</v>
+        <v>6824200</v>
       </c>
       <c r="J89" s="3">
-        <v>6935100</v>
+        <v>6874800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4707500</v>
+        <v>-4666500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4041400</v>
+        <v>-4006200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2873200</v>
+        <v>-2848200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2416900</v>
+        <v>-2395800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3064900</v>
+        <v>-3038300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3450000</v>
+        <v>-3420000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1984300</v>
+        <v>-1967000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16372100</v>
+        <v>-16229600</v>
       </c>
       <c r="E94" s="3">
-        <v>-12427400</v>
+        <v>-12319300</v>
       </c>
       <c r="F94" s="3">
-        <v>-12015400</v>
+        <v>-11910800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7564000</v>
+        <v>-7498100</v>
       </c>
       <c r="H94" s="3">
-        <v>-11524000</v>
+        <v>-11423700</v>
       </c>
       <c r="I94" s="3">
-        <v>-9469400</v>
+        <v>-9387000</v>
       </c>
       <c r="J94" s="3">
-        <v>-5878300</v>
+        <v>-5827100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-563200</v>
+        <v>-558300</v>
       </c>
       <c r="E96" s="3">
-        <v>-455600</v>
+        <v>-451600</v>
       </c>
       <c r="F96" s="3">
-        <v>-349800</v>
+        <v>-346800</v>
       </c>
       <c r="G96" s="3">
-        <v>-261800</v>
+        <v>-259500</v>
       </c>
       <c r="H96" s="3">
-        <v>-232500</v>
+        <v>-230500</v>
       </c>
       <c r="I96" s="3">
-        <v>-117200</v>
+        <v>-116200</v>
       </c>
       <c r="J96" s="3">
-        <v>-120900</v>
+        <v>-119900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6129400</v>
+        <v>6076100</v>
       </c>
       <c r="E100" s="3">
-        <v>603400</v>
+        <v>598100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1129300</v>
+        <v>-1119500</v>
       </c>
       <c r="G100" s="3">
-        <v>2264900</v>
+        <v>2245200</v>
       </c>
       <c r="H100" s="3">
-        <v>4156700</v>
+        <v>4120500</v>
       </c>
       <c r="I100" s="3">
-        <v>3493300</v>
+        <v>3462900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2418800</v>
+        <v>-2397700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>337000</v>
+        <v>334000</v>
       </c>
       <c r="E101" s="3">
-        <v>-198900</v>
+        <v>-197200</v>
       </c>
       <c r="F101" s="3">
-        <v>482200</v>
+        <v>478000</v>
       </c>
       <c r="G101" s="3">
-        <v>-487500</v>
+        <v>-483200</v>
       </c>
       <c r="H101" s="3">
-        <v>-285500</v>
+        <v>-283000</v>
       </c>
       <c r="I101" s="3">
-        <v>-593800</v>
+        <v>-588600</v>
       </c>
       <c r="J101" s="3">
-        <v>470000</v>
+        <v>465900</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2496800</v>
+        <v>2475100</v>
       </c>
       <c r="E102" s="3">
-        <v>354200</v>
+        <v>351100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1129100</v>
+        <v>-1119300</v>
       </c>
       <c r="G102" s="3">
-        <v>5676700</v>
+        <v>5627300</v>
       </c>
       <c r="H102" s="3">
-        <v>-215700</v>
+        <v>-213800</v>
       </c>
       <c r="I102" s="3">
-        <v>314300</v>
+        <v>311600</v>
       </c>
       <c r="J102" s="3">
-        <v>-891900</v>
+        <v>-884200</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81984200</v>
+        <v>79284400</v>
       </c>
       <c r="E8" s="3">
-        <v>75247600</v>
+        <v>72769600</v>
       </c>
       <c r="F8" s="3">
-        <v>78944400</v>
+        <v>76344700</v>
       </c>
       <c r="G8" s="3">
-        <v>77835700</v>
+        <v>75272500</v>
       </c>
       <c r="H8" s="3">
-        <v>69265600</v>
+        <v>66984600</v>
       </c>
       <c r="I8" s="3">
-        <v>73843000</v>
+        <v>71411300</v>
       </c>
       <c r="J8" s="3">
-        <v>74846700</v>
+        <v>72381900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54991500</v>
+        <v>53180500</v>
       </c>
       <c r="E9" s="3">
-        <v>49428700</v>
+        <v>47800900</v>
       </c>
       <c r="F9" s="3">
-        <v>52674000</v>
+        <v>50939400</v>
       </c>
       <c r="G9" s="3">
-        <v>52582000</v>
+        <v>50850500</v>
       </c>
       <c r="H9" s="3">
-        <v>47515000</v>
+        <v>45950300</v>
       </c>
       <c r="I9" s="3">
-        <v>51074900</v>
+        <v>49393000</v>
       </c>
       <c r="J9" s="3">
-        <v>51870600</v>
+        <v>50162500</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26992700</v>
+        <v>26103800</v>
       </c>
       <c r="E10" s="3">
-        <v>25818900</v>
+        <v>24968700</v>
       </c>
       <c r="F10" s="3">
-        <v>26270400</v>
+        <v>25405300</v>
       </c>
       <c r="G10" s="3">
-        <v>25253600</v>
+        <v>24422000</v>
       </c>
       <c r="H10" s="3">
-        <v>21750600</v>
+        <v>21034300</v>
       </c>
       <c r="I10" s="3">
-        <v>22768100</v>
+        <v>22018300</v>
       </c>
       <c r="J10" s="3">
-        <v>22976000</v>
+        <v>22219400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4784300</v>
+        <v>4626800</v>
       </c>
       <c r="E12" s="3">
-        <v>4548500</v>
+        <v>4398700</v>
       </c>
       <c r="F12" s="3">
-        <v>4383800</v>
+        <v>4239400</v>
       </c>
       <c r="G12" s="3">
-        <v>4177100</v>
+        <v>4039500</v>
       </c>
       <c r="H12" s="3">
-        <v>4076300</v>
+        <v>3942100</v>
       </c>
       <c r="I12" s="3">
-        <v>4265100</v>
+        <v>4124700</v>
       </c>
       <c r="J12" s="3">
-        <v>4230000</v>
+        <v>4090700</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -859,19 +859,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>217100</v>
+        <v>210000</v>
       </c>
       <c r="E14" s="3">
-        <v>271300</v>
+        <v>262300</v>
       </c>
       <c r="F14" s="3">
-        <v>427500</v>
+        <v>413400</v>
       </c>
       <c r="G14" s="3">
-        <v>351600</v>
+        <v>340100</v>
       </c>
       <c r="H14" s="3">
-        <v>1020900</v>
+        <v>987300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73130500</v>
+        <v>70722200</v>
       </c>
       <c r="E17" s="3">
-        <v>67545400</v>
+        <v>65321100</v>
       </c>
       <c r="F17" s="3">
-        <v>70797900</v>
+        <v>68466500</v>
       </c>
       <c r="G17" s="3">
-        <v>71141100</v>
+        <v>68798400</v>
       </c>
       <c r="H17" s="3">
-        <v>66635500</v>
+        <v>64441200</v>
       </c>
       <c r="I17" s="3">
-        <v>71162900</v>
+        <v>68819400</v>
       </c>
       <c r="J17" s="3">
-        <v>74222200</v>
+        <v>71778000</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8853700</v>
+        <v>8562100</v>
       </c>
       <c r="E18" s="3">
-        <v>7702100</v>
+        <v>7448500</v>
       </c>
       <c r="F18" s="3">
-        <v>8146500</v>
+        <v>7878200</v>
       </c>
       <c r="G18" s="3">
-        <v>6694600</v>
+        <v>6474100</v>
       </c>
       <c r="H18" s="3">
-        <v>2630100</v>
+        <v>2543500</v>
       </c>
       <c r="I18" s="3">
-        <v>2680100</v>
+        <v>2591900</v>
       </c>
       <c r="J18" s="3">
-        <v>624500</v>
+        <v>603900</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2119800</v>
+        <v>2050000</v>
       </c>
       <c r="E20" s="3">
-        <v>-318100</v>
+        <v>-307600</v>
       </c>
       <c r="F20" s="3">
-        <v>1183200</v>
+        <v>1144200</v>
       </c>
       <c r="G20" s="3">
-        <v>-202700</v>
+        <v>-196000</v>
       </c>
       <c r="H20" s="3">
-        <v>-205300</v>
+        <v>-198600</v>
       </c>
       <c r="I20" s="3">
-        <v>324300</v>
+        <v>313600</v>
       </c>
       <c r="J20" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14532700</v>
+        <v>14061900</v>
       </c>
       <c r="E21" s="3">
-        <v>11179600</v>
+        <v>10819800</v>
       </c>
       <c r="F21" s="3">
-        <v>12737100</v>
+        <v>12325100</v>
       </c>
       <c r="G21" s="3">
-        <v>9784700</v>
+        <v>9469700</v>
       </c>
       <c r="H21" s="3">
-        <v>5404200</v>
+        <v>5232700</v>
       </c>
       <c r="I21" s="3">
-        <v>6621900</v>
+        <v>6411800</v>
       </c>
       <c r="J21" s="3">
-        <v>3807600</v>
+        <v>3689300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>111000</v>
+        <v>107300</v>
       </c>
       <c r="E22" s="3">
-        <v>101000</v>
+        <v>97700</v>
       </c>
       <c r="F22" s="3">
-        <v>113600</v>
+        <v>109800</v>
       </c>
       <c r="G22" s="3">
-        <v>123600</v>
+        <v>119500</v>
       </c>
       <c r="H22" s="3">
-        <v>132500</v>
+        <v>128100</v>
       </c>
       <c r="I22" s="3">
-        <v>230400</v>
+        <v>222800</v>
       </c>
       <c r="J22" s="3">
-        <v>215000</v>
+        <v>207900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10862500</v>
+        <v>10504800</v>
       </c>
       <c r="E23" s="3">
-        <v>7283000</v>
+        <v>7043200</v>
       </c>
       <c r="F23" s="3">
-        <v>9216100</v>
+        <v>8912600</v>
       </c>
       <c r="G23" s="3">
-        <v>6368300</v>
+        <v>6158600</v>
       </c>
       <c r="H23" s="3">
-        <v>2292200</v>
+        <v>2216800</v>
       </c>
       <c r="I23" s="3">
-        <v>2774000</v>
+        <v>2682700</v>
       </c>
       <c r="J23" s="3">
-        <v>361900</v>
+        <v>350000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="E24" s="3">
-        <v>1614200</v>
+        <v>1561000</v>
       </c>
       <c r="F24" s="3">
-        <v>410800</v>
+        <v>397300</v>
       </c>
       <c r="G24" s="3">
-        <v>1382600</v>
+        <v>1337100</v>
       </c>
       <c r="H24" s="3">
-        <v>1130200</v>
+        <v>1093000</v>
       </c>
       <c r="I24" s="3">
-        <v>863500</v>
+        <v>835100</v>
       </c>
       <c r="J24" s="3">
-        <v>808400</v>
+        <v>781700</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10853400</v>
+        <v>10496000</v>
       </c>
       <c r="E26" s="3">
-        <v>5668800</v>
+        <v>5482100</v>
       </c>
       <c r="F26" s="3">
-        <v>8805300</v>
+        <v>8515300</v>
       </c>
       <c r="G26" s="3">
-        <v>4985700</v>
+        <v>4821500</v>
       </c>
       <c r="H26" s="3">
-        <v>1162100</v>
+        <v>1123800</v>
       </c>
       <c r="I26" s="3">
-        <v>1910500</v>
+        <v>1847600</v>
       </c>
       <c r="J26" s="3">
-        <v>-446400</v>
+        <v>-431700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10674900</v>
+        <v>10323300</v>
       </c>
       <c r="E27" s="3">
-        <v>5303800</v>
+        <v>5129100</v>
       </c>
       <c r="F27" s="3">
-        <v>8347200</v>
+        <v>8072300</v>
       </c>
       <c r="G27" s="3">
-        <v>4471100</v>
+        <v>4323900</v>
       </c>
       <c r="H27" s="3">
-        <v>667700</v>
+        <v>645700</v>
       </c>
       <c r="I27" s="3">
-        <v>1346400</v>
+        <v>1302000</v>
       </c>
       <c r="J27" s="3">
-        <v>-1147700</v>
+        <v>-1109900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2119800</v>
+        <v>-2050000</v>
       </c>
       <c r="E32" s="3">
-        <v>318100</v>
+        <v>307600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1183200</v>
+        <v>-1144200</v>
       </c>
       <c r="G32" s="3">
-        <v>202700</v>
+        <v>196000</v>
       </c>
       <c r="H32" s="3">
-        <v>205300</v>
+        <v>198600</v>
       </c>
       <c r="I32" s="3">
-        <v>-324300</v>
+        <v>-313600</v>
       </c>
       <c r="J32" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10674900</v>
+        <v>10323300</v>
       </c>
       <c r="E33" s="3">
-        <v>5303800</v>
+        <v>5129100</v>
       </c>
       <c r="F33" s="3">
-        <v>8347200</v>
+        <v>8072300</v>
       </c>
       <c r="G33" s="3">
-        <v>4471100</v>
+        <v>4323900</v>
       </c>
       <c r="H33" s="3">
-        <v>667700</v>
+        <v>645700</v>
       </c>
       <c r="I33" s="3">
-        <v>1346400</v>
+        <v>1302000</v>
       </c>
       <c r="J33" s="3">
-        <v>-1147700</v>
+        <v>-1109900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10674900</v>
+        <v>10323300</v>
       </c>
       <c r="E35" s="3">
-        <v>5303800</v>
+        <v>5129100</v>
       </c>
       <c r="F35" s="3">
-        <v>8347200</v>
+        <v>8072300</v>
       </c>
       <c r="G35" s="3">
-        <v>4471100</v>
+        <v>4323900</v>
       </c>
       <c r="H35" s="3">
-        <v>667700</v>
+        <v>645700</v>
       </c>
       <c r="I35" s="3">
-        <v>1346400</v>
+        <v>1302000</v>
       </c>
       <c r="J35" s="3">
-        <v>-1147700</v>
+        <v>-1109900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32558800</v>
+        <v>31486600</v>
       </c>
       <c r="E41" s="3">
-        <v>13777600</v>
+        <v>13323900</v>
       </c>
       <c r="F41" s="3">
-        <v>13392400</v>
+        <v>12951300</v>
       </c>
       <c r="G41" s="3">
-        <v>14451500</v>
+        <v>13975600</v>
       </c>
       <c r="H41" s="3">
-        <v>8746900</v>
+        <v>8458900</v>
       </c>
       <c r="I41" s="3">
-        <v>8960700</v>
+        <v>8665600</v>
       </c>
       <c r="J41" s="3">
-        <v>8649200</v>
+        <v>8364300</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31266400</v>
+        <v>30236800</v>
       </c>
       <c r="E42" s="3">
-        <v>16833200</v>
+        <v>16278900</v>
       </c>
       <c r="F42" s="3">
-        <v>12066500</v>
+        <v>11669200</v>
       </c>
       <c r="G42" s="3">
-        <v>10718800</v>
+        <v>10365900</v>
       </c>
       <c r="H42" s="3">
-        <v>9578600</v>
+        <v>9263200</v>
       </c>
       <c r="I42" s="3">
-        <v>8621700</v>
+        <v>8337800</v>
       </c>
       <c r="J42" s="3">
-        <v>8533600</v>
+        <v>8252600</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24769100</v>
+        <v>23953400</v>
       </c>
       <c r="E43" s="3">
-        <v>10850200</v>
+        <v>10492900</v>
       </c>
       <c r="F43" s="3">
-        <v>11746600</v>
+        <v>11359800</v>
       </c>
       <c r="G43" s="3">
-        <v>10963700</v>
+        <v>10602700</v>
       </c>
       <c r="H43" s="3">
-        <v>10726500</v>
+        <v>10373300</v>
       </c>
       <c r="I43" s="3">
-        <v>9653400</v>
+        <v>9335500</v>
       </c>
       <c r="J43" s="3">
-        <v>10311100</v>
+        <v>9971600</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11606700</v>
+        <v>11224500</v>
       </c>
       <c r="E44" s="3">
-        <v>5374600</v>
+        <v>5197600</v>
       </c>
       <c r="F44" s="3">
-        <v>5951400</v>
+        <v>5755400</v>
       </c>
       <c r="G44" s="3">
-        <v>6312700</v>
+        <v>6104800</v>
       </c>
       <c r="H44" s="3">
-        <v>5838000</v>
+        <v>5645800</v>
       </c>
       <c r="I44" s="3">
-        <v>6223500</v>
+        <v>6018500</v>
       </c>
       <c r="J44" s="3">
-        <v>6062100</v>
+        <v>5862500</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8515600</v>
+        <v>8235100</v>
       </c>
       <c r="E45" s="3">
-        <v>5411500</v>
+        <v>5233300</v>
       </c>
       <c r="F45" s="3">
-        <v>4639700</v>
+        <v>4486900</v>
       </c>
       <c r="G45" s="3">
-        <v>4707500</v>
+        <v>4552500</v>
       </c>
       <c r="H45" s="3">
-        <v>4790600</v>
+        <v>4632800</v>
       </c>
       <c r="I45" s="3">
-        <v>4772900</v>
+        <v>4615800</v>
       </c>
       <c r="J45" s="3">
-        <v>4686900</v>
+        <v>4532500</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42953800</v>
+        <v>41539300</v>
       </c>
       <c r="E46" s="3">
-        <v>52247200</v>
+        <v>50526600</v>
       </c>
       <c r="F46" s="3">
-        <v>47796600</v>
+        <v>46222700</v>
       </c>
       <c r="G46" s="3">
-        <v>47154200</v>
+        <v>45601400</v>
       </c>
       <c r="H46" s="3">
-        <v>39680600</v>
+        <v>38373900</v>
       </c>
       <c r="I46" s="3">
-        <v>38232200</v>
+        <v>36973200</v>
       </c>
       <c r="J46" s="3">
-        <v>38242900</v>
+        <v>36983500</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>295906000</v>
+        <v>286161000</v>
       </c>
       <c r="E47" s="3">
-        <v>116008000</v>
+        <v>112188000</v>
       </c>
       <c r="F47" s="3">
-        <v>106812000</v>
+        <v>103294000</v>
       </c>
       <c r="G47" s="3">
-        <v>97987700</v>
+        <v>94760900</v>
       </c>
       <c r="H47" s="3">
-        <v>92118400</v>
+        <v>89084900</v>
       </c>
       <c r="I47" s="3">
-        <v>84122500</v>
+        <v>81352300</v>
       </c>
       <c r="J47" s="3">
-        <v>77720600</v>
+        <v>75161200</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24698100</v>
+        <v>23884800</v>
       </c>
       <c r="E48" s="3">
-        <v>11854400</v>
+        <v>11464000</v>
       </c>
       <c r="F48" s="3">
-        <v>7079000</v>
+        <v>6845800</v>
       </c>
       <c r="G48" s="3">
-        <v>6736600</v>
+        <v>6514700</v>
       </c>
       <c r="H48" s="3">
-        <v>6907200</v>
+        <v>6679700</v>
       </c>
       <c r="I48" s="3">
-        <v>7477700</v>
+        <v>7231400</v>
       </c>
       <c r="J48" s="3">
-        <v>6734900</v>
+        <v>6513100</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28933500</v>
+        <v>27980700</v>
       </c>
       <c r="E49" s="3">
-        <v>15397700</v>
+        <v>14890600</v>
       </c>
       <c r="F49" s="3">
-        <v>15364200</v>
+        <v>14858200</v>
       </c>
       <c r="G49" s="3">
-        <v>9635300</v>
+        <v>9318000</v>
       </c>
       <c r="H49" s="3">
-        <v>10082200</v>
+        <v>9750200</v>
       </c>
       <c r="I49" s="3">
-        <v>11132800</v>
+        <v>10766200</v>
       </c>
       <c r="J49" s="3">
-        <v>10964900</v>
+        <v>10603900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18910900</v>
+        <v>18288200</v>
       </c>
       <c r="E52" s="3">
-        <v>14381200</v>
+        <v>13907600</v>
       </c>
       <c r="F52" s="3">
-        <v>14090900</v>
+        <v>13626900</v>
       </c>
       <c r="G52" s="3">
-        <v>12173300</v>
+        <v>11772400</v>
       </c>
       <c r="H52" s="3">
-        <v>12099200</v>
+        <v>11700700</v>
       </c>
       <c r="I52" s="3">
-        <v>10929400</v>
+        <v>10569500</v>
       </c>
       <c r="J52" s="3">
-        <v>10587400</v>
+        <v>10238800</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>250596000</v>
+        <v>242344000</v>
       </c>
       <c r="E54" s="3">
-        <v>209888000</v>
+        <v>202977000</v>
       </c>
       <c r="F54" s="3">
-        <v>191142000</v>
+        <v>184848000</v>
       </c>
       <c r="G54" s="3">
-        <v>173687000</v>
+        <v>167967000</v>
       </c>
       <c r="H54" s="3">
-        <v>160888000</v>
+        <v>155590000</v>
       </c>
       <c r="I54" s="3">
-        <v>151895000</v>
+        <v>146893000</v>
       </c>
       <c r="J54" s="3">
-        <v>144251000</v>
+        <v>139501000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36011500</v>
+        <v>34825600</v>
       </c>
       <c r="E57" s="3">
-        <v>18320300</v>
+        <v>17717000</v>
       </c>
       <c r="F57" s="3">
-        <v>19906900</v>
+        <v>19251400</v>
       </c>
       <c r="G57" s="3">
-        <v>18065000</v>
+        <v>17470100</v>
       </c>
       <c r="H57" s="3">
-        <v>17624700</v>
+        <v>17044300</v>
       </c>
       <c r="I57" s="3">
-        <v>17473700</v>
+        <v>16898300</v>
       </c>
       <c r="J57" s="3">
-        <v>18186400</v>
+        <v>17587500</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14018900</v>
+        <v>13557300</v>
       </c>
       <c r="E58" s="3">
-        <v>7652200</v>
+        <v>7400300</v>
       </c>
       <c r="F58" s="3">
-        <v>7206700</v>
+        <v>6969400</v>
       </c>
       <c r="G58" s="3">
-        <v>6573900</v>
+        <v>6357400</v>
       </c>
       <c r="H58" s="3">
-        <v>4719700</v>
+        <v>4564300</v>
       </c>
       <c r="I58" s="3">
-        <v>3069500</v>
+        <v>2968400</v>
       </c>
       <c r="J58" s="3">
-        <v>2018100</v>
+        <v>1951600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52067800</v>
+        <v>50353200</v>
       </c>
       <c r="E59" s="3">
-        <v>30877900</v>
+        <v>29861100</v>
       </c>
       <c r="F59" s="3">
-        <v>28273500</v>
+        <v>27342400</v>
       </c>
       <c r="G59" s="3">
-        <v>26564200</v>
+        <v>25689500</v>
       </c>
       <c r="H59" s="3">
-        <v>25225600</v>
+        <v>24394900</v>
       </c>
       <c r="I59" s="3">
-        <v>23464900</v>
+        <v>22692200</v>
       </c>
       <c r="J59" s="3">
-        <v>23027800</v>
+        <v>22269500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>66991300</v>
+        <v>64785300</v>
       </c>
       <c r="E60" s="3">
-        <v>56850400</v>
+        <v>54978300</v>
       </c>
       <c r="F60" s="3">
-        <v>55387100</v>
+        <v>53563200</v>
       </c>
       <c r="G60" s="3">
-        <v>51203100</v>
+        <v>49517000</v>
       </c>
       <c r="H60" s="3">
-        <v>47570000</v>
+        <v>46003500</v>
       </c>
       <c r="I60" s="3">
-        <v>44008100</v>
+        <v>42558900</v>
       </c>
       <c r="J60" s="3">
-        <v>43232300</v>
+        <v>41808600</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9598600</v>
+        <v>9282500</v>
       </c>
       <c r="E61" s="3">
-        <v>5784500</v>
+        <v>5594100</v>
       </c>
       <c r="F61" s="3">
-        <v>5177900</v>
+        <v>5007400</v>
       </c>
       <c r="G61" s="3">
-        <v>5679600</v>
+        <v>5492600</v>
       </c>
       <c r="H61" s="3">
-        <v>6208100</v>
+        <v>6003700</v>
       </c>
       <c r="I61" s="3">
-        <v>5070700</v>
+        <v>4903700</v>
       </c>
       <c r="J61" s="3">
-        <v>6487100</v>
+        <v>6273500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>123729000</v>
+        <v>119655000</v>
       </c>
       <c r="E62" s="3">
-        <v>103550000</v>
+        <v>100140000</v>
       </c>
       <c r="F62" s="3">
-        <v>90078800</v>
+        <v>87112500</v>
       </c>
       <c r="G62" s="3">
-        <v>83494800</v>
+        <v>80745200</v>
       </c>
       <c r="H62" s="3">
-        <v>78436000</v>
+        <v>75853000</v>
       </c>
       <c r="I62" s="3">
-        <v>74284300</v>
+        <v>71838000</v>
       </c>
       <c r="J62" s="3">
-        <v>67805200</v>
+        <v>65572300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>189739000</v>
+        <v>183490000</v>
       </c>
       <c r="E66" s="3">
-        <v>172307000</v>
+        <v>166633000</v>
       </c>
       <c r="F66" s="3">
-        <v>157013000</v>
+        <v>151842000</v>
       </c>
       <c r="G66" s="3">
-        <v>146654000</v>
+        <v>141825000</v>
       </c>
       <c r="H66" s="3">
-        <v>138138000</v>
+        <v>133589000</v>
       </c>
       <c r="I66" s="3">
-        <v>129454000</v>
+        <v>125191000</v>
       </c>
       <c r="J66" s="3">
-        <v>123142000</v>
+        <v>119087000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26551100</v>
+        <v>25676800</v>
       </c>
       <c r="E72" s="3">
-        <v>25224300</v>
+        <v>24393600</v>
       </c>
       <c r="F72" s="3">
-        <v>21140500</v>
+        <v>20444400</v>
       </c>
       <c r="G72" s="3">
-        <v>13121900</v>
+        <v>12689800</v>
       </c>
       <c r="H72" s="3">
-        <v>8967600</v>
+        <v>8672300</v>
       </c>
       <c r="I72" s="3">
-        <v>8530000</v>
+        <v>8249100</v>
       </c>
       <c r="J72" s="3">
-        <v>7413400</v>
+        <v>7169300</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60857900</v>
+        <v>58853800</v>
       </c>
       <c r="E76" s="3">
-        <v>37581500</v>
+        <v>36343900</v>
       </c>
       <c r="F76" s="3">
-        <v>34129500</v>
+        <v>33005600</v>
       </c>
       <c r="G76" s="3">
-        <v>27032700</v>
+        <v>26142500</v>
       </c>
       <c r="H76" s="3">
-        <v>22749900</v>
+        <v>22000700</v>
       </c>
       <c r="I76" s="3">
-        <v>22441000</v>
+        <v>21702000</v>
       </c>
       <c r="J76" s="3">
-        <v>21108600</v>
+        <v>20413400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10674900</v>
+        <v>10323300</v>
       </c>
       <c r="E81" s="3">
-        <v>5303800</v>
+        <v>5129100</v>
       </c>
       <c r="F81" s="3">
-        <v>8347200</v>
+        <v>8072300</v>
       </c>
       <c r="G81" s="3">
-        <v>4471100</v>
+        <v>4323900</v>
       </c>
       <c r="H81" s="3">
-        <v>667700</v>
+        <v>645700</v>
       </c>
       <c r="I81" s="3">
-        <v>1346400</v>
+        <v>1302000</v>
       </c>
       <c r="J81" s="3">
-        <v>-1147700</v>
+        <v>-1109900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3559200</v>
+        <v>3442000</v>
       </c>
       <c r="E83" s="3">
-        <v>3795600</v>
+        <v>3670600</v>
       </c>
       <c r="F83" s="3">
-        <v>3407400</v>
+        <v>3295200</v>
       </c>
       <c r="G83" s="3">
-        <v>3292800</v>
+        <v>3184300</v>
       </c>
       <c r="H83" s="3">
-        <v>2979400</v>
+        <v>2881300</v>
       </c>
       <c r="I83" s="3">
-        <v>3617500</v>
+        <v>3498400</v>
       </c>
       <c r="J83" s="3">
-        <v>3230600</v>
+        <v>3124200</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12294600</v>
+        <v>11889700</v>
       </c>
       <c r="E89" s="3">
-        <v>12269400</v>
+        <v>11865400</v>
       </c>
       <c r="F89" s="3">
-        <v>11433000</v>
+        <v>11056500</v>
       </c>
       <c r="G89" s="3">
-        <v>11363500</v>
+        <v>10989300</v>
       </c>
       <c r="H89" s="3">
-        <v>7372400</v>
+        <v>7129600</v>
       </c>
       <c r="I89" s="3">
-        <v>6824200</v>
+        <v>6599500</v>
       </c>
       <c r="J89" s="3">
-        <v>6874800</v>
+        <v>6648400</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4666500</v>
+        <v>-4512800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4006200</v>
+        <v>-3874300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2848200</v>
+        <v>-2754400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2395800</v>
+        <v>-2316900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3038300</v>
+        <v>-2938200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3420000</v>
+        <v>-3307400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1967000</v>
+        <v>-1902200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16229600</v>
+        <v>-15695200</v>
       </c>
       <c r="E94" s="3">
-        <v>-12319300</v>
+        <v>-11913600</v>
       </c>
       <c r="F94" s="3">
-        <v>-11910800</v>
+        <v>-11518600</v>
       </c>
       <c r="G94" s="3">
-        <v>-7498100</v>
+        <v>-7251200</v>
       </c>
       <c r="H94" s="3">
-        <v>-11423700</v>
+        <v>-11047500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9387000</v>
+        <v>-9077900</v>
       </c>
       <c r="J94" s="3">
-        <v>-5827100</v>
+        <v>-5635200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-558300</v>
+        <v>-539900</v>
       </c>
       <c r="E96" s="3">
-        <v>-451600</v>
+        <v>-436700</v>
       </c>
       <c r="F96" s="3">
-        <v>-346800</v>
+        <v>-335400</v>
       </c>
       <c r="G96" s="3">
-        <v>-259500</v>
+        <v>-251000</v>
       </c>
       <c r="H96" s="3">
-        <v>-230500</v>
+        <v>-222900</v>
       </c>
       <c r="I96" s="3">
-        <v>-116200</v>
+        <v>-112300</v>
       </c>
       <c r="J96" s="3">
-        <v>-119900</v>
+        <v>-115900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6076100</v>
+        <v>5876000</v>
       </c>
       <c r="E100" s="3">
-        <v>598100</v>
+        <v>578400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1119500</v>
+        <v>-1082600</v>
       </c>
       <c r="G100" s="3">
-        <v>2245200</v>
+        <v>2171300</v>
       </c>
       <c r="H100" s="3">
-        <v>4120500</v>
+        <v>3984800</v>
       </c>
       <c r="I100" s="3">
-        <v>3462900</v>
+        <v>3348900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2397700</v>
+        <v>-2318700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>334000</v>
+        <v>323000</v>
       </c>
       <c r="E101" s="3">
-        <v>-197200</v>
+        <v>-190700</v>
       </c>
       <c r="F101" s="3">
-        <v>478000</v>
+        <v>462200</v>
       </c>
       <c r="G101" s="3">
-        <v>-483200</v>
+        <v>-467300</v>
       </c>
       <c r="H101" s="3">
-        <v>-283000</v>
+        <v>-273600</v>
       </c>
       <c r="I101" s="3">
-        <v>-588600</v>
+        <v>-569200</v>
       </c>
       <c r="J101" s="3">
-        <v>465900</v>
+        <v>450500</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2475100</v>
+        <v>2393600</v>
       </c>
       <c r="E102" s="3">
-        <v>351100</v>
+        <v>339600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1119300</v>
+        <v>-1082400</v>
       </c>
       <c r="G102" s="3">
-        <v>5627300</v>
+        <v>5442000</v>
       </c>
       <c r="H102" s="3">
-        <v>-213800</v>
+        <v>-206800</v>
       </c>
       <c r="I102" s="3">
-        <v>311600</v>
+        <v>301300</v>
       </c>
       <c r="J102" s="3">
-        <v>-884200</v>
+        <v>-855000</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79284400</v>
+        <v>76764500</v>
       </c>
       <c r="E8" s="3">
-        <v>72769600</v>
+        <v>70456800</v>
       </c>
       <c r="F8" s="3">
-        <v>76344700</v>
+        <v>73918300</v>
       </c>
       <c r="G8" s="3">
-        <v>75272500</v>
+        <v>72880200</v>
       </c>
       <c r="H8" s="3">
-        <v>66984600</v>
+        <v>64855700</v>
       </c>
       <c r="I8" s="3">
-        <v>71411300</v>
+        <v>69141700</v>
       </c>
       <c r="J8" s="3">
-        <v>72381900</v>
+        <v>70081500</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53180500</v>
+        <v>51490400</v>
       </c>
       <c r="E9" s="3">
-        <v>47800900</v>
+        <v>46281700</v>
       </c>
       <c r="F9" s="3">
-        <v>50939400</v>
+        <v>49320400</v>
       </c>
       <c r="G9" s="3">
-        <v>50850500</v>
+        <v>49234300</v>
       </c>
       <c r="H9" s="3">
-        <v>45950300</v>
+        <v>44489900</v>
       </c>
       <c r="I9" s="3">
-        <v>49393000</v>
+        <v>47823200</v>
       </c>
       <c r="J9" s="3">
-        <v>50162500</v>
+        <v>48568200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26103800</v>
+        <v>25274200</v>
       </c>
       <c r="E10" s="3">
-        <v>24968700</v>
+        <v>24175100</v>
       </c>
       <c r="F10" s="3">
-        <v>25405300</v>
+        <v>24597900</v>
       </c>
       <c r="G10" s="3">
-        <v>24422000</v>
+        <v>23645800</v>
       </c>
       <c r="H10" s="3">
-        <v>21034300</v>
+        <v>20365800</v>
       </c>
       <c r="I10" s="3">
-        <v>22018300</v>
+        <v>21318500</v>
       </c>
       <c r="J10" s="3">
-        <v>22219400</v>
+        <v>21513200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4626800</v>
+        <v>4479700</v>
       </c>
       <c r="E12" s="3">
-        <v>4398700</v>
+        <v>4258900</v>
       </c>
       <c r="F12" s="3">
-        <v>4239400</v>
+        <v>4104700</v>
       </c>
       <c r="G12" s="3">
-        <v>4039500</v>
+        <v>3911200</v>
       </c>
       <c r="H12" s="3">
-        <v>3942100</v>
+        <v>3816800</v>
       </c>
       <c r="I12" s="3">
-        <v>4124700</v>
+        <v>3993600</v>
       </c>
       <c r="J12" s="3">
-        <v>4090700</v>
+        <v>3960600</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -859,19 +859,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>210000</v>
+        <v>203300</v>
       </c>
       <c r="E14" s="3">
-        <v>262300</v>
+        <v>254000</v>
       </c>
       <c r="F14" s="3">
-        <v>413400</v>
+        <v>400300</v>
       </c>
       <c r="G14" s="3">
-        <v>340100</v>
+        <v>329200</v>
       </c>
       <c r="H14" s="3">
-        <v>987300</v>
+        <v>955900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70722200</v>
+        <v>68474500</v>
       </c>
       <c r="E17" s="3">
-        <v>65321100</v>
+        <v>63245100</v>
       </c>
       <c r="F17" s="3">
-        <v>68466500</v>
+        <v>66290500</v>
       </c>
       <c r="G17" s="3">
-        <v>68798400</v>
+        <v>66611800</v>
       </c>
       <c r="H17" s="3">
-        <v>64441200</v>
+        <v>62393100</v>
       </c>
       <c r="I17" s="3">
-        <v>68819400</v>
+        <v>66632200</v>
       </c>
       <c r="J17" s="3">
-        <v>71778000</v>
+        <v>69496700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8562100</v>
+        <v>8290000</v>
       </c>
       <c r="E18" s="3">
-        <v>7448500</v>
+        <v>7211800</v>
       </c>
       <c r="F18" s="3">
-        <v>7878200</v>
+        <v>7627800</v>
       </c>
       <c r="G18" s="3">
-        <v>6474100</v>
+        <v>6268400</v>
       </c>
       <c r="H18" s="3">
-        <v>2543500</v>
+        <v>2462600</v>
       </c>
       <c r="I18" s="3">
-        <v>2591900</v>
+        <v>2509500</v>
       </c>
       <c r="J18" s="3">
-        <v>603900</v>
+        <v>584700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2050000</v>
+        <v>1984800</v>
       </c>
       <c r="E20" s="3">
-        <v>-307600</v>
+        <v>-297900</v>
       </c>
       <c r="F20" s="3">
-        <v>1144200</v>
+        <v>1107900</v>
       </c>
       <c r="G20" s="3">
-        <v>-196000</v>
+        <v>-189700</v>
       </c>
       <c r="H20" s="3">
-        <v>-198600</v>
+        <v>-192300</v>
       </c>
       <c r="I20" s="3">
-        <v>313600</v>
+        <v>303600</v>
       </c>
       <c r="J20" s="3">
-        <v>-46000</v>
+        <v>-44500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14061900</v>
+        <v>13646500</v>
       </c>
       <c r="E21" s="3">
-        <v>10819800</v>
+        <v>10509500</v>
       </c>
       <c r="F21" s="3">
-        <v>12325100</v>
+        <v>11963500</v>
       </c>
       <c r="G21" s="3">
-        <v>9469700</v>
+        <v>9197900</v>
       </c>
       <c r="H21" s="3">
-        <v>5232700</v>
+        <v>5092800</v>
       </c>
       <c r="I21" s="3">
-        <v>6411800</v>
+        <v>6240000</v>
       </c>
       <c r="J21" s="3">
-        <v>3689300</v>
+        <v>3600600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>107300</v>
+        <v>103900</v>
       </c>
       <c r="E22" s="3">
-        <v>97700</v>
+        <v>94600</v>
       </c>
       <c r="F22" s="3">
-        <v>109800</v>
+        <v>106300</v>
       </c>
       <c r="G22" s="3">
-        <v>119500</v>
+        <v>115700</v>
       </c>
       <c r="H22" s="3">
-        <v>128100</v>
+        <v>124100</v>
       </c>
       <c r="I22" s="3">
-        <v>222800</v>
+        <v>215700</v>
       </c>
       <c r="J22" s="3">
-        <v>207900</v>
+        <v>201300</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10504800</v>
+        <v>10170900</v>
       </c>
       <c r="E23" s="3">
-        <v>7043200</v>
+        <v>6819300</v>
       </c>
       <c r="F23" s="3">
-        <v>8912600</v>
+        <v>8629400</v>
       </c>
       <c r="G23" s="3">
-        <v>6158600</v>
+        <v>5962900</v>
       </c>
       <c r="H23" s="3">
-        <v>2216800</v>
+        <v>2146300</v>
       </c>
       <c r="I23" s="3">
-        <v>2682700</v>
+        <v>2597400</v>
       </c>
       <c r="J23" s="3">
-        <v>350000</v>
+        <v>338900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="E24" s="3">
-        <v>1561000</v>
+        <v>1511400</v>
       </c>
       <c r="F24" s="3">
-        <v>397300</v>
+        <v>384700</v>
       </c>
       <c r="G24" s="3">
-        <v>1337100</v>
+        <v>1294600</v>
       </c>
       <c r="H24" s="3">
-        <v>1093000</v>
+        <v>1058200</v>
       </c>
       <c r="I24" s="3">
-        <v>835100</v>
+        <v>808600</v>
       </c>
       <c r="J24" s="3">
-        <v>781700</v>
+        <v>756900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10496000</v>
+        <v>10162400</v>
       </c>
       <c r="E26" s="3">
-        <v>5482100</v>
+        <v>5307900</v>
       </c>
       <c r="F26" s="3">
-        <v>8515300</v>
+        <v>8244700</v>
       </c>
       <c r="G26" s="3">
-        <v>4821500</v>
+        <v>4668300</v>
       </c>
       <c r="H26" s="3">
-        <v>1123800</v>
+        <v>1088100</v>
       </c>
       <c r="I26" s="3">
-        <v>1847600</v>
+        <v>1788900</v>
       </c>
       <c r="J26" s="3">
-        <v>-431700</v>
+        <v>-418000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10323300</v>
+        <v>9995200</v>
       </c>
       <c r="E27" s="3">
-        <v>5129100</v>
+        <v>4966100</v>
       </c>
       <c r="F27" s="3">
-        <v>8072300</v>
+        <v>7815800</v>
       </c>
       <c r="G27" s="3">
-        <v>4323900</v>
+        <v>4186500</v>
       </c>
       <c r="H27" s="3">
-        <v>645700</v>
+        <v>625200</v>
       </c>
       <c r="I27" s="3">
-        <v>1302000</v>
+        <v>1260700</v>
       </c>
       <c r="J27" s="3">
-        <v>-1109900</v>
+        <v>-1074600</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2050000</v>
+        <v>-1984800</v>
       </c>
       <c r="E32" s="3">
-        <v>307600</v>
+        <v>297900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1144200</v>
+        <v>-1107900</v>
       </c>
       <c r="G32" s="3">
-        <v>196000</v>
+        <v>189700</v>
       </c>
       <c r="H32" s="3">
-        <v>198600</v>
+        <v>192300</v>
       </c>
       <c r="I32" s="3">
-        <v>-313600</v>
+        <v>-303600</v>
       </c>
       <c r="J32" s="3">
-        <v>46000</v>
+        <v>44500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10323300</v>
+        <v>9995200</v>
       </c>
       <c r="E33" s="3">
-        <v>5129100</v>
+        <v>4966100</v>
       </c>
       <c r="F33" s="3">
-        <v>8072300</v>
+        <v>7815800</v>
       </c>
       <c r="G33" s="3">
-        <v>4323900</v>
+        <v>4186500</v>
       </c>
       <c r="H33" s="3">
-        <v>645700</v>
+        <v>625200</v>
       </c>
       <c r="I33" s="3">
-        <v>1302000</v>
+        <v>1260700</v>
       </c>
       <c r="J33" s="3">
-        <v>-1109900</v>
+        <v>-1074600</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10323300</v>
+        <v>9995200</v>
       </c>
       <c r="E35" s="3">
-        <v>5129100</v>
+        <v>4966100</v>
       </c>
       <c r="F35" s="3">
-        <v>8072300</v>
+        <v>7815800</v>
       </c>
       <c r="G35" s="3">
-        <v>4323900</v>
+        <v>4186500</v>
       </c>
       <c r="H35" s="3">
-        <v>645700</v>
+        <v>625200</v>
       </c>
       <c r="I35" s="3">
-        <v>1302000</v>
+        <v>1260700</v>
       </c>
       <c r="J35" s="3">
-        <v>-1109900</v>
+        <v>-1074600</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31486600</v>
+        <v>30485900</v>
       </c>
       <c r="E41" s="3">
-        <v>13323900</v>
+        <v>12900400</v>
       </c>
       <c r="F41" s="3">
-        <v>12951300</v>
+        <v>12539700</v>
       </c>
       <c r="G41" s="3">
-        <v>13975600</v>
+        <v>13531400</v>
       </c>
       <c r="H41" s="3">
-        <v>8458900</v>
+        <v>8190000</v>
       </c>
       <c r="I41" s="3">
-        <v>8665600</v>
+        <v>8390200</v>
       </c>
       <c r="J41" s="3">
-        <v>8364300</v>
+        <v>8098500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30236800</v>
+        <v>29275800</v>
       </c>
       <c r="E42" s="3">
-        <v>16278900</v>
+        <v>15761500</v>
       </c>
       <c r="F42" s="3">
-        <v>11669200</v>
+        <v>11298300</v>
       </c>
       <c r="G42" s="3">
-        <v>10365900</v>
+        <v>10036400</v>
       </c>
       <c r="H42" s="3">
-        <v>9263200</v>
+        <v>8968800</v>
       </c>
       <c r="I42" s="3">
-        <v>8337800</v>
+        <v>8072800</v>
       </c>
       <c r="J42" s="3">
-        <v>8252600</v>
+        <v>7990300</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23953400</v>
+        <v>23192100</v>
       </c>
       <c r="E43" s="3">
-        <v>10492900</v>
+        <v>10159500</v>
       </c>
       <c r="F43" s="3">
-        <v>11359800</v>
+        <v>10998800</v>
       </c>
       <c r="G43" s="3">
-        <v>10602700</v>
+        <v>10265700</v>
       </c>
       <c r="H43" s="3">
-        <v>10373300</v>
+        <v>10043600</v>
       </c>
       <c r="I43" s="3">
-        <v>9335500</v>
+        <v>9038800</v>
       </c>
       <c r="J43" s="3">
-        <v>9971600</v>
+        <v>9654700</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11224500</v>
+        <v>10867700</v>
       </c>
       <c r="E44" s="3">
-        <v>5197600</v>
+        <v>5032400</v>
       </c>
       <c r="F44" s="3">
-        <v>5755400</v>
+        <v>5572500</v>
       </c>
       <c r="G44" s="3">
-        <v>6104800</v>
+        <v>5910800</v>
       </c>
       <c r="H44" s="3">
-        <v>5645800</v>
+        <v>5466300</v>
       </c>
       <c r="I44" s="3">
-        <v>6018500</v>
+        <v>5827200</v>
       </c>
       <c r="J44" s="3">
-        <v>5862500</v>
+        <v>5676100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8235100</v>
+        <v>7973400</v>
       </c>
       <c r="E45" s="3">
-        <v>5233300</v>
+        <v>5067000</v>
       </c>
       <c r="F45" s="3">
-        <v>4486900</v>
+        <v>4344300</v>
       </c>
       <c r="G45" s="3">
-        <v>4552500</v>
+        <v>4407800</v>
       </c>
       <c r="H45" s="3">
-        <v>4632800</v>
+        <v>4485600</v>
       </c>
       <c r="I45" s="3">
-        <v>4615800</v>
+        <v>4469100</v>
       </c>
       <c r="J45" s="3">
-        <v>4532500</v>
+        <v>4388500</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>41539300</v>
+        <v>40219100</v>
       </c>
       <c r="E46" s="3">
-        <v>50526600</v>
+        <v>48920800</v>
       </c>
       <c r="F46" s="3">
-        <v>46222700</v>
+        <v>44753600</v>
       </c>
       <c r="G46" s="3">
-        <v>45601400</v>
+        <v>44152100</v>
       </c>
       <c r="H46" s="3">
-        <v>38373900</v>
+        <v>37154300</v>
       </c>
       <c r="I46" s="3">
-        <v>36973200</v>
+        <v>35798100</v>
       </c>
       <c r="J46" s="3">
-        <v>36983500</v>
+        <v>35808100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>286161000</v>
+        <v>277066000</v>
       </c>
       <c r="E47" s="3">
-        <v>112188000</v>
+        <v>108622000</v>
       </c>
       <c r="F47" s="3">
-        <v>103294000</v>
+        <v>100011000</v>
       </c>
       <c r="G47" s="3">
-        <v>94760900</v>
+        <v>91749200</v>
       </c>
       <c r="H47" s="3">
-        <v>89084900</v>
+        <v>86253600</v>
       </c>
       <c r="I47" s="3">
-        <v>81352300</v>
+        <v>78766700</v>
       </c>
       <c r="J47" s="3">
-        <v>75161200</v>
+        <v>72772400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23884800</v>
+        <v>23125700</v>
       </c>
       <c r="E48" s="3">
-        <v>11464000</v>
+        <v>11099700</v>
       </c>
       <c r="F48" s="3">
-        <v>6845800</v>
+        <v>6628300</v>
       </c>
       <c r="G48" s="3">
-        <v>6514700</v>
+        <v>6307700</v>
       </c>
       <c r="H48" s="3">
-        <v>6679700</v>
+        <v>6467400</v>
       </c>
       <c r="I48" s="3">
-        <v>7231400</v>
+        <v>7001600</v>
       </c>
       <c r="J48" s="3">
-        <v>6513100</v>
+        <v>6306100</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27980700</v>
+        <v>27091400</v>
       </c>
       <c r="E49" s="3">
-        <v>14890600</v>
+        <v>14417400</v>
       </c>
       <c r="F49" s="3">
-        <v>14858200</v>
+        <v>14386000</v>
       </c>
       <c r="G49" s="3">
-        <v>9318000</v>
+        <v>9021800</v>
       </c>
       <c r="H49" s="3">
-        <v>9750200</v>
+        <v>9440300</v>
       </c>
       <c r="I49" s="3">
-        <v>10766200</v>
+        <v>10424000</v>
       </c>
       <c r="J49" s="3">
-        <v>10603900</v>
+        <v>10266800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18288200</v>
+        <v>17706900</v>
       </c>
       <c r="E52" s="3">
-        <v>13907600</v>
+        <v>13465600</v>
       </c>
       <c r="F52" s="3">
-        <v>13626900</v>
+        <v>13193800</v>
       </c>
       <c r="G52" s="3">
-        <v>11772400</v>
+        <v>11398200</v>
       </c>
       <c r="H52" s="3">
-        <v>11700700</v>
+        <v>11328900</v>
       </c>
       <c r="I52" s="3">
-        <v>10569500</v>
+        <v>10233600</v>
       </c>
       <c r="J52" s="3">
-        <v>10238800</v>
+        <v>9913400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>242344000</v>
+        <v>234642000</v>
       </c>
       <c r="E54" s="3">
-        <v>202977000</v>
+        <v>196526000</v>
       </c>
       <c r="F54" s="3">
-        <v>184848000</v>
+        <v>178973000</v>
       </c>
       <c r="G54" s="3">
-        <v>167967000</v>
+        <v>162629000</v>
       </c>
       <c r="H54" s="3">
-        <v>155590000</v>
+        <v>150645000</v>
       </c>
       <c r="I54" s="3">
-        <v>146893000</v>
+        <v>142224000</v>
       </c>
       <c r="J54" s="3">
-        <v>139501000</v>
+        <v>135067000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34825600</v>
+        <v>33718800</v>
       </c>
       <c r="E57" s="3">
-        <v>17717000</v>
+        <v>17153900</v>
       </c>
       <c r="F57" s="3">
-        <v>19251400</v>
+        <v>18639500</v>
       </c>
       <c r="G57" s="3">
-        <v>17470100</v>
+        <v>16914800</v>
       </c>
       <c r="H57" s="3">
-        <v>17044300</v>
+        <v>16502600</v>
       </c>
       <c r="I57" s="3">
-        <v>16898300</v>
+        <v>16361200</v>
       </c>
       <c r="J57" s="3">
-        <v>17587500</v>
+        <v>17028600</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13557300</v>
+        <v>13126400</v>
       </c>
       <c r="E58" s="3">
-        <v>7400300</v>
+        <v>7165100</v>
       </c>
       <c r="F58" s="3">
-        <v>6969400</v>
+        <v>6747900</v>
       </c>
       <c r="G58" s="3">
-        <v>6357400</v>
+        <v>6155400</v>
       </c>
       <c r="H58" s="3">
-        <v>4564300</v>
+        <v>4419200</v>
       </c>
       <c r="I58" s="3">
-        <v>2968400</v>
+        <v>2874100</v>
       </c>
       <c r="J58" s="3">
-        <v>1951600</v>
+        <v>1889600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50353200</v>
+        <v>48752900</v>
       </c>
       <c r="E59" s="3">
-        <v>29861100</v>
+        <v>28912000</v>
       </c>
       <c r="F59" s="3">
-        <v>27342400</v>
+        <v>26473400</v>
       </c>
       <c r="G59" s="3">
-        <v>25689500</v>
+        <v>24873000</v>
       </c>
       <c r="H59" s="3">
-        <v>24394900</v>
+        <v>23619600</v>
       </c>
       <c r="I59" s="3">
-        <v>22692200</v>
+        <v>21971000</v>
       </c>
       <c r="J59" s="3">
-        <v>22269500</v>
+        <v>21561700</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64785300</v>
+        <v>62726200</v>
       </c>
       <c r="E60" s="3">
-        <v>54978300</v>
+        <v>53231000</v>
       </c>
       <c r="F60" s="3">
-        <v>53563200</v>
+        <v>51860800</v>
       </c>
       <c r="G60" s="3">
-        <v>49517000</v>
+        <v>47943200</v>
       </c>
       <c r="H60" s="3">
-        <v>46003500</v>
+        <v>44541400</v>
       </c>
       <c r="I60" s="3">
-        <v>42558900</v>
+        <v>41206300</v>
       </c>
       <c r="J60" s="3">
-        <v>41808600</v>
+        <v>40479900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9282500</v>
+        <v>8987500</v>
       </c>
       <c r="E61" s="3">
-        <v>5594100</v>
+        <v>5416300</v>
       </c>
       <c r="F61" s="3">
-        <v>5007400</v>
+        <v>4848200</v>
       </c>
       <c r="G61" s="3">
-        <v>5492600</v>
+        <v>5318000</v>
       </c>
       <c r="H61" s="3">
-        <v>6003700</v>
+        <v>5812900</v>
       </c>
       <c r="I61" s="3">
-        <v>4903700</v>
+        <v>4747800</v>
       </c>
       <c r="J61" s="3">
-        <v>6273500</v>
+        <v>6074100</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>119655000</v>
+        <v>115852000</v>
       </c>
       <c r="E62" s="3">
-        <v>100140000</v>
+        <v>96957400</v>
       </c>
       <c r="F62" s="3">
-        <v>87112500</v>
+        <v>84343900</v>
       </c>
       <c r="G62" s="3">
-        <v>80745200</v>
+        <v>78179000</v>
       </c>
       <c r="H62" s="3">
-        <v>75853000</v>
+        <v>73442200</v>
       </c>
       <c r="I62" s="3">
-        <v>71838000</v>
+        <v>69554900</v>
       </c>
       <c r="J62" s="3">
-        <v>65572300</v>
+        <v>63488300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>183490000</v>
+        <v>177659000</v>
       </c>
       <c r="E66" s="3">
-        <v>166633000</v>
+        <v>161337000</v>
       </c>
       <c r="F66" s="3">
-        <v>151842000</v>
+        <v>147016000</v>
       </c>
       <c r="G66" s="3">
-        <v>141825000</v>
+        <v>137317000</v>
       </c>
       <c r="H66" s="3">
-        <v>133589000</v>
+        <v>129343000</v>
       </c>
       <c r="I66" s="3">
-        <v>125191000</v>
+        <v>121212000</v>
       </c>
       <c r="J66" s="3">
-        <v>119087000</v>
+        <v>115302000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25676800</v>
+        <v>24860700</v>
       </c>
       <c r="E72" s="3">
-        <v>24393600</v>
+        <v>23618300</v>
       </c>
       <c r="F72" s="3">
-        <v>20444400</v>
+        <v>19794600</v>
       </c>
       <c r="G72" s="3">
-        <v>12689800</v>
+        <v>12286500</v>
       </c>
       <c r="H72" s="3">
-        <v>8672300</v>
+        <v>8396700</v>
       </c>
       <c r="I72" s="3">
-        <v>8249100</v>
+        <v>7986900</v>
       </c>
       <c r="J72" s="3">
-        <v>7169300</v>
+        <v>6941400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58853800</v>
+        <v>56983300</v>
       </c>
       <c r="E76" s="3">
-        <v>36343900</v>
+        <v>35188900</v>
       </c>
       <c r="F76" s="3">
-        <v>33005600</v>
+        <v>31956600</v>
       </c>
       <c r="G76" s="3">
-        <v>26142500</v>
+        <v>25311600</v>
       </c>
       <c r="H76" s="3">
-        <v>22000700</v>
+        <v>21301500</v>
       </c>
       <c r="I76" s="3">
-        <v>21702000</v>
+        <v>21012300</v>
       </c>
       <c r="J76" s="3">
-        <v>20413400</v>
+        <v>19764700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10323300</v>
+        <v>9995200</v>
       </c>
       <c r="E81" s="3">
-        <v>5129100</v>
+        <v>4966100</v>
       </c>
       <c r="F81" s="3">
-        <v>8072300</v>
+        <v>7815800</v>
       </c>
       <c r="G81" s="3">
-        <v>4323900</v>
+        <v>4186500</v>
       </c>
       <c r="H81" s="3">
-        <v>645700</v>
+        <v>625200</v>
       </c>
       <c r="I81" s="3">
-        <v>1302000</v>
+        <v>1260700</v>
       </c>
       <c r="J81" s="3">
-        <v>-1109900</v>
+        <v>-1074600</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3442000</v>
+        <v>3332600</v>
       </c>
       <c r="E83" s="3">
-        <v>3670600</v>
+        <v>3554000</v>
       </c>
       <c r="F83" s="3">
-        <v>3295200</v>
+        <v>3190400</v>
       </c>
       <c r="G83" s="3">
-        <v>3184300</v>
+        <v>3083100</v>
       </c>
       <c r="H83" s="3">
-        <v>2881300</v>
+        <v>2789700</v>
       </c>
       <c r="I83" s="3">
-        <v>3498400</v>
+        <v>3387200</v>
       </c>
       <c r="J83" s="3">
-        <v>3124200</v>
+        <v>3024900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11889700</v>
+        <v>11511800</v>
       </c>
       <c r="E89" s="3">
-        <v>11865400</v>
+        <v>11488300</v>
       </c>
       <c r="F89" s="3">
-        <v>11056500</v>
+        <v>10705100</v>
       </c>
       <c r="G89" s="3">
-        <v>10989300</v>
+        <v>10640000</v>
       </c>
       <c r="H89" s="3">
-        <v>7129600</v>
+        <v>6903000</v>
       </c>
       <c r="I89" s="3">
-        <v>6599500</v>
+        <v>6389700</v>
       </c>
       <c r="J89" s="3">
-        <v>6648400</v>
+        <v>6437100</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4512800</v>
+        <v>-4369400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3874300</v>
+        <v>-3751200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2754400</v>
+        <v>-2666900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2316900</v>
+        <v>-2243300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2938200</v>
+        <v>-2844800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3307400</v>
+        <v>-3202300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1902200</v>
+        <v>-1841800</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15695200</v>
+        <v>-15196300</v>
       </c>
       <c r="E94" s="3">
-        <v>-11913600</v>
+        <v>-11534900</v>
       </c>
       <c r="F94" s="3">
-        <v>-11518600</v>
+        <v>-11152500</v>
       </c>
       <c r="G94" s="3">
-        <v>-7251200</v>
+        <v>-7020800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11047500</v>
+        <v>-10696400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9077900</v>
+        <v>-8789300</v>
       </c>
       <c r="J94" s="3">
-        <v>-5635200</v>
+        <v>-5456100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-539900</v>
+        <v>-522800</v>
       </c>
       <c r="E96" s="3">
-        <v>-436700</v>
+        <v>-422900</v>
       </c>
       <c r="F96" s="3">
-        <v>-335400</v>
+        <v>-324700</v>
       </c>
       <c r="G96" s="3">
-        <v>-251000</v>
+        <v>-243000</v>
       </c>
       <c r="H96" s="3">
-        <v>-222900</v>
+        <v>-215800</v>
       </c>
       <c r="I96" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-112300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-115900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5876000</v>
+        <v>5689200</v>
       </c>
       <c r="E100" s="3">
-        <v>578400</v>
+        <v>560100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1082600</v>
+        <v>-1048200</v>
       </c>
       <c r="G100" s="3">
-        <v>2171300</v>
+        <v>2102300</v>
       </c>
       <c r="H100" s="3">
-        <v>3984800</v>
+        <v>3858100</v>
       </c>
       <c r="I100" s="3">
-        <v>3348900</v>
+        <v>3242400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2318700</v>
+        <v>-2245100</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>323000</v>
+        <v>312800</v>
       </c>
       <c r="E101" s="3">
-        <v>-190700</v>
+        <v>-184600</v>
       </c>
       <c r="F101" s="3">
-        <v>462200</v>
+        <v>447500</v>
       </c>
       <c r="G101" s="3">
-        <v>-467300</v>
+        <v>-452500</v>
       </c>
       <c r="H101" s="3">
-        <v>-273600</v>
+        <v>-265000</v>
       </c>
       <c r="I101" s="3">
-        <v>-569200</v>
+        <v>-551100</v>
       </c>
       <c r="J101" s="3">
-        <v>450500</v>
+        <v>436200</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2393600</v>
+        <v>2317500</v>
       </c>
       <c r="E102" s="3">
-        <v>339600</v>
+        <v>328800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1082400</v>
+        <v>-1048000</v>
       </c>
       <c r="G102" s="3">
-        <v>5442000</v>
+        <v>5269000</v>
       </c>
       <c r="H102" s="3">
-        <v>-206800</v>
+        <v>-200200</v>
       </c>
       <c r="I102" s="3">
-        <v>301300</v>
+        <v>291700</v>
       </c>
       <c r="J102" s="3">
-        <v>-855000</v>
+        <v>-827900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>SONY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>76764500</v>
+        <v>77288600</v>
       </c>
       <c r="E8" s="3">
-        <v>70456800</v>
+        <v>70099600</v>
       </c>
       <c r="F8" s="3">
-        <v>73918300</v>
+        <v>64344500</v>
       </c>
       <c r="G8" s="3">
-        <v>72880200</v>
+        <v>67505700</v>
       </c>
       <c r="H8" s="3">
-        <v>64855700</v>
+        <v>66557600</v>
       </c>
       <c r="I8" s="3">
-        <v>69141700</v>
+        <v>59229300</v>
       </c>
       <c r="J8" s="3">
+        <v>63143500</v>
+      </c>
+      <c r="K8" s="3">
         <v>70081500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51490400</v>
+        <v>56242600</v>
       </c>
       <c r="E9" s="3">
-        <v>46281700</v>
+        <v>86585600</v>
       </c>
       <c r="F9" s="3">
-        <v>49320400</v>
+        <v>42266700</v>
       </c>
       <c r="G9" s="3">
-        <v>49234300</v>
+        <v>45041700</v>
       </c>
       <c r="H9" s="3">
-        <v>44489900</v>
+        <v>44963100</v>
       </c>
       <c r="I9" s="3">
-        <v>47823200</v>
+        <v>40630300</v>
       </c>
       <c r="J9" s="3">
+        <v>43674400</v>
+      </c>
+      <c r="K9" s="3">
         <v>48568200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25274200</v>
+        <v>21046000</v>
       </c>
       <c r="E10" s="3">
-        <v>24175100</v>
+        <v>-16486100</v>
       </c>
       <c r="F10" s="3">
-        <v>24597900</v>
+        <v>22077800</v>
       </c>
       <c r="G10" s="3">
-        <v>23645800</v>
+        <v>22464000</v>
       </c>
       <c r="H10" s="3">
-        <v>20365800</v>
+        <v>21594500</v>
       </c>
       <c r="I10" s="3">
-        <v>21318500</v>
+        <v>18599000</v>
       </c>
       <c r="J10" s="3">
+        <v>19469100</v>
+      </c>
+      <c r="K10" s="3">
         <v>21513200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>4479700</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>4258900</v>
+        <v>4091100</v>
       </c>
       <c r="F12" s="3">
-        <v>4104700</v>
+        <v>3889500</v>
       </c>
       <c r="G12" s="3">
-        <v>3911200</v>
+        <v>3748600</v>
       </c>
       <c r="H12" s="3">
-        <v>3816800</v>
+        <v>3571900</v>
       </c>
       <c r="I12" s="3">
-        <v>3993600</v>
+        <v>3485700</v>
       </c>
       <c r="J12" s="3">
+        <v>3647100</v>
+      </c>
+      <c r="K12" s="3">
         <v>3960600</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>203300</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>254000</v>
+        <v>185700</v>
       </c>
       <c r="F14" s="3">
-        <v>400300</v>
+        <v>232000</v>
       </c>
       <c r="G14" s="3">
-        <v>329200</v>
+        <v>365600</v>
       </c>
       <c r="H14" s="3">
-        <v>955900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>300700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>873000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68474500</v>
+        <v>67922400</v>
       </c>
       <c r="E17" s="3">
-        <v>63245100</v>
+        <v>62658100</v>
       </c>
       <c r="F17" s="3">
-        <v>66290500</v>
+        <v>57758400</v>
       </c>
       <c r="G17" s="3">
-        <v>66611800</v>
+        <v>60539600</v>
       </c>
       <c r="H17" s="3">
-        <v>62393100</v>
+        <v>60833100</v>
       </c>
       <c r="I17" s="3">
-        <v>66632200</v>
+        <v>56980300</v>
       </c>
       <c r="J17" s="3">
+        <v>60851700</v>
+      </c>
+      <c r="K17" s="3">
         <v>69496700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8290000</v>
+        <v>9366200</v>
       </c>
       <c r="E18" s="3">
-        <v>7211800</v>
+        <v>7441400</v>
       </c>
       <c r="F18" s="3">
-        <v>7627800</v>
+        <v>6586100</v>
       </c>
       <c r="G18" s="3">
-        <v>6268400</v>
+        <v>6966100</v>
       </c>
       <c r="H18" s="3">
-        <v>2462600</v>
+        <v>5724600</v>
       </c>
       <c r="I18" s="3">
-        <v>2509500</v>
+        <v>2249000</v>
       </c>
       <c r="J18" s="3">
+        <v>2291800</v>
+      </c>
+      <c r="K18" s="3">
         <v>584700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1984800</v>
+        <v>-660900</v>
       </c>
       <c r="E20" s="3">
-        <v>-297900</v>
+        <v>427600</v>
       </c>
       <c r="F20" s="3">
-        <v>1107900</v>
+        <v>-272000</v>
       </c>
       <c r="G20" s="3">
-        <v>-189700</v>
+        <v>1011800</v>
       </c>
       <c r="H20" s="3">
-        <v>-192300</v>
+        <v>-173300</v>
       </c>
       <c r="I20" s="3">
-        <v>303600</v>
+        <v>-175600</v>
       </c>
       <c r="J20" s="3">
+        <v>277300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13646500</v>
+        <v>15128300</v>
       </c>
       <c r="E21" s="3">
-        <v>10509500</v>
+        <v>13155000</v>
       </c>
       <c r="F21" s="3">
-        <v>11963500</v>
+        <v>9518100</v>
       </c>
       <c r="G21" s="3">
-        <v>9197900</v>
+        <v>10854100</v>
       </c>
       <c r="H21" s="3">
-        <v>5092800</v>
+        <v>8330800</v>
       </c>
       <c r="I21" s="3">
-        <v>6240000</v>
+        <v>4588400</v>
       </c>
       <c r="J21" s="3">
+        <v>5622700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3600600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>103900</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>94600</v>
+        <v>94900</v>
       </c>
       <c r="F22" s="3">
-        <v>106300</v>
+        <v>86400</v>
       </c>
       <c r="G22" s="3">
-        <v>115700</v>
+        <v>97100</v>
       </c>
       <c r="H22" s="3">
-        <v>124100</v>
+        <v>105700</v>
       </c>
       <c r="I22" s="3">
-        <v>215700</v>
+        <v>113300</v>
       </c>
       <c r="J22" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K22" s="3">
         <v>201300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10170900</v>
+        <v>8705300</v>
       </c>
       <c r="E23" s="3">
-        <v>6819300</v>
+        <v>7774100</v>
       </c>
       <c r="F23" s="3">
-        <v>8629400</v>
+        <v>6227700</v>
       </c>
       <c r="G23" s="3">
-        <v>5962900</v>
+        <v>7880700</v>
       </c>
       <c r="H23" s="3">
-        <v>2146300</v>
+        <v>5445600</v>
       </c>
       <c r="I23" s="3">
-        <v>2597400</v>
+        <v>1960100</v>
       </c>
       <c r="J23" s="3">
+        <v>2372100</v>
+      </c>
+      <c r="K23" s="3">
         <v>338900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8500</v>
+        <v>1784700</v>
       </c>
       <c r="E24" s="3">
-        <v>1511400</v>
+        <v>-357800</v>
       </c>
       <c r="F24" s="3">
-        <v>384700</v>
+        <v>1380300</v>
       </c>
       <c r="G24" s="3">
-        <v>1294600</v>
+        <v>351300</v>
       </c>
       <c r="H24" s="3">
-        <v>1058200</v>
+        <v>1182300</v>
       </c>
       <c r="I24" s="3">
-        <v>808600</v>
+        <v>966400</v>
       </c>
       <c r="J24" s="3">
+        <v>738400</v>
+      </c>
+      <c r="K24" s="3">
         <v>756900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10162400</v>
+        <v>6920700</v>
       </c>
       <c r="E26" s="3">
-        <v>5307900</v>
+        <v>8131900</v>
       </c>
       <c r="F26" s="3">
-        <v>8244700</v>
+        <v>4847400</v>
       </c>
       <c r="G26" s="3">
-        <v>4668300</v>
+        <v>7529400</v>
       </c>
       <c r="H26" s="3">
-        <v>1088100</v>
+        <v>4263300</v>
       </c>
       <c r="I26" s="3">
-        <v>1788900</v>
+        <v>993700</v>
       </c>
       <c r="J26" s="3">
+        <v>1633700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-418000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9995200</v>
+        <v>6872200</v>
       </c>
       <c r="E27" s="3">
-        <v>4966100</v>
+        <v>7868000</v>
       </c>
       <c r="F27" s="3">
-        <v>7815800</v>
+        <v>4535300</v>
       </c>
       <c r="G27" s="3">
-        <v>4186500</v>
+        <v>7137800</v>
       </c>
       <c r="H27" s="3">
-        <v>625200</v>
+        <v>3823300</v>
       </c>
       <c r="I27" s="3">
-        <v>1260700</v>
+        <v>570900</v>
       </c>
       <c r="J27" s="3">
+        <v>1151300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1074600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1984800</v>
+        <v>660900</v>
       </c>
       <c r="E32" s="3">
-        <v>297900</v>
+        <v>-427600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1107900</v>
+        <v>272000</v>
       </c>
       <c r="G32" s="3">
-        <v>189700</v>
+        <v>-1011800</v>
       </c>
       <c r="H32" s="3">
-        <v>192300</v>
+        <v>173300</v>
       </c>
       <c r="I32" s="3">
-        <v>-303600</v>
+        <v>175600</v>
       </c>
       <c r="J32" s="3">
+        <v>-277300</v>
+      </c>
+      <c r="K32" s="3">
         <v>44500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9995200</v>
+        <v>6872200</v>
       </c>
       <c r="E33" s="3">
-        <v>4966100</v>
+        <v>7868000</v>
       </c>
       <c r="F33" s="3">
-        <v>7815800</v>
+        <v>4535300</v>
       </c>
       <c r="G33" s="3">
-        <v>4186500</v>
+        <v>7137800</v>
       </c>
       <c r="H33" s="3">
-        <v>625200</v>
+        <v>3823300</v>
       </c>
       <c r="I33" s="3">
-        <v>1260700</v>
+        <v>570900</v>
       </c>
       <c r="J33" s="3">
+        <v>1151300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1074600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9995200</v>
+        <v>6872200</v>
       </c>
       <c r="E35" s="3">
-        <v>4966100</v>
+        <v>7868000</v>
       </c>
       <c r="F35" s="3">
-        <v>7815800</v>
+        <v>4535300</v>
       </c>
       <c r="G35" s="3">
-        <v>4186500</v>
+        <v>7137800</v>
       </c>
       <c r="H35" s="3">
-        <v>625200</v>
+        <v>3823300</v>
       </c>
       <c r="I35" s="3">
-        <v>1260700</v>
+        <v>570900</v>
       </c>
       <c r="J35" s="3">
+        <v>1151300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1074600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30485900</v>
+        <v>15966700</v>
       </c>
       <c r="E41" s="3">
-        <v>12900400</v>
+        <v>27841200</v>
       </c>
       <c r="F41" s="3">
-        <v>12539700</v>
+        <v>11781300</v>
       </c>
       <c r="G41" s="3">
-        <v>13531400</v>
+        <v>11451900</v>
       </c>
       <c r="H41" s="3">
-        <v>8190000</v>
+        <v>12357500</v>
       </c>
       <c r="I41" s="3">
-        <v>8390200</v>
+        <v>7479500</v>
       </c>
       <c r="J41" s="3">
+        <v>7662300</v>
+      </c>
+      <c r="K41" s="3">
         <v>8098500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29275800</v>
+        <v>3972700</v>
       </c>
       <c r="E42" s="3">
-        <v>15761500</v>
+        <v>26736100</v>
       </c>
       <c r="F42" s="3">
-        <v>11298300</v>
+        <v>14394100</v>
       </c>
       <c r="G42" s="3">
-        <v>10036400</v>
+        <v>10318200</v>
       </c>
       <c r="H42" s="3">
-        <v>8968800</v>
+        <v>9165700</v>
       </c>
       <c r="I42" s="3">
-        <v>8072800</v>
+        <v>8190700</v>
       </c>
       <c r="J42" s="3">
+        <v>7372400</v>
+      </c>
+      <c r="K42" s="3">
         <v>7990300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23192100</v>
+        <v>12686200</v>
       </c>
       <c r="E43" s="3">
-        <v>10159500</v>
+        <v>21180100</v>
       </c>
       <c r="F43" s="3">
-        <v>10998800</v>
+        <v>9278100</v>
       </c>
       <c r="G43" s="3">
-        <v>10265700</v>
+        <v>10044600</v>
       </c>
       <c r="H43" s="3">
-        <v>10043600</v>
+        <v>9375100</v>
       </c>
       <c r="I43" s="3">
-        <v>9038800</v>
+        <v>9172300</v>
       </c>
       <c r="J43" s="3">
+        <v>8254700</v>
+      </c>
+      <c r="K43" s="3">
         <v>9654700</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10867700</v>
+        <v>6808500</v>
       </c>
       <c r="E44" s="3">
-        <v>5032400</v>
+        <v>9924900</v>
       </c>
       <c r="F44" s="3">
-        <v>5572500</v>
+        <v>4595900</v>
       </c>
       <c r="G44" s="3">
-        <v>5910800</v>
+        <v>5089000</v>
       </c>
       <c r="H44" s="3">
-        <v>5466300</v>
+        <v>5398000</v>
       </c>
       <c r="I44" s="3">
-        <v>5827200</v>
+        <v>4992100</v>
       </c>
       <c r="J44" s="3">
+        <v>5321700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5676100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7973400</v>
+        <v>3685200</v>
       </c>
       <c r="E45" s="3">
-        <v>5067000</v>
+        <v>7281700</v>
       </c>
       <c r="F45" s="3">
-        <v>4344300</v>
+        <v>4627400</v>
       </c>
       <c r="G45" s="3">
-        <v>4407800</v>
+        <v>3967500</v>
       </c>
       <c r="H45" s="3">
-        <v>4485600</v>
+        <v>4025400</v>
       </c>
       <c r="I45" s="3">
-        <v>4469100</v>
+        <v>4096500</v>
       </c>
       <c r="J45" s="3">
+        <v>4081400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4388500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40219100</v>
+        <v>43119300</v>
       </c>
       <c r="E46" s="3">
-        <v>48920800</v>
+        <v>36730000</v>
       </c>
       <c r="F46" s="3">
-        <v>44753600</v>
+        <v>44676800</v>
       </c>
       <c r="G46" s="3">
-        <v>44152100</v>
+        <v>40871100</v>
       </c>
       <c r="H46" s="3">
-        <v>37154300</v>
+        <v>40321800</v>
       </c>
       <c r="I46" s="3">
-        <v>35798100</v>
+        <v>33931100</v>
       </c>
       <c r="J46" s="3">
+        <v>32692500</v>
+      </c>
+      <c r="K46" s="3">
         <v>35808100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>277066000</v>
+        <v>151203000</v>
       </c>
       <c r="E47" s="3">
-        <v>108622000</v>
+        <v>253030000</v>
       </c>
       <c r="F47" s="3">
-        <v>100011000</v>
+        <v>99198900</v>
       </c>
       <c r="G47" s="3">
-        <v>91749200</v>
+        <v>91335000</v>
       </c>
       <c r="H47" s="3">
-        <v>86253600</v>
+        <v>83789700</v>
       </c>
       <c r="I47" s="3">
-        <v>78766700</v>
+        <v>78770900</v>
       </c>
       <c r="J47" s="3">
+        <v>71933500</v>
+      </c>
+      <c r="K47" s="3">
         <v>72772400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23125700</v>
+        <v>11892500</v>
       </c>
       <c r="E48" s="3">
-        <v>11099700</v>
+        <v>21119500</v>
       </c>
       <c r="F48" s="3">
-        <v>6628300</v>
+        <v>10136800</v>
       </c>
       <c r="G48" s="3">
-        <v>6307700</v>
+        <v>6053200</v>
       </c>
       <c r="H48" s="3">
-        <v>6467400</v>
+        <v>5760500</v>
       </c>
       <c r="I48" s="3">
-        <v>7001600</v>
+        <v>5906400</v>
       </c>
       <c r="J48" s="3">
+        <v>6394200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6306100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27091400</v>
+        <v>21383900</v>
       </c>
       <c r="E49" s="3">
-        <v>14417400</v>
+        <v>24741200</v>
       </c>
       <c r="F49" s="3">
-        <v>14386000</v>
+        <v>13166600</v>
       </c>
       <c r="G49" s="3">
-        <v>9021800</v>
+        <v>13138000</v>
       </c>
       <c r="H49" s="3">
-        <v>9440300</v>
+        <v>8239200</v>
       </c>
       <c r="I49" s="3">
-        <v>10424000</v>
+        <v>8621400</v>
       </c>
       <c r="J49" s="3">
+        <v>9519700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10266800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17706900</v>
+        <v>9847800</v>
       </c>
       <c r="E52" s="3">
-        <v>13465600</v>
+        <v>16170800</v>
       </c>
       <c r="F52" s="3">
-        <v>13193800</v>
+        <v>12297400</v>
       </c>
       <c r="G52" s="3">
-        <v>11398200</v>
+        <v>12049200</v>
       </c>
       <c r="H52" s="3">
-        <v>11328900</v>
+        <v>10409400</v>
       </c>
       <c r="I52" s="3">
-        <v>10233600</v>
+        <v>10346000</v>
       </c>
       <c r="J52" s="3">
+        <v>9345800</v>
+      </c>
+      <c r="K52" s="3">
         <v>9913400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>234642000</v>
+        <v>237447000</v>
       </c>
       <c r="E54" s="3">
-        <v>196526000</v>
+        <v>214286000</v>
       </c>
       <c r="F54" s="3">
-        <v>178973000</v>
+        <v>179477000</v>
       </c>
       <c r="G54" s="3">
-        <v>162629000</v>
+        <v>163447000</v>
       </c>
       <c r="H54" s="3">
-        <v>150645000</v>
+        <v>148521000</v>
       </c>
       <c r="I54" s="3">
-        <v>142224000</v>
+        <v>137576000</v>
       </c>
       <c r="J54" s="3">
+        <v>129886000</v>
+      </c>
+      <c r="K54" s="3">
         <v>135067000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33718800</v>
+        <v>14358900</v>
       </c>
       <c r="E57" s="3">
-        <v>17153900</v>
+        <v>30793600</v>
       </c>
       <c r="F57" s="3">
-        <v>18639500</v>
+        <v>15665700</v>
       </c>
       <c r="G57" s="3">
-        <v>16914800</v>
+        <v>17022500</v>
       </c>
       <c r="H57" s="3">
-        <v>16502600</v>
+        <v>15447400</v>
       </c>
       <c r="I57" s="3">
-        <v>16361200</v>
+        <v>15071000</v>
       </c>
       <c r="J57" s="3">
+        <v>14941800</v>
+      </c>
+      <c r="K57" s="3">
         <v>17028600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13126400</v>
+        <v>16732600</v>
       </c>
       <c r="E58" s="3">
-        <v>7165100</v>
+        <v>11987700</v>
       </c>
       <c r="F58" s="3">
-        <v>6747900</v>
+        <v>6543500</v>
       </c>
       <c r="G58" s="3">
-        <v>6155400</v>
+        <v>6162500</v>
       </c>
       <c r="H58" s="3">
-        <v>4419200</v>
+        <v>5621400</v>
       </c>
       <c r="I58" s="3">
-        <v>2874100</v>
+        <v>4035800</v>
       </c>
       <c r="J58" s="3">
+        <v>2624800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1889600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48752900</v>
+        <v>37150100</v>
       </c>
       <c r="E59" s="3">
-        <v>28912000</v>
+        <v>44523400</v>
       </c>
       <c r="F59" s="3">
-        <v>26473400</v>
+        <v>26403800</v>
       </c>
       <c r="G59" s="3">
-        <v>24873000</v>
+        <v>24176800</v>
       </c>
       <c r="H59" s="3">
-        <v>23619600</v>
+        <v>22715200</v>
       </c>
       <c r="I59" s="3">
-        <v>21971000</v>
+        <v>21570500</v>
       </c>
       <c r="J59" s="3">
+        <v>20064900</v>
+      </c>
+      <c r="K59" s="3">
         <v>21561700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62726200</v>
+        <v>68241600</v>
       </c>
       <c r="E60" s="3">
-        <v>53231000</v>
+        <v>57284600</v>
       </c>
       <c r="F60" s="3">
-        <v>51860800</v>
+        <v>48613100</v>
       </c>
       <c r="G60" s="3">
-        <v>47943200</v>
+        <v>47361800</v>
       </c>
       <c r="H60" s="3">
-        <v>44541400</v>
+        <v>43784000</v>
       </c>
       <c r="I60" s="3">
-        <v>41206300</v>
+        <v>40677300</v>
       </c>
       <c r="J60" s="3">
+        <v>37631500</v>
+      </c>
+      <c r="K60" s="3">
         <v>40479900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8987500</v>
+        <v>9376400</v>
       </c>
       <c r="E61" s="3">
-        <v>5416300</v>
+        <v>8207800</v>
       </c>
       <c r="F61" s="3">
-        <v>4848200</v>
+        <v>4946400</v>
       </c>
       <c r="G61" s="3">
-        <v>5318000</v>
+        <v>4427600</v>
       </c>
       <c r="H61" s="3">
-        <v>5812900</v>
+        <v>4856700</v>
       </c>
       <c r="I61" s="3">
-        <v>4747800</v>
+        <v>5308600</v>
       </c>
       <c r="J61" s="3">
+        <v>4336000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6074100</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115852000</v>
+        <v>103762000</v>
       </c>
       <c r="E62" s="3">
-        <v>96957400</v>
+        <v>105801000</v>
       </c>
       <c r="F62" s="3">
-        <v>84343900</v>
+        <v>88546100</v>
       </c>
       <c r="G62" s="3">
-        <v>78179000</v>
+        <v>77026800</v>
       </c>
       <c r="H62" s="3">
-        <v>73442200</v>
+        <v>71396700</v>
       </c>
       <c r="I62" s="3">
-        <v>69554900</v>
+        <v>67070900</v>
       </c>
       <c r="J62" s="3">
+        <v>63520800</v>
+      </c>
+      <c r="K62" s="3">
         <v>63488300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>177659000</v>
+        <v>181791000</v>
       </c>
       <c r="E66" s="3">
-        <v>161337000</v>
+        <v>162246000</v>
       </c>
       <c r="F66" s="3">
-        <v>147016000</v>
+        <v>147340000</v>
       </c>
       <c r="G66" s="3">
-        <v>137317000</v>
+        <v>134262000</v>
       </c>
       <c r="H66" s="3">
-        <v>129343000</v>
+        <v>125405000</v>
       </c>
       <c r="I66" s="3">
-        <v>121212000</v>
+        <v>118122000</v>
       </c>
       <c r="J66" s="3">
+        <v>110696000</v>
+      </c>
+      <c r="K66" s="3">
         <v>115302000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24860700</v>
+        <v>29296300</v>
       </c>
       <c r="E72" s="3">
-        <v>23618300</v>
+        <v>22704000</v>
       </c>
       <c r="F72" s="3">
-        <v>19794600</v>
+        <v>21569400</v>
       </c>
       <c r="G72" s="3">
-        <v>12286500</v>
+        <v>18077400</v>
       </c>
       <c r="H72" s="3">
-        <v>8396700</v>
+        <v>11220600</v>
       </c>
       <c r="I72" s="3">
-        <v>7986900</v>
+        <v>7668200</v>
       </c>
       <c r="J72" s="3">
+        <v>7294000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6941400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56983300</v>
+        <v>55655400</v>
       </c>
       <c r="E76" s="3">
-        <v>35188900</v>
+        <v>52039900</v>
       </c>
       <c r="F76" s="3">
-        <v>31956600</v>
+        <v>32136100</v>
       </c>
       <c r="G76" s="3">
-        <v>25311600</v>
+        <v>29184300</v>
       </c>
       <c r="H76" s="3">
-        <v>21301500</v>
+        <v>23115800</v>
       </c>
       <c r="I76" s="3">
-        <v>21012300</v>
+        <v>19453500</v>
       </c>
       <c r="J76" s="3">
+        <v>19189400</v>
+      </c>
+      <c r="K76" s="3">
         <v>19764700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9995200</v>
+        <v>6872200</v>
       </c>
       <c r="E81" s="3">
-        <v>4966100</v>
+        <v>7868000</v>
       </c>
       <c r="F81" s="3">
-        <v>7815800</v>
+        <v>4535300</v>
       </c>
       <c r="G81" s="3">
-        <v>4186500</v>
+        <v>7137800</v>
       </c>
       <c r="H81" s="3">
-        <v>625200</v>
+        <v>3823300</v>
       </c>
       <c r="I81" s="3">
-        <v>1260700</v>
+        <v>570900</v>
       </c>
       <c r="J81" s="3">
+        <v>1151300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1074600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3332600</v>
+        <v>6506500</v>
       </c>
       <c r="E83" s="3">
-        <v>3554000</v>
+        <v>5354600</v>
       </c>
       <c r="F83" s="3">
-        <v>3190400</v>
+        <v>3245600</v>
       </c>
       <c r="G83" s="3">
-        <v>3083100</v>
+        <v>2913700</v>
       </c>
       <c r="H83" s="3">
-        <v>2789700</v>
+        <v>2815600</v>
       </c>
       <c r="I83" s="3">
-        <v>3387200</v>
+        <v>2547700</v>
       </c>
       <c r="J83" s="3">
+        <v>3093300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3024900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11511800</v>
+        <v>9610100</v>
       </c>
       <c r="E89" s="3">
-        <v>11488300</v>
+        <v>8882300</v>
       </c>
       <c r="F89" s="3">
-        <v>10705100</v>
+        <v>10491600</v>
       </c>
       <c r="G89" s="3">
-        <v>10640000</v>
+        <v>9776400</v>
       </c>
       <c r="H89" s="3">
-        <v>6903000</v>
+        <v>9716900</v>
       </c>
       <c r="I89" s="3">
-        <v>6389700</v>
+        <v>6304200</v>
       </c>
       <c r="J89" s="3">
+        <v>5835400</v>
+      </c>
+      <c r="K89" s="3">
         <v>6437100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4369400</v>
+        <v>-3436100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3751200</v>
+        <v>-7713400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2666900</v>
+        <v>-3425700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2243300</v>
+        <v>-2435500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2844800</v>
+        <v>-2048700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3202300</v>
+        <v>-2598000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2924500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1841800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15196300</v>
+        <v>-5677200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11534900</v>
+        <v>-4392900</v>
       </c>
       <c r="F94" s="3">
-        <v>-11152500</v>
+        <v>-10534200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7020800</v>
+        <v>-10185000</v>
       </c>
       <c r="H94" s="3">
-        <v>-10696400</v>
+        <v>-6411700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8789300</v>
+        <v>-9768400</v>
       </c>
       <c r="J94" s="3">
+        <v>-8026800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5456100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-522800</v>
+        <v>-579100</v>
       </c>
       <c r="E96" s="3">
-        <v>-422900</v>
+        <v>-477400</v>
       </c>
       <c r="F96" s="3">
-        <v>-324700</v>
+        <v>-386200</v>
       </c>
       <c r="G96" s="3">
-        <v>-243000</v>
+        <v>-296500</v>
       </c>
       <c r="H96" s="3">
-        <v>-215800</v>
+        <v>-221900</v>
       </c>
       <c r="I96" s="3">
-        <v>-108800</v>
+        <v>-197100</v>
       </c>
       <c r="J96" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-112300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5689200</v>
+        <v>-2621900</v>
       </c>
       <c r="E100" s="3">
-        <v>560100</v>
+        <v>-2637200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1048200</v>
+        <v>511500</v>
       </c>
       <c r="G100" s="3">
-        <v>2102300</v>
+        <v>-957300</v>
       </c>
       <c r="H100" s="3">
-        <v>3858100</v>
+        <v>1919900</v>
       </c>
       <c r="I100" s="3">
-        <v>3242400</v>
+        <v>3523400</v>
       </c>
       <c r="J100" s="3">
+        <v>2961200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2245100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>312800</v>
+        <v>735100</v>
       </c>
       <c r="E101" s="3">
-        <v>-184600</v>
+        <v>285800</v>
       </c>
       <c r="F101" s="3">
-        <v>447500</v>
+        <v>-168600</v>
       </c>
       <c r="G101" s="3">
-        <v>-452500</v>
+        <v>408700</v>
       </c>
       <c r="H101" s="3">
-        <v>-265000</v>
+        <v>-413200</v>
       </c>
       <c r="I101" s="3">
-        <v>-551100</v>
+        <v>-242000</v>
       </c>
       <c r="J101" s="3">
+        <v>-503300</v>
+      </c>
+      <c r="K101" s="3">
         <v>436200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2317500</v>
+        <v>2046100</v>
       </c>
       <c r="E102" s="3">
-        <v>328800</v>
+        <v>2138000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1048000</v>
+        <v>300300</v>
       </c>
       <c r="G102" s="3">
-        <v>5269000</v>
+        <v>-957100</v>
       </c>
       <c r="H102" s="3">
-        <v>-200200</v>
+        <v>4811900</v>
       </c>
       <c r="I102" s="3">
-        <v>291700</v>
+        <v>-182800</v>
       </c>
       <c r="J102" s="3">
+        <v>266400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-827900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>SONY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77288600</v>
+        <v>72724700</v>
       </c>
       <c r="E8" s="3">
-        <v>70099600</v>
+        <v>65960200</v>
       </c>
       <c r="F8" s="3">
-        <v>64344500</v>
+        <v>60545000</v>
       </c>
       <c r="G8" s="3">
-        <v>67505700</v>
+        <v>63519500</v>
       </c>
       <c r="H8" s="3">
-        <v>66557600</v>
+        <v>62627400</v>
       </c>
       <c r="I8" s="3">
-        <v>59229300</v>
+        <v>55731800</v>
       </c>
       <c r="J8" s="3">
-        <v>63143500</v>
+        <v>59414900</v>
       </c>
       <c r="K8" s="3">
         <v>70081500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56242600</v>
+        <v>52921400</v>
       </c>
       <c r="E9" s="3">
-        <v>86585600</v>
+        <v>81472800</v>
       </c>
       <c r="F9" s="3">
-        <v>42266700</v>
+        <v>39770800</v>
       </c>
       <c r="G9" s="3">
-        <v>45041700</v>
+        <v>42382000</v>
       </c>
       <c r="H9" s="3">
-        <v>44963100</v>
+        <v>42308100</v>
       </c>
       <c r="I9" s="3">
-        <v>40630300</v>
+        <v>38231100</v>
       </c>
       <c r="J9" s="3">
-        <v>43674400</v>
+        <v>41095400</v>
       </c>
       <c r="K9" s="3">
         <v>48568200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21046000</v>
+        <v>19803300</v>
       </c>
       <c r="E10" s="3">
-        <v>-16486100</v>
+        <v>-15512600</v>
       </c>
       <c r="F10" s="3">
-        <v>22077800</v>
+        <v>20774100</v>
       </c>
       <c r="G10" s="3">
-        <v>22464000</v>
+        <v>21137500</v>
       </c>
       <c r="H10" s="3">
-        <v>21594500</v>
+        <v>20319300</v>
       </c>
       <c r="I10" s="3">
-        <v>18599000</v>
+        <v>17500800</v>
       </c>
       <c r="J10" s="3">
-        <v>19469100</v>
+        <v>18319500</v>
       </c>
       <c r="K10" s="3">
         <v>21513200</v>
@@ -821,22 +821,22 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>4091100</v>
+        <v>3849500</v>
       </c>
       <c r="F12" s="3">
-        <v>3889500</v>
+        <v>3659800</v>
       </c>
       <c r="G12" s="3">
-        <v>3748600</v>
+        <v>3527200</v>
       </c>
       <c r="H12" s="3">
-        <v>3571900</v>
+        <v>3360900</v>
       </c>
       <c r="I12" s="3">
-        <v>3485700</v>
+        <v>3279900</v>
       </c>
       <c r="J12" s="3">
-        <v>3647100</v>
+        <v>3431800</v>
       </c>
       <c r="K12" s="3">
         <v>3960600</v>
@@ -881,19 +881,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>185700</v>
+        <v>174700</v>
       </c>
       <c r="F14" s="3">
-        <v>232000</v>
+        <v>218300</v>
       </c>
       <c r="G14" s="3">
-        <v>365600</v>
+        <v>344000</v>
       </c>
       <c r="H14" s="3">
-        <v>300700</v>
+        <v>282900</v>
       </c>
       <c r="I14" s="3">
-        <v>873000</v>
+        <v>821500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>67922400</v>
+        <v>63911500</v>
       </c>
       <c r="E17" s="3">
-        <v>62658100</v>
+        <v>58958200</v>
       </c>
       <c r="F17" s="3">
-        <v>57758400</v>
+        <v>54347700</v>
       </c>
       <c r="G17" s="3">
-        <v>60539600</v>
+        <v>56964700</v>
       </c>
       <c r="H17" s="3">
-        <v>60833100</v>
+        <v>57240900</v>
       </c>
       <c r="I17" s="3">
-        <v>56980300</v>
+        <v>53615600</v>
       </c>
       <c r="J17" s="3">
-        <v>60851700</v>
+        <v>57258400</v>
       </c>
       <c r="K17" s="3">
         <v>69496700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9366200</v>
+        <v>8813100</v>
       </c>
       <c r="E18" s="3">
-        <v>7441400</v>
+        <v>7002000</v>
       </c>
       <c r="F18" s="3">
-        <v>6586100</v>
+        <v>6197200</v>
       </c>
       <c r="G18" s="3">
-        <v>6966100</v>
+        <v>6554700</v>
       </c>
       <c r="H18" s="3">
-        <v>5724600</v>
+        <v>5386500</v>
       </c>
       <c r="I18" s="3">
-        <v>2249000</v>
+        <v>2116200</v>
       </c>
       <c r="J18" s="3">
-        <v>2291800</v>
+        <v>2156500</v>
       </c>
       <c r="K18" s="3">
         <v>584700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-660900</v>
+        <v>-514800</v>
       </c>
       <c r="E20" s="3">
-        <v>427600</v>
+        <v>506500</v>
       </c>
       <c r="F20" s="3">
-        <v>-272000</v>
+        <v>-256000</v>
       </c>
       <c r="G20" s="3">
-        <v>1011800</v>
+        <v>952000</v>
       </c>
       <c r="H20" s="3">
-        <v>-173300</v>
+        <v>-163100</v>
       </c>
       <c r="I20" s="3">
-        <v>-175600</v>
+        <v>-165200</v>
       </c>
       <c r="J20" s="3">
-        <v>277300</v>
+        <v>260900</v>
       </c>
       <c r="K20" s="3">
         <v>-44500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15128300</v>
+        <v>14387200</v>
       </c>
       <c r="E21" s="3">
-        <v>13155000</v>
+        <v>12519500</v>
       </c>
       <c r="F21" s="3">
-        <v>9518100</v>
+        <v>8978600</v>
       </c>
       <c r="G21" s="3">
-        <v>10854100</v>
+        <v>10233400</v>
       </c>
       <c r="H21" s="3">
-        <v>8330800</v>
+        <v>7858400</v>
       </c>
       <c r="I21" s="3">
-        <v>4588400</v>
+        <v>4335200</v>
       </c>
       <c r="J21" s="3">
-        <v>5622700</v>
+        <v>5312200</v>
       </c>
       <c r="K21" s="3">
         <v>3600600</v>
@@ -1082,26 +1082,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>107000</v>
       </c>
       <c r="E22" s="3">
-        <v>94900</v>
+        <v>193500</v>
       </c>
       <c r="F22" s="3">
-        <v>86400</v>
+        <v>81300</v>
       </c>
       <c r="G22" s="3">
-        <v>97100</v>
+        <v>91400</v>
       </c>
       <c r="H22" s="3">
-        <v>105700</v>
+        <v>99400</v>
       </c>
       <c r="I22" s="3">
-        <v>113300</v>
+        <v>106600</v>
       </c>
       <c r="J22" s="3">
-        <v>197000</v>
+        <v>185300</v>
       </c>
       <c r="K22" s="3">
         <v>201300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8705300</v>
+        <v>8191300</v>
       </c>
       <c r="E23" s="3">
-        <v>7774100</v>
+        <v>7315100</v>
       </c>
       <c r="F23" s="3">
-        <v>6227700</v>
+        <v>5860000</v>
       </c>
       <c r="G23" s="3">
-        <v>7880700</v>
+        <v>7415400</v>
       </c>
       <c r="H23" s="3">
-        <v>5445600</v>
+        <v>5124000</v>
       </c>
       <c r="I23" s="3">
-        <v>1960100</v>
+        <v>1844400</v>
       </c>
       <c r="J23" s="3">
-        <v>2372100</v>
+        <v>2232000</v>
       </c>
       <c r="K23" s="3">
         <v>338900</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1784700</v>
+        <v>1679300</v>
       </c>
       <c r="E24" s="3">
-        <v>-357800</v>
+        <v>-336700</v>
       </c>
       <c r="F24" s="3">
-        <v>1380300</v>
+        <v>1298800</v>
       </c>
       <c r="G24" s="3">
-        <v>351300</v>
+        <v>330600</v>
       </c>
       <c r="H24" s="3">
-        <v>1182300</v>
+        <v>1112500</v>
       </c>
       <c r="I24" s="3">
-        <v>966400</v>
+        <v>909300</v>
       </c>
       <c r="J24" s="3">
-        <v>738400</v>
+        <v>694800</v>
       </c>
       <c r="K24" s="3">
         <v>756900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6920700</v>
+        <v>6512000</v>
       </c>
       <c r="E26" s="3">
-        <v>8131900</v>
+        <v>7651800</v>
       </c>
       <c r="F26" s="3">
-        <v>4847400</v>
+        <v>4561200</v>
       </c>
       <c r="G26" s="3">
-        <v>7529400</v>
+        <v>7084800</v>
       </c>
       <c r="H26" s="3">
-        <v>4263300</v>
+        <v>4011600</v>
       </c>
       <c r="I26" s="3">
-        <v>993700</v>
+        <v>935000</v>
       </c>
       <c r="J26" s="3">
-        <v>1633700</v>
+        <v>1537200</v>
       </c>
       <c r="K26" s="3">
         <v>-418000</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6872200</v>
+        <v>6466400</v>
       </c>
       <c r="E27" s="3">
-        <v>7868000</v>
+        <v>7403400</v>
       </c>
       <c r="F27" s="3">
-        <v>4535300</v>
+        <v>4267500</v>
       </c>
       <c r="G27" s="3">
-        <v>7137800</v>
+        <v>6716300</v>
       </c>
       <c r="H27" s="3">
-        <v>3823300</v>
+        <v>3597500</v>
       </c>
       <c r="I27" s="3">
-        <v>570900</v>
+        <v>537200</v>
       </c>
       <c r="J27" s="3">
-        <v>1151300</v>
+        <v>1083300</v>
       </c>
       <c r="K27" s="3">
         <v>-1074600</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>660900</v>
+        <v>514800</v>
       </c>
       <c r="E32" s="3">
-        <v>-427600</v>
+        <v>-506500</v>
       </c>
       <c r="F32" s="3">
-        <v>272000</v>
+        <v>256000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1011800</v>
+        <v>-952000</v>
       </c>
       <c r="H32" s="3">
-        <v>173300</v>
+        <v>163100</v>
       </c>
       <c r="I32" s="3">
-        <v>175600</v>
+        <v>165200</v>
       </c>
       <c r="J32" s="3">
-        <v>-277300</v>
+        <v>-260900</v>
       </c>
       <c r="K32" s="3">
         <v>44500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6872200</v>
+        <v>6466400</v>
       </c>
       <c r="E33" s="3">
-        <v>7868000</v>
+        <v>7403400</v>
       </c>
       <c r="F33" s="3">
-        <v>4535300</v>
+        <v>4267500</v>
       </c>
       <c r="G33" s="3">
-        <v>7137800</v>
+        <v>6716300</v>
       </c>
       <c r="H33" s="3">
-        <v>3823300</v>
+        <v>3597500</v>
       </c>
       <c r="I33" s="3">
-        <v>570900</v>
+        <v>537200</v>
       </c>
       <c r="J33" s="3">
-        <v>1151300</v>
+        <v>1083300</v>
       </c>
       <c r="K33" s="3">
         <v>-1074600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6872200</v>
+        <v>6466400</v>
       </c>
       <c r="E35" s="3">
-        <v>7868000</v>
+        <v>7403400</v>
       </c>
       <c r="F35" s="3">
-        <v>4535300</v>
+        <v>4267500</v>
       </c>
       <c r="G35" s="3">
-        <v>7137800</v>
+        <v>6716300</v>
       </c>
       <c r="H35" s="3">
-        <v>3823300</v>
+        <v>3597500</v>
       </c>
       <c r="I35" s="3">
-        <v>570900</v>
+        <v>537200</v>
       </c>
       <c r="J35" s="3">
-        <v>1151300</v>
+        <v>1083300</v>
       </c>
       <c r="K35" s="3">
         <v>-1074600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15966700</v>
+        <v>15023800</v>
       </c>
       <c r="E41" s="3">
-        <v>27841200</v>
+        <v>26197200</v>
       </c>
       <c r="F41" s="3">
-        <v>11781300</v>
+        <v>11085600</v>
       </c>
       <c r="G41" s="3">
-        <v>11451900</v>
+        <v>10775600</v>
       </c>
       <c r="H41" s="3">
-        <v>12357500</v>
+        <v>11627800</v>
       </c>
       <c r="I41" s="3">
-        <v>7479500</v>
+        <v>7037800</v>
       </c>
       <c r="J41" s="3">
-        <v>7662300</v>
+        <v>7209900</v>
       </c>
       <c r="K41" s="3">
         <v>8098500</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3972700</v>
+        <v>3738100</v>
       </c>
       <c r="E42" s="3">
-        <v>26736100</v>
+        <v>25157300</v>
       </c>
       <c r="F42" s="3">
-        <v>14394100</v>
+        <v>13544200</v>
       </c>
       <c r="G42" s="3">
-        <v>10318200</v>
+        <v>9708900</v>
       </c>
       <c r="H42" s="3">
-        <v>9165700</v>
+        <v>8624500</v>
       </c>
       <c r="I42" s="3">
-        <v>8190700</v>
+        <v>7707100</v>
       </c>
       <c r="J42" s="3">
-        <v>7372400</v>
+        <v>6937100</v>
       </c>
       <c r="K42" s="3">
         <v>7990300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12686200</v>
+        <v>11937100</v>
       </c>
       <c r="E43" s="3">
-        <v>21180100</v>
+        <v>19929400</v>
       </c>
       <c r="F43" s="3">
-        <v>9278100</v>
+        <v>8730200</v>
       </c>
       <c r="G43" s="3">
-        <v>10044600</v>
+        <v>9451500</v>
       </c>
       <c r="H43" s="3">
-        <v>9375100</v>
+        <v>8821500</v>
       </c>
       <c r="I43" s="3">
-        <v>9172300</v>
+        <v>8630700</v>
       </c>
       <c r="J43" s="3">
-        <v>8254700</v>
+        <v>7767200</v>
       </c>
       <c r="K43" s="3">
         <v>9654700</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6808500</v>
+        <v>6406500</v>
       </c>
       <c r="E44" s="3">
-        <v>9924900</v>
+        <v>9333600</v>
       </c>
       <c r="F44" s="3">
-        <v>4595900</v>
+        <v>4324500</v>
       </c>
       <c r="G44" s="3">
-        <v>5089000</v>
+        <v>4788500</v>
       </c>
       <c r="H44" s="3">
-        <v>5398000</v>
+        <v>5079200</v>
       </c>
       <c r="I44" s="3">
-        <v>4992100</v>
+        <v>4697300</v>
       </c>
       <c r="J44" s="3">
-        <v>5321700</v>
+        <v>5007500</v>
       </c>
       <c r="K44" s="3">
         <v>5676100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3685200</v>
+        <v>3467600</v>
       </c>
       <c r="E45" s="3">
-        <v>7281700</v>
+        <v>6851700</v>
       </c>
       <c r="F45" s="3">
-        <v>4627400</v>
+        <v>4354200</v>
       </c>
       <c r="G45" s="3">
-        <v>3967500</v>
+        <v>3733200</v>
       </c>
       <c r="H45" s="3">
-        <v>4025400</v>
+        <v>3787700</v>
       </c>
       <c r="I45" s="3">
-        <v>4096500</v>
+        <v>3854600</v>
       </c>
       <c r="J45" s="3">
-        <v>4081400</v>
+        <v>3840300</v>
       </c>
       <c r="K45" s="3">
         <v>4388500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43119300</v>
+        <v>40573100</v>
       </c>
       <c r="E46" s="3">
-        <v>36730000</v>
+        <v>34561100</v>
       </c>
       <c r="F46" s="3">
-        <v>44676800</v>
+        <v>42038600</v>
       </c>
       <c r="G46" s="3">
-        <v>40871100</v>
+        <v>38457700</v>
       </c>
       <c r="H46" s="3">
-        <v>40321800</v>
+        <v>37940800</v>
       </c>
       <c r="I46" s="3">
-        <v>33931100</v>
+        <v>31927400</v>
       </c>
       <c r="J46" s="3">
-        <v>32692500</v>
+        <v>30762000</v>
       </c>
       <c r="K46" s="3">
         <v>35808100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>151203000</v>
+        <v>142275000</v>
       </c>
       <c r="E47" s="3">
-        <v>253030000</v>
+        <v>238089000</v>
       </c>
       <c r="F47" s="3">
-        <v>99198900</v>
+        <v>93341200</v>
       </c>
       <c r="G47" s="3">
-        <v>91335000</v>
+        <v>85941700</v>
       </c>
       <c r="H47" s="3">
-        <v>83789700</v>
+        <v>78841900</v>
       </c>
       <c r="I47" s="3">
-        <v>78770900</v>
+        <v>74119400</v>
       </c>
       <c r="J47" s="3">
-        <v>71933500</v>
+        <v>67685800</v>
       </c>
       <c r="K47" s="3">
         <v>72772400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11892500</v>
+        <v>11190300</v>
       </c>
       <c r="E48" s="3">
-        <v>21119500</v>
+        <v>7983500</v>
       </c>
       <c r="F48" s="3">
-        <v>10136800</v>
+        <v>9538200</v>
       </c>
       <c r="G48" s="3">
-        <v>6053200</v>
+        <v>5695800</v>
       </c>
       <c r="H48" s="3">
-        <v>5760500</v>
+        <v>5420300</v>
       </c>
       <c r="I48" s="3">
-        <v>5906400</v>
+        <v>5557600</v>
       </c>
       <c r="J48" s="3">
-        <v>6394200</v>
+        <v>6016600</v>
       </c>
       <c r="K48" s="3">
         <v>6306100</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21383900</v>
+        <v>20121200</v>
       </c>
       <c r="E49" s="3">
-        <v>24741200</v>
+        <v>38428300</v>
       </c>
       <c r="F49" s="3">
-        <v>13166600</v>
+        <v>12389200</v>
       </c>
       <c r="G49" s="3">
-        <v>13138000</v>
+        <v>12362200</v>
       </c>
       <c r="H49" s="3">
-        <v>8239200</v>
+        <v>7752600</v>
       </c>
       <c r="I49" s="3">
-        <v>8621400</v>
+        <v>8112300</v>
       </c>
       <c r="J49" s="3">
-        <v>9519700</v>
+        <v>8957600</v>
       </c>
       <c r="K49" s="3">
         <v>10266800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9847800</v>
+        <v>9266300</v>
       </c>
       <c r="E52" s="3">
-        <v>16170800</v>
+        <v>15215900</v>
       </c>
       <c r="F52" s="3">
-        <v>12297400</v>
+        <v>11571200</v>
       </c>
       <c r="G52" s="3">
-        <v>12049200</v>
+        <v>11337700</v>
       </c>
       <c r="H52" s="3">
-        <v>10409400</v>
+        <v>9794700</v>
       </c>
       <c r="I52" s="3">
-        <v>10346000</v>
+        <v>9735100</v>
       </c>
       <c r="J52" s="3">
-        <v>9345800</v>
+        <v>8793900</v>
       </c>
       <c r="K52" s="3">
         <v>9913400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>237447000</v>
+        <v>223426000</v>
       </c>
       <c r="E54" s="3">
-        <v>214286000</v>
+        <v>201633000</v>
       </c>
       <c r="F54" s="3">
-        <v>179477000</v>
+        <v>168878000</v>
       </c>
       <c r="G54" s="3">
-        <v>163447000</v>
+        <v>153795000</v>
       </c>
       <c r="H54" s="3">
-        <v>148521000</v>
+        <v>139750000</v>
       </c>
       <c r="I54" s="3">
-        <v>137576000</v>
+        <v>129452000</v>
       </c>
       <c r="J54" s="3">
-        <v>129886000</v>
+        <v>122216000</v>
       </c>
       <c r="K54" s="3">
         <v>135067000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14358900</v>
+        <v>13511000</v>
       </c>
       <c r="E57" s="3">
-        <v>30793600</v>
+        <v>28975200</v>
       </c>
       <c r="F57" s="3">
-        <v>15665700</v>
+        <v>14740700</v>
       </c>
       <c r="G57" s="3">
-        <v>17022500</v>
+        <v>16017300</v>
       </c>
       <c r="H57" s="3">
-        <v>15447400</v>
+        <v>14535300</v>
       </c>
       <c r="I57" s="3">
-        <v>15071000</v>
+        <v>14181000</v>
       </c>
       <c r="J57" s="3">
-        <v>14941800</v>
+        <v>14059500</v>
       </c>
       <c r="K57" s="3">
         <v>17028600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16732600</v>
+        <v>15744600</v>
       </c>
       <c r="E58" s="3">
-        <v>11987700</v>
+        <v>11279800</v>
       </c>
       <c r="F58" s="3">
-        <v>6543500</v>
+        <v>6157100</v>
       </c>
       <c r="G58" s="3">
-        <v>6162500</v>
+        <v>5798600</v>
       </c>
       <c r="H58" s="3">
-        <v>5621400</v>
+        <v>5289400</v>
       </c>
       <c r="I58" s="3">
-        <v>4035800</v>
+        <v>3797500</v>
       </c>
       <c r="J58" s="3">
-        <v>2624800</v>
+        <v>2469800</v>
       </c>
       <c r="K58" s="3">
         <v>1889600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37150100</v>
+        <v>34956400</v>
       </c>
       <c r="E59" s="3">
-        <v>44523400</v>
+        <v>41894300</v>
       </c>
       <c r="F59" s="3">
-        <v>26403800</v>
+        <v>24844700</v>
       </c>
       <c r="G59" s="3">
-        <v>24176800</v>
+        <v>22749100</v>
       </c>
       <c r="H59" s="3">
-        <v>22715200</v>
+        <v>21373900</v>
       </c>
       <c r="I59" s="3">
-        <v>21570500</v>
+        <v>20296800</v>
       </c>
       <c r="J59" s="3">
-        <v>20064900</v>
+        <v>18880100</v>
       </c>
       <c r="K59" s="3">
         <v>21561700</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68241600</v>
+        <v>64211900</v>
       </c>
       <c r="E60" s="3">
-        <v>57284600</v>
+        <v>53901900</v>
       </c>
       <c r="F60" s="3">
-        <v>48613100</v>
+        <v>45742400</v>
       </c>
       <c r="G60" s="3">
-        <v>47361800</v>
+        <v>44565000</v>
       </c>
       <c r="H60" s="3">
-        <v>43784000</v>
+        <v>41198600</v>
       </c>
       <c r="I60" s="3">
-        <v>40677300</v>
+        <v>38275300</v>
       </c>
       <c r="J60" s="3">
-        <v>37631500</v>
+        <v>35409400</v>
       </c>
       <c r="K60" s="3">
         <v>40479900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9376400</v>
+        <v>8822700</v>
       </c>
       <c r="E61" s="3">
-        <v>8207800</v>
+        <v>7723200</v>
       </c>
       <c r="F61" s="3">
-        <v>4946400</v>
+        <v>4654300</v>
       </c>
       <c r="G61" s="3">
-        <v>4427600</v>
+        <v>4166200</v>
       </c>
       <c r="H61" s="3">
-        <v>4856700</v>
+        <v>4569900</v>
       </c>
       <c r="I61" s="3">
-        <v>5308600</v>
+        <v>4995100</v>
       </c>
       <c r="J61" s="3">
-        <v>4336000</v>
+        <v>4079900</v>
       </c>
       <c r="K61" s="3">
         <v>6074100</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>103762000</v>
+        <v>97635000</v>
       </c>
       <c r="E62" s="3">
-        <v>105801000</v>
+        <v>99553800</v>
       </c>
       <c r="F62" s="3">
-        <v>88546100</v>
+        <v>83317400</v>
       </c>
       <c r="G62" s="3">
-        <v>77026800</v>
+        <v>72478400</v>
       </c>
       <c r="H62" s="3">
-        <v>71396700</v>
+        <v>67180800</v>
       </c>
       <c r="I62" s="3">
-        <v>67070900</v>
+        <v>63110400</v>
       </c>
       <c r="J62" s="3">
-        <v>63520800</v>
+        <v>59769900</v>
       </c>
       <c r="K62" s="3">
         <v>63488300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>181791000</v>
+        <v>171057000</v>
       </c>
       <c r="E66" s="3">
-        <v>162246000</v>
+        <v>152666000</v>
       </c>
       <c r="F66" s="3">
-        <v>147340000</v>
+        <v>138640000</v>
       </c>
       <c r="G66" s="3">
-        <v>134262000</v>
+        <v>126334000</v>
       </c>
       <c r="H66" s="3">
-        <v>125405000</v>
+        <v>118000000</v>
       </c>
       <c r="I66" s="3">
-        <v>118122000</v>
+        <v>111147000</v>
       </c>
       <c r="J66" s="3">
-        <v>110696000</v>
+        <v>104160000</v>
       </c>
       <c r="K66" s="3">
         <v>115302000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29296300</v>
+        <v>27566400</v>
       </c>
       <c r="E72" s="3">
-        <v>22704000</v>
+        <v>21363300</v>
       </c>
       <c r="F72" s="3">
-        <v>21569400</v>
+        <v>20295700</v>
       </c>
       <c r="G72" s="3">
-        <v>18077400</v>
+        <v>17009900</v>
       </c>
       <c r="H72" s="3">
-        <v>11220600</v>
+        <v>10558000</v>
       </c>
       <c r="I72" s="3">
-        <v>7668200</v>
+        <v>7215400</v>
       </c>
       <c r="J72" s="3">
-        <v>7294000</v>
+        <v>6863300</v>
       </c>
       <c r="K72" s="3">
         <v>6941400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55655400</v>
+        <v>52369000</v>
       </c>
       <c r="E76" s="3">
-        <v>52039900</v>
+        <v>48966900</v>
       </c>
       <c r="F76" s="3">
-        <v>32136100</v>
+        <v>30238500</v>
       </c>
       <c r="G76" s="3">
-        <v>29184300</v>
+        <v>27460900</v>
       </c>
       <c r="H76" s="3">
-        <v>23115800</v>
+        <v>21750800</v>
       </c>
       <c r="I76" s="3">
-        <v>19453500</v>
+        <v>18304800</v>
       </c>
       <c r="J76" s="3">
-        <v>19189400</v>
+        <v>18056300</v>
       </c>
       <c r="K76" s="3">
         <v>19764700</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6872200</v>
+        <v>6466400</v>
       </c>
       <c r="E81" s="3">
-        <v>7868000</v>
+        <v>7403400</v>
       </c>
       <c r="F81" s="3">
-        <v>4535300</v>
+        <v>4267500</v>
       </c>
       <c r="G81" s="3">
-        <v>7137800</v>
+        <v>6716300</v>
       </c>
       <c r="H81" s="3">
-        <v>3823300</v>
+        <v>3597500</v>
       </c>
       <c r="I81" s="3">
-        <v>570900</v>
+        <v>537200</v>
       </c>
       <c r="J81" s="3">
-        <v>1151300</v>
+        <v>1083300</v>
       </c>
       <c r="K81" s="3">
         <v>-1074600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6506500</v>
+        <v>6122300</v>
       </c>
       <c r="E83" s="3">
-        <v>5354600</v>
+        <v>5038400</v>
       </c>
       <c r="F83" s="3">
-        <v>3245600</v>
+        <v>3054000</v>
       </c>
       <c r="G83" s="3">
-        <v>2913700</v>
+        <v>2741600</v>
       </c>
       <c r="H83" s="3">
-        <v>2815600</v>
+        <v>2649400</v>
       </c>
       <c r="I83" s="3">
-        <v>2547700</v>
+        <v>2397300</v>
       </c>
       <c r="J83" s="3">
-        <v>3093300</v>
+        <v>2910700</v>
       </c>
       <c r="K83" s="3">
         <v>3024900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9610100</v>
+        <v>9042600</v>
       </c>
       <c r="E89" s="3">
-        <v>8882300</v>
+        <v>8357800</v>
       </c>
       <c r="F89" s="3">
-        <v>10491600</v>
+        <v>9872100</v>
       </c>
       <c r="G89" s="3">
-        <v>9776400</v>
+        <v>9199100</v>
       </c>
       <c r="H89" s="3">
-        <v>9716900</v>
+        <v>9143200</v>
       </c>
       <c r="I89" s="3">
-        <v>6304200</v>
+        <v>5931900</v>
       </c>
       <c r="J89" s="3">
-        <v>5835400</v>
+        <v>5490800</v>
       </c>
       <c r="K89" s="3">
         <v>6437100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3436100</v>
+        <v>-3233200</v>
       </c>
       <c r="E91" s="3">
-        <v>-7713400</v>
+        <v>-7257900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3425700</v>
+        <v>-3223400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2435500</v>
+        <v>-2291700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2048700</v>
+        <v>-1927700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2598000</v>
+        <v>-2444600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2924500</v>
+        <v>-2751800</v>
       </c>
       <c r="K91" s="3">
         <v>-1841800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5677200</v>
+        <v>-5342000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4392900</v>
+        <v>-4133500</v>
       </c>
       <c r="F94" s="3">
-        <v>-10534200</v>
+        <v>-9912200</v>
       </c>
       <c r="G94" s="3">
-        <v>-10185000</v>
+        <v>-9583600</v>
       </c>
       <c r="H94" s="3">
-        <v>-6411700</v>
+        <v>-6033100</v>
       </c>
       <c r="I94" s="3">
-        <v>-9768400</v>
+        <v>-9191600</v>
       </c>
       <c r="J94" s="3">
-        <v>-8026800</v>
+        <v>-7552900</v>
       </c>
       <c r="K94" s="3">
         <v>-5456100</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-579100</v>
+        <v>-544900</v>
       </c>
       <c r="E96" s="3">
-        <v>-477400</v>
+        <v>-449200</v>
       </c>
       <c r="F96" s="3">
-        <v>-386200</v>
+        <v>-363400</v>
       </c>
       <c r="G96" s="3">
-        <v>-296500</v>
+        <v>-279000</v>
       </c>
       <c r="H96" s="3">
-        <v>-221900</v>
+        <v>-208800</v>
       </c>
       <c r="I96" s="3">
-        <v>-197100</v>
+        <v>-185500</v>
       </c>
       <c r="J96" s="3">
-        <v>-99300</v>
+        <v>-93500</v>
       </c>
       <c r="K96" s="3">
         <v>-112300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2621900</v>
+        <v>-2467100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2637200</v>
+        <v>-2481400</v>
       </c>
       <c r="F100" s="3">
-        <v>511500</v>
+        <v>481300</v>
       </c>
       <c r="G100" s="3">
-        <v>-957300</v>
+        <v>-900700</v>
       </c>
       <c r="H100" s="3">
-        <v>1919900</v>
+        <v>1806500</v>
       </c>
       <c r="I100" s="3">
-        <v>3523400</v>
+        <v>3315400</v>
       </c>
       <c r="J100" s="3">
-        <v>2961200</v>
+        <v>2786300</v>
       </c>
       <c r="K100" s="3">
         <v>-2245100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>735100</v>
+        <v>691700</v>
       </c>
       <c r="E101" s="3">
-        <v>285800</v>
+        <v>268900</v>
       </c>
       <c r="F101" s="3">
-        <v>-168600</v>
+        <v>-158600</v>
       </c>
       <c r="G101" s="3">
-        <v>408700</v>
+        <v>384600</v>
       </c>
       <c r="H101" s="3">
-        <v>-413200</v>
+        <v>-388800</v>
       </c>
       <c r="I101" s="3">
-        <v>-242000</v>
+        <v>-227700</v>
       </c>
       <c r="J101" s="3">
-        <v>-503300</v>
+        <v>-473600</v>
       </c>
       <c r="K101" s="3">
         <v>436200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2046100</v>
+        <v>1925300</v>
       </c>
       <c r="E102" s="3">
-        <v>2138000</v>
+        <v>2011800</v>
       </c>
       <c r="F102" s="3">
-        <v>300300</v>
+        <v>282500</v>
       </c>
       <c r="G102" s="3">
-        <v>-957100</v>
+        <v>-900600</v>
       </c>
       <c r="H102" s="3">
-        <v>4811900</v>
+        <v>4527800</v>
       </c>
       <c r="I102" s="3">
-        <v>-182800</v>
+        <v>-172000</v>
       </c>
       <c r="J102" s="3">
-        <v>266400</v>
+        <v>250700</v>
       </c>
       <c r="K102" s="3">
         <v>-827900</v>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72724700</v>
+        <v>70343500</v>
       </c>
       <c r="E8" s="3">
-        <v>65960200</v>
+        <v>63800500</v>
       </c>
       <c r="F8" s="3">
-        <v>60545000</v>
+        <v>58562600</v>
       </c>
       <c r="G8" s="3">
-        <v>63519500</v>
+        <v>61439700</v>
       </c>
       <c r="H8" s="3">
-        <v>62627400</v>
+        <v>60576800</v>
       </c>
       <c r="I8" s="3">
-        <v>55731800</v>
+        <v>53907000</v>
       </c>
       <c r="J8" s="3">
-        <v>59414900</v>
+        <v>57469500</v>
       </c>
       <c r="K8" s="3">
         <v>70081500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52921400</v>
+        <v>51188700</v>
       </c>
       <c r="E9" s="3">
-        <v>81472800</v>
+        <v>78805200</v>
       </c>
       <c r="F9" s="3">
-        <v>39770800</v>
+        <v>38468600</v>
       </c>
       <c r="G9" s="3">
-        <v>42382000</v>
+        <v>40994300</v>
       </c>
       <c r="H9" s="3">
-        <v>42308100</v>
+        <v>40922800</v>
       </c>
       <c r="I9" s="3">
-        <v>38231100</v>
+        <v>36979300</v>
       </c>
       <c r="J9" s="3">
-        <v>41095400</v>
+        <v>39749900</v>
       </c>
       <c r="K9" s="3">
         <v>48568200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19803300</v>
+        <v>19154900</v>
       </c>
       <c r="E10" s="3">
-        <v>-15512600</v>
+        <v>-15004700</v>
       </c>
       <c r="F10" s="3">
-        <v>20774100</v>
+        <v>20094000</v>
       </c>
       <c r="G10" s="3">
-        <v>21137500</v>
+        <v>20445400</v>
       </c>
       <c r="H10" s="3">
-        <v>20319300</v>
+        <v>19654000</v>
       </c>
       <c r="I10" s="3">
-        <v>17500800</v>
+        <v>16927700</v>
       </c>
       <c r="J10" s="3">
-        <v>18319500</v>
+        <v>17719600</v>
       </c>
       <c r="K10" s="3">
         <v>21513200</v>
@@ -821,22 +821,22 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>3849500</v>
+        <v>3723500</v>
       </c>
       <c r="F12" s="3">
-        <v>3659800</v>
+        <v>3540000</v>
       </c>
       <c r="G12" s="3">
-        <v>3527200</v>
+        <v>3411700</v>
       </c>
       <c r="H12" s="3">
-        <v>3360900</v>
+        <v>3250900</v>
       </c>
       <c r="I12" s="3">
-        <v>3279900</v>
+        <v>3172500</v>
       </c>
       <c r="J12" s="3">
-        <v>3431800</v>
+        <v>3319400</v>
       </c>
       <c r="K12" s="3">
         <v>3960600</v>
@@ -881,19 +881,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>174700</v>
+        <v>169000</v>
       </c>
       <c r="F14" s="3">
-        <v>218300</v>
+        <v>211100</v>
       </c>
       <c r="G14" s="3">
-        <v>344000</v>
+        <v>332700</v>
       </c>
       <c r="H14" s="3">
-        <v>282900</v>
+        <v>273700</v>
       </c>
       <c r="I14" s="3">
-        <v>821500</v>
+        <v>794600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63911500</v>
+        <v>61818900</v>
       </c>
       <c r="E17" s="3">
-        <v>58958200</v>
+        <v>57027700</v>
       </c>
       <c r="F17" s="3">
-        <v>54347700</v>
+        <v>52568300</v>
       </c>
       <c r="G17" s="3">
-        <v>56964700</v>
+        <v>55099600</v>
       </c>
       <c r="H17" s="3">
-        <v>57240900</v>
+        <v>55366700</v>
       </c>
       <c r="I17" s="3">
-        <v>53615600</v>
+        <v>51860100</v>
       </c>
       <c r="J17" s="3">
-        <v>57258400</v>
+        <v>55383600</v>
       </c>
       <c r="K17" s="3">
         <v>69496700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8813100</v>
+        <v>8524600</v>
       </c>
       <c r="E18" s="3">
-        <v>7002000</v>
+        <v>6772800</v>
       </c>
       <c r="F18" s="3">
-        <v>6197200</v>
+        <v>5994300</v>
       </c>
       <c r="G18" s="3">
-        <v>6554700</v>
+        <v>6340100</v>
       </c>
       <c r="H18" s="3">
-        <v>5386500</v>
+        <v>5210200</v>
       </c>
       <c r="I18" s="3">
-        <v>2116200</v>
+        <v>2046900</v>
       </c>
       <c r="J18" s="3">
-        <v>2156500</v>
+        <v>2085900</v>
       </c>
       <c r="K18" s="3">
         <v>584700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-514800</v>
+        <v>-498000</v>
       </c>
       <c r="E20" s="3">
-        <v>506500</v>
+        <v>489900</v>
       </c>
       <c r="F20" s="3">
-        <v>-256000</v>
+        <v>-247600</v>
       </c>
       <c r="G20" s="3">
-        <v>952000</v>
+        <v>920800</v>
       </c>
       <c r="H20" s="3">
-        <v>-163100</v>
+        <v>-157700</v>
       </c>
       <c r="I20" s="3">
-        <v>-165200</v>
+        <v>-159800</v>
       </c>
       <c r="J20" s="3">
-        <v>260900</v>
+        <v>252400</v>
       </c>
       <c r="K20" s="3">
         <v>-44500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14387200</v>
+        <v>13731300</v>
       </c>
       <c r="E21" s="3">
-        <v>12519500</v>
+        <v>11957500</v>
       </c>
       <c r="F21" s="3">
-        <v>8978600</v>
+        <v>8592400</v>
       </c>
       <c r="G21" s="3">
-        <v>10233400</v>
+        <v>9815600</v>
       </c>
       <c r="H21" s="3">
-        <v>7858400</v>
+        <v>7521100</v>
       </c>
       <c r="I21" s="3">
-        <v>4335200</v>
+        <v>4120800</v>
       </c>
       <c r="J21" s="3">
-        <v>5312200</v>
+        <v>5050300</v>
       </c>
       <c r="K21" s="3">
         <v>3600600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>107000</v>
+        <v>103500</v>
       </c>
       <c r="E22" s="3">
-        <v>193500</v>
+        <v>187100</v>
       </c>
       <c r="F22" s="3">
-        <v>81300</v>
+        <v>78600</v>
       </c>
       <c r="G22" s="3">
-        <v>91400</v>
+        <v>88400</v>
       </c>
       <c r="H22" s="3">
-        <v>99400</v>
+        <v>96200</v>
       </c>
       <c r="I22" s="3">
-        <v>106600</v>
+        <v>103100</v>
       </c>
       <c r="J22" s="3">
-        <v>185300</v>
+        <v>179300</v>
       </c>
       <c r="K22" s="3">
         <v>201300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8191300</v>
+        <v>7923100</v>
       </c>
       <c r="E23" s="3">
-        <v>7315100</v>
+        <v>7075600</v>
       </c>
       <c r="F23" s="3">
-        <v>5860000</v>
+        <v>5668100</v>
       </c>
       <c r="G23" s="3">
-        <v>7415400</v>
+        <v>7172600</v>
       </c>
       <c r="H23" s="3">
-        <v>5124000</v>
+        <v>4956300</v>
       </c>
       <c r="I23" s="3">
-        <v>1844400</v>
+        <v>1784000</v>
       </c>
       <c r="J23" s="3">
-        <v>2232000</v>
+        <v>2158900</v>
       </c>
       <c r="K23" s="3">
         <v>338900</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1679300</v>
+        <v>1624300</v>
       </c>
       <c r="E24" s="3">
-        <v>-336700</v>
+        <v>-325700</v>
       </c>
       <c r="F24" s="3">
-        <v>1298800</v>
+        <v>1256300</v>
       </c>
       <c r="G24" s="3">
-        <v>330600</v>
+        <v>319700</v>
       </c>
       <c r="H24" s="3">
-        <v>1112500</v>
+        <v>1076000</v>
       </c>
       <c r="I24" s="3">
-        <v>909300</v>
+        <v>879600</v>
       </c>
       <c r="J24" s="3">
-        <v>694800</v>
+        <v>672100</v>
       </c>
       <c r="K24" s="3">
         <v>756900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6512000</v>
+        <v>6298800</v>
       </c>
       <c r="E26" s="3">
-        <v>7651800</v>
+        <v>7401200</v>
       </c>
       <c r="F26" s="3">
-        <v>4561200</v>
+        <v>4411800</v>
       </c>
       <c r="G26" s="3">
-        <v>7084800</v>
+        <v>6852800</v>
       </c>
       <c r="H26" s="3">
-        <v>4011600</v>
+        <v>3880200</v>
       </c>
       <c r="I26" s="3">
-        <v>935000</v>
+        <v>904400</v>
       </c>
       <c r="J26" s="3">
-        <v>1537200</v>
+        <v>1486900</v>
       </c>
       <c r="K26" s="3">
         <v>-418000</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6466400</v>
+        <v>6254600</v>
       </c>
       <c r="E27" s="3">
-        <v>7403400</v>
+        <v>7161000</v>
       </c>
       <c r="F27" s="3">
-        <v>4267500</v>
+        <v>4127700</v>
       </c>
       <c r="G27" s="3">
-        <v>6716300</v>
+        <v>6496400</v>
       </c>
       <c r="H27" s="3">
-        <v>3597500</v>
+        <v>3479700</v>
       </c>
       <c r="I27" s="3">
-        <v>537200</v>
+        <v>519600</v>
       </c>
       <c r="J27" s="3">
-        <v>1083300</v>
+        <v>1047800</v>
       </c>
       <c r="K27" s="3">
         <v>-1074600</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>514800</v>
+        <v>498000</v>
       </c>
       <c r="E32" s="3">
-        <v>-506500</v>
+        <v>-489900</v>
       </c>
       <c r="F32" s="3">
-        <v>256000</v>
+        <v>247600</v>
       </c>
       <c r="G32" s="3">
-        <v>-952000</v>
+        <v>-920800</v>
       </c>
       <c r="H32" s="3">
-        <v>163100</v>
+        <v>157700</v>
       </c>
       <c r="I32" s="3">
-        <v>165200</v>
+        <v>159800</v>
       </c>
       <c r="J32" s="3">
-        <v>-260900</v>
+        <v>-252400</v>
       </c>
       <c r="K32" s="3">
         <v>44500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6466400</v>
+        <v>6254600</v>
       </c>
       <c r="E33" s="3">
-        <v>7403400</v>
+        <v>7161000</v>
       </c>
       <c r="F33" s="3">
-        <v>4267500</v>
+        <v>4127700</v>
       </c>
       <c r="G33" s="3">
-        <v>6716300</v>
+        <v>6496400</v>
       </c>
       <c r="H33" s="3">
-        <v>3597500</v>
+        <v>3479700</v>
       </c>
       <c r="I33" s="3">
-        <v>537200</v>
+        <v>519600</v>
       </c>
       <c r="J33" s="3">
-        <v>1083300</v>
+        <v>1047800</v>
       </c>
       <c r="K33" s="3">
         <v>-1074600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6466400</v>
+        <v>6254600</v>
       </c>
       <c r="E35" s="3">
-        <v>7403400</v>
+        <v>7161000</v>
       </c>
       <c r="F35" s="3">
-        <v>4267500</v>
+        <v>4127700</v>
       </c>
       <c r="G35" s="3">
-        <v>6716300</v>
+        <v>6496400</v>
       </c>
       <c r="H35" s="3">
-        <v>3597500</v>
+        <v>3479700</v>
       </c>
       <c r="I35" s="3">
-        <v>537200</v>
+        <v>519600</v>
       </c>
       <c r="J35" s="3">
-        <v>1083300</v>
+        <v>1047800</v>
       </c>
       <c r="K35" s="3">
         <v>-1074600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15023800</v>
+        <v>14531900</v>
       </c>
       <c r="E41" s="3">
-        <v>26197200</v>
+        <v>25339400</v>
       </c>
       <c r="F41" s="3">
-        <v>11085600</v>
+        <v>10722600</v>
       </c>
       <c r="G41" s="3">
-        <v>10775600</v>
+        <v>10422800</v>
       </c>
       <c r="H41" s="3">
-        <v>11627800</v>
+        <v>11247100</v>
       </c>
       <c r="I41" s="3">
-        <v>7037800</v>
+        <v>6807400</v>
       </c>
       <c r="J41" s="3">
-        <v>7209900</v>
+        <v>6973800</v>
       </c>
       <c r="K41" s="3">
         <v>8098500</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3738100</v>
+        <v>3615700</v>
       </c>
       <c r="E42" s="3">
-        <v>25157300</v>
+        <v>24333600</v>
       </c>
       <c r="F42" s="3">
-        <v>13544200</v>
+        <v>13100700</v>
       </c>
       <c r="G42" s="3">
-        <v>9708900</v>
+        <v>9391000</v>
       </c>
       <c r="H42" s="3">
-        <v>8624500</v>
+        <v>8342100</v>
       </c>
       <c r="I42" s="3">
-        <v>7707100</v>
+        <v>7454700</v>
       </c>
       <c r="J42" s="3">
-        <v>6937100</v>
+        <v>6710000</v>
       </c>
       <c r="K42" s="3">
         <v>7990300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11937100</v>
+        <v>11546200</v>
       </c>
       <c r="E43" s="3">
-        <v>19929400</v>
+        <v>19276900</v>
       </c>
       <c r="F43" s="3">
-        <v>8730200</v>
+        <v>8444400</v>
       </c>
       <c r="G43" s="3">
-        <v>9451500</v>
+        <v>9142000</v>
       </c>
       <c r="H43" s="3">
-        <v>8821500</v>
+        <v>8532700</v>
       </c>
       <c r="I43" s="3">
-        <v>8630700</v>
+        <v>8348100</v>
       </c>
       <c r="J43" s="3">
-        <v>7767200</v>
+        <v>7512900</v>
       </c>
       <c r="K43" s="3">
         <v>9654700</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6406500</v>
+        <v>6196700</v>
       </c>
       <c r="E44" s="3">
-        <v>9333600</v>
+        <v>9028000</v>
       </c>
       <c r="F44" s="3">
-        <v>4324500</v>
+        <v>4182900</v>
       </c>
       <c r="G44" s="3">
-        <v>4788500</v>
+        <v>4631700</v>
       </c>
       <c r="H44" s="3">
-        <v>5079200</v>
+        <v>4912900</v>
       </c>
       <c r="I44" s="3">
-        <v>4697300</v>
+        <v>4543500</v>
       </c>
       <c r="J44" s="3">
-        <v>5007500</v>
+        <v>4843500</v>
       </c>
       <c r="K44" s="3">
         <v>5676100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3467600</v>
+        <v>3354100</v>
       </c>
       <c r="E45" s="3">
-        <v>6851700</v>
+        <v>6627400</v>
       </c>
       <c r="F45" s="3">
-        <v>4354200</v>
+        <v>4211600</v>
       </c>
       <c r="G45" s="3">
-        <v>3733200</v>
+        <v>3610900</v>
       </c>
       <c r="H45" s="3">
-        <v>3787700</v>
+        <v>3663700</v>
       </c>
       <c r="I45" s="3">
-        <v>3854600</v>
+        <v>3728400</v>
       </c>
       <c r="J45" s="3">
-        <v>3840300</v>
+        <v>3714600</v>
       </c>
       <c r="K45" s="3">
         <v>4388500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40573100</v>
+        <v>39244600</v>
       </c>
       <c r="E46" s="3">
-        <v>34561100</v>
+        <v>33429500</v>
       </c>
       <c r="F46" s="3">
-        <v>42038600</v>
+        <v>40662200</v>
       </c>
       <c r="G46" s="3">
-        <v>38457700</v>
+        <v>37198500</v>
       </c>
       <c r="H46" s="3">
-        <v>37940800</v>
+        <v>36698500</v>
       </c>
       <c r="I46" s="3">
-        <v>31927400</v>
+        <v>30882100</v>
       </c>
       <c r="J46" s="3">
-        <v>30762000</v>
+        <v>29754800</v>
       </c>
       <c r="K46" s="3">
         <v>35808100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>142275000</v>
+        <v>137616000</v>
       </c>
       <c r="E47" s="3">
-        <v>238089000</v>
+        <v>230293000</v>
       </c>
       <c r="F47" s="3">
-        <v>93341200</v>
+        <v>90285000</v>
       </c>
       <c r="G47" s="3">
-        <v>85941700</v>
+        <v>83127800</v>
       </c>
       <c r="H47" s="3">
-        <v>78841900</v>
+        <v>76260500</v>
       </c>
       <c r="I47" s="3">
-        <v>74119400</v>
+        <v>71692600</v>
       </c>
       <c r="J47" s="3">
-        <v>67685800</v>
+        <v>65469600</v>
       </c>
       <c r="K47" s="3">
         <v>72772400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11190300</v>
+        <v>10823900</v>
       </c>
       <c r="E48" s="3">
-        <v>7983500</v>
+        <v>7722100</v>
       </c>
       <c r="F48" s="3">
-        <v>9538200</v>
+        <v>9225900</v>
       </c>
       <c r="G48" s="3">
-        <v>5695800</v>
+        <v>5509300</v>
       </c>
       <c r="H48" s="3">
-        <v>5420300</v>
+        <v>5242800</v>
       </c>
       <c r="I48" s="3">
-        <v>5557600</v>
+        <v>5375600</v>
       </c>
       <c r="J48" s="3">
-        <v>6016600</v>
+        <v>5819600</v>
       </c>
       <c r="K48" s="3">
         <v>6306100</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20121200</v>
+        <v>19462400</v>
       </c>
       <c r="E49" s="3">
-        <v>38428300</v>
+        <v>37170000</v>
       </c>
       <c r="F49" s="3">
-        <v>12389200</v>
+        <v>11983500</v>
       </c>
       <c r="G49" s="3">
-        <v>12362200</v>
+        <v>11957400</v>
       </c>
       <c r="H49" s="3">
-        <v>7752600</v>
+        <v>7498800</v>
       </c>
       <c r="I49" s="3">
-        <v>8112300</v>
+        <v>7846700</v>
       </c>
       <c r="J49" s="3">
-        <v>8957600</v>
+        <v>8664300</v>
       </c>
       <c r="K49" s="3">
         <v>10266800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9266300</v>
+        <v>8962900</v>
       </c>
       <c r="E52" s="3">
-        <v>15215900</v>
+        <v>14717700</v>
       </c>
       <c r="F52" s="3">
-        <v>11571200</v>
+        <v>11192400</v>
       </c>
       <c r="G52" s="3">
-        <v>11337700</v>
+        <v>10966500</v>
       </c>
       <c r="H52" s="3">
-        <v>9794700</v>
+        <v>9474000</v>
       </c>
       <c r="I52" s="3">
-        <v>9735100</v>
+        <v>9416400</v>
       </c>
       <c r="J52" s="3">
-        <v>8793900</v>
+        <v>8506000</v>
       </c>
       <c r="K52" s="3">
         <v>9913400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>223426000</v>
+        <v>216110000</v>
       </c>
       <c r="E54" s="3">
-        <v>201633000</v>
+        <v>195031000</v>
       </c>
       <c r="F54" s="3">
-        <v>168878000</v>
+        <v>163349000</v>
       </c>
       <c r="G54" s="3">
-        <v>153795000</v>
+        <v>148759000</v>
       </c>
       <c r="H54" s="3">
-        <v>139750000</v>
+        <v>135175000</v>
       </c>
       <c r="I54" s="3">
-        <v>129452000</v>
+        <v>125213000</v>
       </c>
       <c r="J54" s="3">
-        <v>122216000</v>
+        <v>118214000</v>
       </c>
       <c r="K54" s="3">
         <v>135067000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13511000</v>
+        <v>13068600</v>
       </c>
       <c r="E57" s="3">
-        <v>28975200</v>
+        <v>28026500</v>
       </c>
       <c r="F57" s="3">
-        <v>14740700</v>
+        <v>14258000</v>
       </c>
       <c r="G57" s="3">
-        <v>16017300</v>
+        <v>15492900</v>
       </c>
       <c r="H57" s="3">
-        <v>14535300</v>
+        <v>14059300</v>
       </c>
       <c r="I57" s="3">
-        <v>14181000</v>
+        <v>13716700</v>
       </c>
       <c r="J57" s="3">
-        <v>14059500</v>
+        <v>13599200</v>
       </c>
       <c r="K57" s="3">
         <v>17028600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15744600</v>
+        <v>15229100</v>
       </c>
       <c r="E58" s="3">
-        <v>11279800</v>
+        <v>10910500</v>
       </c>
       <c r="F58" s="3">
-        <v>6157100</v>
+        <v>5955500</v>
       </c>
       <c r="G58" s="3">
-        <v>5798600</v>
+        <v>5608800</v>
       </c>
       <c r="H58" s="3">
-        <v>5289400</v>
+        <v>5116300</v>
       </c>
       <c r="I58" s="3">
-        <v>3797500</v>
+        <v>3673200</v>
       </c>
       <c r="J58" s="3">
-        <v>2469800</v>
+        <v>2388900</v>
       </c>
       <c r="K58" s="3">
         <v>1889600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34956400</v>
+        <v>33811800</v>
       </c>
       <c r="E59" s="3">
-        <v>41894300</v>
+        <v>40522600</v>
       </c>
       <c r="F59" s="3">
-        <v>24844700</v>
+        <v>24031200</v>
       </c>
       <c r="G59" s="3">
-        <v>22749100</v>
+        <v>22004300</v>
       </c>
       <c r="H59" s="3">
-        <v>21373900</v>
+        <v>20674000</v>
       </c>
       <c r="I59" s="3">
-        <v>20296800</v>
+        <v>19632200</v>
       </c>
       <c r="J59" s="3">
-        <v>18880100</v>
+        <v>18261900</v>
       </c>
       <c r="K59" s="3">
         <v>21561700</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64211900</v>
+        <v>62109500</v>
       </c>
       <c r="E60" s="3">
-        <v>53901900</v>
+        <v>52137100</v>
       </c>
       <c r="F60" s="3">
-        <v>45742400</v>
+        <v>44244700</v>
       </c>
       <c r="G60" s="3">
-        <v>44565000</v>
+        <v>43105900</v>
       </c>
       <c r="H60" s="3">
-        <v>41198600</v>
+        <v>39849600</v>
       </c>
       <c r="I60" s="3">
-        <v>38275300</v>
+        <v>37022100</v>
       </c>
       <c r="J60" s="3">
-        <v>35409400</v>
+        <v>34250000</v>
       </c>
       <c r="K60" s="3">
         <v>40479900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8822700</v>
+        <v>8533900</v>
       </c>
       <c r="E61" s="3">
-        <v>7723200</v>
+        <v>7470300</v>
       </c>
       <c r="F61" s="3">
-        <v>4654300</v>
+        <v>4501900</v>
       </c>
       <c r="G61" s="3">
-        <v>4166200</v>
+        <v>4029800</v>
       </c>
       <c r="H61" s="3">
-        <v>4569900</v>
+        <v>4420300</v>
       </c>
       <c r="I61" s="3">
-        <v>4995100</v>
+        <v>4831600</v>
       </c>
       <c r="J61" s="3">
-        <v>4079900</v>
+        <v>3946300</v>
       </c>
       <c r="K61" s="3">
         <v>6074100</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97635000</v>
+        <v>94438200</v>
       </c>
       <c r="E62" s="3">
-        <v>99553800</v>
+        <v>96294200</v>
       </c>
       <c r="F62" s="3">
-        <v>83317400</v>
+        <v>80589400</v>
       </c>
       <c r="G62" s="3">
-        <v>72478400</v>
+        <v>70105300</v>
       </c>
       <c r="H62" s="3">
-        <v>67180800</v>
+        <v>64981100</v>
       </c>
       <c r="I62" s="3">
-        <v>63110400</v>
+        <v>61044000</v>
       </c>
       <c r="J62" s="3">
-        <v>59769900</v>
+        <v>57812900</v>
       </c>
       <c r="K62" s="3">
         <v>63488300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171057000</v>
+        <v>165456000</v>
       </c>
       <c r="E66" s="3">
-        <v>152666000</v>
+        <v>147667000</v>
       </c>
       <c r="F66" s="3">
-        <v>138640000</v>
+        <v>134101000</v>
       </c>
       <c r="G66" s="3">
-        <v>126334000</v>
+        <v>122198000</v>
       </c>
       <c r="H66" s="3">
-        <v>118000000</v>
+        <v>114136000</v>
       </c>
       <c r="I66" s="3">
-        <v>111147000</v>
+        <v>107508000</v>
       </c>
       <c r="J66" s="3">
-        <v>104160000</v>
+        <v>100749000</v>
       </c>
       <c r="K66" s="3">
         <v>115302000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27566400</v>
+        <v>26663800</v>
       </c>
       <c r="E72" s="3">
-        <v>21363300</v>
+        <v>20663800</v>
       </c>
       <c r="F72" s="3">
-        <v>20295700</v>
+        <v>19631200</v>
       </c>
       <c r="G72" s="3">
-        <v>17009900</v>
+        <v>16453000</v>
       </c>
       <c r="H72" s="3">
-        <v>10558000</v>
+        <v>10212300</v>
       </c>
       <c r="I72" s="3">
-        <v>7215400</v>
+        <v>6979200</v>
       </c>
       <c r="J72" s="3">
-        <v>6863300</v>
+        <v>6638600</v>
       </c>
       <c r="K72" s="3">
         <v>6941400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52369000</v>
+        <v>50654300</v>
       </c>
       <c r="E76" s="3">
-        <v>48966900</v>
+        <v>47363600</v>
       </c>
       <c r="F76" s="3">
-        <v>30238500</v>
+        <v>29248400</v>
       </c>
       <c r="G76" s="3">
-        <v>27460900</v>
+        <v>26561800</v>
       </c>
       <c r="H76" s="3">
-        <v>21750800</v>
+        <v>21038600</v>
       </c>
       <c r="I76" s="3">
-        <v>18304800</v>
+        <v>17705500</v>
       </c>
       <c r="J76" s="3">
-        <v>18056300</v>
+        <v>17465100</v>
       </c>
       <c r="K76" s="3">
         <v>19764700</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6466400</v>
+        <v>6254600</v>
       </c>
       <c r="E81" s="3">
-        <v>7403400</v>
+        <v>7161000</v>
       </c>
       <c r="F81" s="3">
-        <v>4267500</v>
+        <v>4127700</v>
       </c>
       <c r="G81" s="3">
-        <v>6716300</v>
+        <v>6496400</v>
       </c>
       <c r="H81" s="3">
-        <v>3597500</v>
+        <v>3479700</v>
       </c>
       <c r="I81" s="3">
-        <v>537200</v>
+        <v>519600</v>
       </c>
       <c r="J81" s="3">
-        <v>1083300</v>
+        <v>1047800</v>
       </c>
       <c r="K81" s="3">
         <v>-1074600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6122300</v>
+        <v>5921800</v>
       </c>
       <c r="E83" s="3">
-        <v>5038400</v>
+        <v>4873500</v>
       </c>
       <c r="F83" s="3">
-        <v>3054000</v>
+        <v>2954000</v>
       </c>
       <c r="G83" s="3">
-        <v>2741600</v>
+        <v>2651800</v>
       </c>
       <c r="H83" s="3">
-        <v>2649400</v>
+        <v>2562600</v>
       </c>
       <c r="I83" s="3">
-        <v>2397300</v>
+        <v>2318800</v>
       </c>
       <c r="J83" s="3">
-        <v>2910700</v>
+        <v>2815400</v>
       </c>
       <c r="K83" s="3">
         <v>3024900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9042600</v>
+        <v>8746500</v>
       </c>
       <c r="E89" s="3">
-        <v>8357800</v>
+        <v>8084100</v>
       </c>
       <c r="F89" s="3">
-        <v>9872100</v>
+        <v>9548900</v>
       </c>
       <c r="G89" s="3">
-        <v>9199100</v>
+        <v>8897900</v>
       </c>
       <c r="H89" s="3">
-        <v>9143200</v>
+        <v>8843800</v>
       </c>
       <c r="I89" s="3">
-        <v>5931900</v>
+        <v>5737700</v>
       </c>
       <c r="J89" s="3">
-        <v>5490800</v>
+        <v>5311000</v>
       </c>
       <c r="K89" s="3">
         <v>6437100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3233200</v>
+        <v>-3127400</v>
       </c>
       <c r="E91" s="3">
-        <v>-7257900</v>
+        <v>-7020300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3223400</v>
+        <v>-3117900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2291700</v>
+        <v>-2216600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1927700</v>
+        <v>-1864600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2444600</v>
+        <v>-2364600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2751800</v>
+        <v>-2661700</v>
       </c>
       <c r="K91" s="3">
         <v>-1841800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5342000</v>
+        <v>-5167100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4133500</v>
+        <v>-3998100</v>
       </c>
       <c r="F94" s="3">
-        <v>-9912200</v>
+        <v>-9587700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9583600</v>
+        <v>-9269800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6033100</v>
+        <v>-5835600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9191600</v>
+        <v>-8890700</v>
       </c>
       <c r="J94" s="3">
-        <v>-7552900</v>
+        <v>-7305600</v>
       </c>
       <c r="K94" s="3">
         <v>-5456100</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-544900</v>
+        <v>-527100</v>
       </c>
       <c r="E96" s="3">
-        <v>-449200</v>
+        <v>-434500</v>
       </c>
       <c r="F96" s="3">
-        <v>-363400</v>
+        <v>-351500</v>
       </c>
       <c r="G96" s="3">
-        <v>-279000</v>
+        <v>-269900</v>
       </c>
       <c r="H96" s="3">
-        <v>-208800</v>
+        <v>-202000</v>
       </c>
       <c r="I96" s="3">
-        <v>-185500</v>
+        <v>-179400</v>
       </c>
       <c r="J96" s="3">
-        <v>-93500</v>
+        <v>-90400</v>
       </c>
       <c r="K96" s="3">
         <v>-112300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2467100</v>
+        <v>-2386300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2481400</v>
+        <v>-2400200</v>
       </c>
       <c r="F100" s="3">
-        <v>481300</v>
+        <v>465500</v>
       </c>
       <c r="G100" s="3">
-        <v>-900700</v>
+        <v>-871200</v>
       </c>
       <c r="H100" s="3">
-        <v>1806500</v>
+        <v>1747400</v>
       </c>
       <c r="I100" s="3">
-        <v>3315400</v>
+        <v>3206800</v>
       </c>
       <c r="J100" s="3">
-        <v>2786300</v>
+        <v>2695100</v>
       </c>
       <c r="K100" s="3">
         <v>-2245100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>691700</v>
+        <v>669100</v>
       </c>
       <c r="E101" s="3">
-        <v>268900</v>
+        <v>260100</v>
       </c>
       <c r="F101" s="3">
-        <v>-158600</v>
+        <v>-153400</v>
       </c>
       <c r="G101" s="3">
-        <v>384600</v>
+        <v>372000</v>
       </c>
       <c r="H101" s="3">
-        <v>-388800</v>
+        <v>-376100</v>
       </c>
       <c r="I101" s="3">
-        <v>-227700</v>
+        <v>-220200</v>
       </c>
       <c r="J101" s="3">
-        <v>-473600</v>
+        <v>-458100</v>
       </c>
       <c r="K101" s="3">
         <v>436200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1925300</v>
+        <v>1862200</v>
       </c>
       <c r="E102" s="3">
-        <v>2011800</v>
+        <v>1945900</v>
       </c>
       <c r="F102" s="3">
-        <v>282500</v>
+        <v>273300</v>
       </c>
       <c r="G102" s="3">
-        <v>-900600</v>
+        <v>-871100</v>
       </c>
       <c r="H102" s="3">
-        <v>4527800</v>
+        <v>4379500</v>
       </c>
       <c r="I102" s="3">
-        <v>-172000</v>
+        <v>-166400</v>
       </c>
       <c r="J102" s="3">
-        <v>250700</v>
+        <v>242500</v>
       </c>
       <c r="K102" s="3">
         <v>-827900</v>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70343500</v>
+        <v>72923100</v>
       </c>
       <c r="E8" s="3">
-        <v>63800500</v>
+        <v>66140200</v>
       </c>
       <c r="F8" s="3">
-        <v>58562600</v>
+        <v>60710200</v>
       </c>
       <c r="G8" s="3">
-        <v>61439700</v>
+        <v>63692800</v>
       </c>
       <c r="H8" s="3">
-        <v>60576800</v>
+        <v>62798300</v>
       </c>
       <c r="I8" s="3">
-        <v>53907000</v>
+        <v>55883900</v>
       </c>
       <c r="J8" s="3">
-        <v>57469500</v>
+        <v>59577000</v>
       </c>
       <c r="K8" s="3">
         <v>70081500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51188700</v>
+        <v>53065800</v>
       </c>
       <c r="E9" s="3">
-        <v>78805200</v>
+        <v>81695100</v>
       </c>
       <c r="F9" s="3">
-        <v>38468600</v>
+        <v>39879300</v>
       </c>
       <c r="G9" s="3">
-        <v>40994300</v>
+        <v>42497700</v>
       </c>
       <c r="H9" s="3">
-        <v>40922800</v>
+        <v>42423500</v>
       </c>
       <c r="I9" s="3">
-        <v>36979300</v>
+        <v>38335400</v>
       </c>
       <c r="J9" s="3">
-        <v>39749900</v>
+        <v>41207500</v>
       </c>
       <c r="K9" s="3">
         <v>48568200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19154900</v>
+        <v>19857300</v>
       </c>
       <c r="E10" s="3">
-        <v>-15004700</v>
+        <v>-15554900</v>
       </c>
       <c r="F10" s="3">
-        <v>20094000</v>
+        <v>20830800</v>
       </c>
       <c r="G10" s="3">
-        <v>20445400</v>
+        <v>21195100</v>
       </c>
       <c r="H10" s="3">
-        <v>19654000</v>
+        <v>20374800</v>
       </c>
       <c r="I10" s="3">
-        <v>16927700</v>
+        <v>17548500</v>
       </c>
       <c r="J10" s="3">
-        <v>17719600</v>
+        <v>18369400</v>
       </c>
       <c r="K10" s="3">
         <v>21513200</v>
@@ -821,22 +821,22 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>3723500</v>
+        <v>3860000</v>
       </c>
       <c r="F12" s="3">
-        <v>3540000</v>
+        <v>3669800</v>
       </c>
       <c r="G12" s="3">
-        <v>3411700</v>
+        <v>3536800</v>
       </c>
       <c r="H12" s="3">
-        <v>3250900</v>
+        <v>3370100</v>
       </c>
       <c r="I12" s="3">
-        <v>3172500</v>
+        <v>3288800</v>
       </c>
       <c r="J12" s="3">
-        <v>3319400</v>
+        <v>3441100</v>
       </c>
       <c r="K12" s="3">
         <v>3960600</v>
@@ -881,19 +881,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>169000</v>
+        <v>175200</v>
       </c>
       <c r="F14" s="3">
-        <v>211100</v>
+        <v>218900</v>
       </c>
       <c r="G14" s="3">
-        <v>332700</v>
+        <v>344900</v>
       </c>
       <c r="H14" s="3">
-        <v>273700</v>
+        <v>283700</v>
       </c>
       <c r="I14" s="3">
-        <v>794600</v>
+        <v>823700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61818900</v>
+        <v>64085900</v>
       </c>
       <c r="E17" s="3">
-        <v>57027700</v>
+        <v>59119000</v>
       </c>
       <c r="F17" s="3">
-        <v>52568300</v>
+        <v>54496000</v>
       </c>
       <c r="G17" s="3">
-        <v>55099600</v>
+        <v>57120200</v>
       </c>
       <c r="H17" s="3">
-        <v>55366700</v>
+        <v>57397000</v>
       </c>
       <c r="I17" s="3">
-        <v>51860100</v>
+        <v>53761900</v>
       </c>
       <c r="J17" s="3">
-        <v>55383600</v>
+        <v>57414600</v>
       </c>
       <c r="K17" s="3">
         <v>69496700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8524600</v>
+        <v>8837200</v>
       </c>
       <c r="E18" s="3">
-        <v>6772800</v>
+        <v>7021100</v>
       </c>
       <c r="F18" s="3">
-        <v>5994300</v>
+        <v>6214100</v>
       </c>
       <c r="G18" s="3">
-        <v>6340100</v>
+        <v>6572600</v>
       </c>
       <c r="H18" s="3">
-        <v>5210200</v>
+        <v>5401200</v>
       </c>
       <c r="I18" s="3">
-        <v>2046900</v>
+        <v>2122000</v>
       </c>
       <c r="J18" s="3">
-        <v>2085900</v>
+        <v>2162300</v>
       </c>
       <c r="K18" s="3">
         <v>584700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-498000</v>
+        <v>-516200</v>
       </c>
       <c r="E20" s="3">
-        <v>489900</v>
+        <v>507900</v>
       </c>
       <c r="F20" s="3">
-        <v>-247600</v>
+        <v>-256700</v>
       </c>
       <c r="G20" s="3">
-        <v>920800</v>
+        <v>954600</v>
       </c>
       <c r="H20" s="3">
-        <v>-157700</v>
+        <v>-163500</v>
       </c>
       <c r="I20" s="3">
-        <v>-159800</v>
+        <v>-165700</v>
       </c>
       <c r="J20" s="3">
-        <v>252400</v>
+        <v>261600</v>
       </c>
       <c r="K20" s="3">
         <v>-44500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13731300</v>
+        <v>14401500</v>
       </c>
       <c r="E21" s="3">
-        <v>11957500</v>
+        <v>12533100</v>
       </c>
       <c r="F21" s="3">
-        <v>8592400</v>
+        <v>8990600</v>
       </c>
       <c r="G21" s="3">
-        <v>9815600</v>
+        <v>10250200</v>
       </c>
       <c r="H21" s="3">
-        <v>7521100</v>
+        <v>7869000</v>
       </c>
       <c r="I21" s="3">
-        <v>4120800</v>
+        <v>4337200</v>
       </c>
       <c r="J21" s="3">
-        <v>5050300</v>
+        <v>5314800</v>
       </c>
       <c r="K21" s="3">
         <v>3600600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>103500</v>
+        <v>107300</v>
       </c>
       <c r="E22" s="3">
-        <v>187100</v>
+        <v>194000</v>
       </c>
       <c r="F22" s="3">
-        <v>78600</v>
+        <v>81500</v>
       </c>
       <c r="G22" s="3">
-        <v>88400</v>
+        <v>91600</v>
       </c>
       <c r="H22" s="3">
-        <v>96200</v>
+        <v>99700</v>
       </c>
       <c r="I22" s="3">
-        <v>103100</v>
+        <v>106900</v>
       </c>
       <c r="J22" s="3">
-        <v>179300</v>
+        <v>185900</v>
       </c>
       <c r="K22" s="3">
         <v>201300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7923100</v>
+        <v>8213600</v>
       </c>
       <c r="E23" s="3">
-        <v>7075600</v>
+        <v>7335000</v>
       </c>
       <c r="F23" s="3">
-        <v>5668100</v>
+        <v>5876000</v>
       </c>
       <c r="G23" s="3">
-        <v>7172600</v>
+        <v>7435600</v>
       </c>
       <c r="H23" s="3">
-        <v>4956300</v>
+        <v>5138000</v>
       </c>
       <c r="I23" s="3">
-        <v>1784000</v>
+        <v>1849400</v>
       </c>
       <c r="J23" s="3">
-        <v>2158900</v>
+        <v>2238100</v>
       </c>
       <c r="K23" s="3">
         <v>338900</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1624300</v>
+        <v>1683900</v>
       </c>
       <c r="E24" s="3">
-        <v>-325700</v>
+        <v>-337600</v>
       </c>
       <c r="F24" s="3">
-        <v>1256300</v>
+        <v>1302300</v>
       </c>
       <c r="G24" s="3">
-        <v>319700</v>
+        <v>331500</v>
       </c>
       <c r="H24" s="3">
-        <v>1076000</v>
+        <v>1115500</v>
       </c>
       <c r="I24" s="3">
-        <v>879600</v>
+        <v>911800</v>
       </c>
       <c r="J24" s="3">
-        <v>672100</v>
+        <v>696700</v>
       </c>
       <c r="K24" s="3">
         <v>756900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6298800</v>
+        <v>6529800</v>
       </c>
       <c r="E26" s="3">
-        <v>7401200</v>
+        <v>7672600</v>
       </c>
       <c r="F26" s="3">
-        <v>4411800</v>
+        <v>4573600</v>
       </c>
       <c r="G26" s="3">
-        <v>6852800</v>
+        <v>7104100</v>
       </c>
       <c r="H26" s="3">
-        <v>3880200</v>
+        <v>4022500</v>
       </c>
       <c r="I26" s="3">
-        <v>904400</v>
+        <v>937600</v>
       </c>
       <c r="J26" s="3">
-        <v>1486900</v>
+        <v>1541400</v>
       </c>
       <c r="K26" s="3">
         <v>-418000</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6254600</v>
+        <v>6484000</v>
       </c>
       <c r="E27" s="3">
-        <v>7161000</v>
+        <v>7423600</v>
       </c>
       <c r="F27" s="3">
-        <v>4127700</v>
+        <v>4279100</v>
       </c>
       <c r="G27" s="3">
-        <v>6496400</v>
+        <v>6734600</v>
       </c>
       <c r="H27" s="3">
-        <v>3479700</v>
+        <v>3607300</v>
       </c>
       <c r="I27" s="3">
-        <v>519600</v>
+        <v>538700</v>
       </c>
       <c r="J27" s="3">
-        <v>1047800</v>
+        <v>1086300</v>
       </c>
       <c r="K27" s="3">
         <v>-1074600</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>498000</v>
+        <v>516200</v>
       </c>
       <c r="E32" s="3">
-        <v>-489900</v>
+        <v>-507900</v>
       </c>
       <c r="F32" s="3">
-        <v>247600</v>
+        <v>256700</v>
       </c>
       <c r="G32" s="3">
-        <v>-920800</v>
+        <v>-954600</v>
       </c>
       <c r="H32" s="3">
-        <v>157700</v>
+        <v>163500</v>
       </c>
       <c r="I32" s="3">
-        <v>159800</v>
+        <v>165700</v>
       </c>
       <c r="J32" s="3">
-        <v>-252400</v>
+        <v>-261600</v>
       </c>
       <c r="K32" s="3">
         <v>44500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6254600</v>
+        <v>6484000</v>
       </c>
       <c r="E33" s="3">
-        <v>7161000</v>
+        <v>7423600</v>
       </c>
       <c r="F33" s="3">
-        <v>4127700</v>
+        <v>4279100</v>
       </c>
       <c r="G33" s="3">
-        <v>6496400</v>
+        <v>6734600</v>
       </c>
       <c r="H33" s="3">
-        <v>3479700</v>
+        <v>3607300</v>
       </c>
       <c r="I33" s="3">
-        <v>519600</v>
+        <v>538700</v>
       </c>
       <c r="J33" s="3">
-        <v>1047800</v>
+        <v>1086300</v>
       </c>
       <c r="K33" s="3">
         <v>-1074600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6254600</v>
+        <v>6484000</v>
       </c>
       <c r="E35" s="3">
-        <v>7161000</v>
+        <v>7423600</v>
       </c>
       <c r="F35" s="3">
-        <v>4127700</v>
+        <v>4279100</v>
       </c>
       <c r="G35" s="3">
-        <v>6496400</v>
+        <v>6734600</v>
       </c>
       <c r="H35" s="3">
-        <v>3479700</v>
+        <v>3607300</v>
       </c>
       <c r="I35" s="3">
-        <v>519600</v>
+        <v>538700</v>
       </c>
       <c r="J35" s="3">
-        <v>1047800</v>
+        <v>1086300</v>
       </c>
       <c r="K35" s="3">
         <v>-1074600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14531900</v>
+        <v>15064800</v>
       </c>
       <c r="E41" s="3">
-        <v>25339400</v>
+        <v>26268600</v>
       </c>
       <c r="F41" s="3">
-        <v>10722600</v>
+        <v>11115800</v>
       </c>
       <c r="G41" s="3">
-        <v>10422800</v>
+        <v>10805000</v>
       </c>
       <c r="H41" s="3">
-        <v>11247100</v>
+        <v>11659500</v>
       </c>
       <c r="I41" s="3">
-        <v>6807400</v>
+        <v>7057000</v>
       </c>
       <c r="J41" s="3">
-        <v>6973800</v>
+        <v>7229500</v>
       </c>
       <c r="K41" s="3">
         <v>8098500</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3615700</v>
+        <v>3748300</v>
       </c>
       <c r="E42" s="3">
-        <v>24333600</v>
+        <v>25225900</v>
       </c>
       <c r="F42" s="3">
-        <v>13100700</v>
+        <v>13581100</v>
       </c>
       <c r="G42" s="3">
-        <v>9391000</v>
+        <v>9735400</v>
       </c>
       <c r="H42" s="3">
-        <v>8342100</v>
+        <v>8648000</v>
       </c>
       <c r="I42" s="3">
-        <v>7454700</v>
+        <v>7728100</v>
       </c>
       <c r="J42" s="3">
-        <v>6710000</v>
+        <v>6956000</v>
       </c>
       <c r="K42" s="3">
         <v>7990300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11546200</v>
+        <v>11969600</v>
       </c>
       <c r="E43" s="3">
-        <v>19276900</v>
+        <v>19983800</v>
       </c>
       <c r="F43" s="3">
-        <v>8444400</v>
+        <v>8754000</v>
       </c>
       <c r="G43" s="3">
-        <v>9142000</v>
+        <v>9477300</v>
       </c>
       <c r="H43" s="3">
-        <v>8532700</v>
+        <v>8845600</v>
       </c>
       <c r="I43" s="3">
-        <v>8348100</v>
+        <v>8654200</v>
       </c>
       <c r="J43" s="3">
-        <v>7512900</v>
+        <v>7788400</v>
       </c>
       <c r="K43" s="3">
         <v>9654700</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6196700</v>
+        <v>6424000</v>
       </c>
       <c r="E44" s="3">
-        <v>9028000</v>
+        <v>9359000</v>
       </c>
       <c r="F44" s="3">
-        <v>4182900</v>
+        <v>4336300</v>
       </c>
       <c r="G44" s="3">
-        <v>4631700</v>
+        <v>4801600</v>
       </c>
       <c r="H44" s="3">
-        <v>4912900</v>
+        <v>5093100</v>
       </c>
       <c r="I44" s="3">
-        <v>4543500</v>
+        <v>4710100</v>
       </c>
       <c r="J44" s="3">
-        <v>4843500</v>
+        <v>5021100</v>
       </c>
       <c r="K44" s="3">
         <v>5676100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3354100</v>
+        <v>3477100</v>
       </c>
       <c r="E45" s="3">
-        <v>6627400</v>
+        <v>6870400</v>
       </c>
       <c r="F45" s="3">
-        <v>4211600</v>
+        <v>4366100</v>
       </c>
       <c r="G45" s="3">
-        <v>3610900</v>
+        <v>3743400</v>
       </c>
       <c r="H45" s="3">
-        <v>3663700</v>
+        <v>3798100</v>
       </c>
       <c r="I45" s="3">
-        <v>3728400</v>
+        <v>3865100</v>
       </c>
       <c r="J45" s="3">
-        <v>3714600</v>
+        <v>3850800</v>
       </c>
       <c r="K45" s="3">
         <v>4388500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39244600</v>
+        <v>40683800</v>
       </c>
       <c r="E46" s="3">
-        <v>33429500</v>
+        <v>34655400</v>
       </c>
       <c r="F46" s="3">
-        <v>40662200</v>
+        <v>42153300</v>
       </c>
       <c r="G46" s="3">
-        <v>37198500</v>
+        <v>38562600</v>
       </c>
       <c r="H46" s="3">
-        <v>36698500</v>
+        <v>38044300</v>
       </c>
       <c r="I46" s="3">
-        <v>30882100</v>
+        <v>32014600</v>
       </c>
       <c r="J46" s="3">
-        <v>29754800</v>
+        <v>30845900</v>
       </c>
       <c r="K46" s="3">
         <v>35808100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>137616000</v>
+        <v>142663000</v>
       </c>
       <c r="E47" s="3">
-        <v>230293000</v>
+        <v>238738000</v>
       </c>
       <c r="F47" s="3">
-        <v>90285000</v>
+        <v>93595900</v>
       </c>
       <c r="G47" s="3">
-        <v>83127800</v>
+        <v>86176200</v>
       </c>
       <c r="H47" s="3">
-        <v>76260500</v>
+        <v>79057000</v>
       </c>
       <c r="I47" s="3">
-        <v>71692600</v>
+        <v>74321700</v>
       </c>
       <c r="J47" s="3">
-        <v>65469600</v>
+        <v>67870500</v>
       </c>
       <c r="K47" s="3">
         <v>72772400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10823900</v>
+        <v>11220800</v>
       </c>
       <c r="E48" s="3">
-        <v>7722100</v>
+        <v>8005200</v>
       </c>
       <c r="F48" s="3">
-        <v>9225900</v>
+        <v>9564200</v>
       </c>
       <c r="G48" s="3">
-        <v>5509300</v>
+        <v>5711300</v>
       </c>
       <c r="H48" s="3">
-        <v>5242800</v>
+        <v>5435100</v>
       </c>
       <c r="I48" s="3">
-        <v>5375600</v>
+        <v>5572800</v>
       </c>
       <c r="J48" s="3">
-        <v>5819600</v>
+        <v>6033000</v>
       </c>
       <c r="K48" s="3">
         <v>6306100</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19462400</v>
+        <v>20176100</v>
       </c>
       <c r="E49" s="3">
-        <v>37170000</v>
+        <v>38533100</v>
       </c>
       <c r="F49" s="3">
-        <v>11983500</v>
+        <v>12423000</v>
       </c>
       <c r="G49" s="3">
-        <v>11957400</v>
+        <v>12395900</v>
       </c>
       <c r="H49" s="3">
-        <v>7498800</v>
+        <v>7773800</v>
       </c>
       <c r="I49" s="3">
-        <v>7846700</v>
+        <v>8134400</v>
       </c>
       <c r="J49" s="3">
-        <v>8664300</v>
+        <v>8982000</v>
       </c>
       <c r="K49" s="3">
         <v>10266800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8962900</v>
+        <v>9291600</v>
       </c>
       <c r="E52" s="3">
-        <v>14717700</v>
+        <v>15257400</v>
       </c>
       <c r="F52" s="3">
-        <v>11192400</v>
+        <v>11602800</v>
       </c>
       <c r="G52" s="3">
-        <v>10966500</v>
+        <v>11368600</v>
       </c>
       <c r="H52" s="3">
-        <v>9474000</v>
+        <v>9821500</v>
       </c>
       <c r="I52" s="3">
-        <v>9416400</v>
+        <v>9761700</v>
       </c>
       <c r="J52" s="3">
-        <v>8506000</v>
+        <v>8817900</v>
       </c>
       <c r="K52" s="3">
         <v>9913400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>216110000</v>
+        <v>224035000</v>
       </c>
       <c r="E54" s="3">
-        <v>195031000</v>
+        <v>202183000</v>
       </c>
       <c r="F54" s="3">
-        <v>163349000</v>
+        <v>169339000</v>
       </c>
       <c r="G54" s="3">
-        <v>148759000</v>
+        <v>154215000</v>
       </c>
       <c r="H54" s="3">
-        <v>135175000</v>
+        <v>140132000</v>
       </c>
       <c r="I54" s="3">
-        <v>125213000</v>
+        <v>129805000</v>
       </c>
       <c r="J54" s="3">
-        <v>118214000</v>
+        <v>122549000</v>
       </c>
       <c r="K54" s="3">
         <v>135067000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13068600</v>
+        <v>13547800</v>
       </c>
       <c r="E57" s="3">
-        <v>28026500</v>
+        <v>29054300</v>
       </c>
       <c r="F57" s="3">
-        <v>14258000</v>
+        <v>14780900</v>
       </c>
       <c r="G57" s="3">
-        <v>15492900</v>
+        <v>16061000</v>
       </c>
       <c r="H57" s="3">
-        <v>14059300</v>
+        <v>14574900</v>
       </c>
       <c r="I57" s="3">
-        <v>13716700</v>
+        <v>14219700</v>
       </c>
       <c r="J57" s="3">
-        <v>13599200</v>
+        <v>14097900</v>
       </c>
       <c r="K57" s="3">
         <v>17028600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15229100</v>
+        <v>15787500</v>
       </c>
       <c r="E58" s="3">
-        <v>10910500</v>
+        <v>11310600</v>
       </c>
       <c r="F58" s="3">
-        <v>5955500</v>
+        <v>6173900</v>
       </c>
       <c r="G58" s="3">
-        <v>5608800</v>
+        <v>5814400</v>
       </c>
       <c r="H58" s="3">
-        <v>5116300</v>
+        <v>5303900</v>
       </c>
       <c r="I58" s="3">
-        <v>3673200</v>
+        <v>3807900</v>
       </c>
       <c r="J58" s="3">
-        <v>2388900</v>
+        <v>2476500</v>
       </c>
       <c r="K58" s="3">
         <v>1889600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33811800</v>
+        <v>35051800</v>
       </c>
       <c r="E59" s="3">
-        <v>40522600</v>
+        <v>42008600</v>
       </c>
       <c r="F59" s="3">
-        <v>24031200</v>
+        <v>24912500</v>
       </c>
       <c r="G59" s="3">
-        <v>22004300</v>
+        <v>22811200</v>
       </c>
       <c r="H59" s="3">
-        <v>20674000</v>
+        <v>21432200</v>
       </c>
       <c r="I59" s="3">
-        <v>19632200</v>
+        <v>20352200</v>
       </c>
       <c r="J59" s="3">
-        <v>18261900</v>
+        <v>18931600</v>
       </c>
       <c r="K59" s="3">
         <v>21561700</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62109500</v>
+        <v>64387100</v>
       </c>
       <c r="E60" s="3">
-        <v>52137100</v>
+        <v>54049000</v>
       </c>
       <c r="F60" s="3">
-        <v>44244700</v>
+        <v>45867300</v>
       </c>
       <c r="G60" s="3">
-        <v>43105900</v>
+        <v>44686600</v>
       </c>
       <c r="H60" s="3">
-        <v>39849600</v>
+        <v>41311000</v>
       </c>
       <c r="I60" s="3">
-        <v>37022100</v>
+        <v>38379800</v>
       </c>
       <c r="J60" s="3">
-        <v>34250000</v>
+        <v>35506000</v>
       </c>
       <c r="K60" s="3">
         <v>40479900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8533900</v>
+        <v>8846800</v>
       </c>
       <c r="E61" s="3">
-        <v>7470300</v>
+        <v>7744200</v>
       </c>
       <c r="F61" s="3">
-        <v>4501900</v>
+        <v>4667000</v>
       </c>
       <c r="G61" s="3">
-        <v>4029800</v>
+        <v>4177500</v>
       </c>
       <c r="H61" s="3">
-        <v>4420300</v>
+        <v>4582400</v>
       </c>
       <c r="I61" s="3">
-        <v>4831600</v>
+        <v>5008700</v>
       </c>
       <c r="J61" s="3">
-        <v>3946300</v>
+        <v>4091000</v>
       </c>
       <c r="K61" s="3">
         <v>6074100</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>94438200</v>
+        <v>97901400</v>
       </c>
       <c r="E62" s="3">
-        <v>96294200</v>
+        <v>99825400</v>
       </c>
       <c r="F62" s="3">
-        <v>80589400</v>
+        <v>83544700</v>
       </c>
       <c r="G62" s="3">
-        <v>70105300</v>
+        <v>72676100</v>
       </c>
       <c r="H62" s="3">
-        <v>64981100</v>
+        <v>67364100</v>
       </c>
       <c r="I62" s="3">
-        <v>61044000</v>
+        <v>63282600</v>
       </c>
       <c r="J62" s="3">
-        <v>57812900</v>
+        <v>59933000</v>
       </c>
       <c r="K62" s="3">
         <v>63488300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>165456000</v>
+        <v>171523000</v>
       </c>
       <c r="E66" s="3">
-        <v>147667000</v>
+        <v>153082000</v>
       </c>
       <c r="F66" s="3">
-        <v>134101000</v>
+        <v>139018000</v>
       </c>
       <c r="G66" s="3">
-        <v>122198000</v>
+        <v>126679000</v>
       </c>
       <c r="H66" s="3">
-        <v>114136000</v>
+        <v>118322000</v>
       </c>
       <c r="I66" s="3">
-        <v>107508000</v>
+        <v>111450000</v>
       </c>
       <c r="J66" s="3">
-        <v>100749000</v>
+        <v>104444000</v>
       </c>
       <c r="K66" s="3">
         <v>115302000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26663800</v>
+        <v>27641600</v>
       </c>
       <c r="E72" s="3">
-        <v>20663800</v>
+        <v>21421600</v>
       </c>
       <c r="F72" s="3">
-        <v>19631200</v>
+        <v>20351100</v>
       </c>
       <c r="G72" s="3">
-        <v>16453000</v>
+        <v>17056300</v>
       </c>
       <c r="H72" s="3">
-        <v>10212300</v>
+        <v>10586800</v>
       </c>
       <c r="I72" s="3">
-        <v>6979200</v>
+        <v>7235100</v>
       </c>
       <c r="J72" s="3">
-        <v>6638600</v>
+        <v>6882000</v>
       </c>
       <c r="K72" s="3">
         <v>6941400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50654300</v>
+        <v>52511900</v>
       </c>
       <c r="E76" s="3">
-        <v>47363600</v>
+        <v>49100500</v>
       </c>
       <c r="F76" s="3">
-        <v>29248400</v>
+        <v>30321000</v>
       </c>
       <c r="G76" s="3">
-        <v>26561800</v>
+        <v>27535900</v>
       </c>
       <c r="H76" s="3">
-        <v>21038600</v>
+        <v>21810100</v>
       </c>
       <c r="I76" s="3">
-        <v>17705500</v>
+        <v>18354800</v>
       </c>
       <c r="J76" s="3">
-        <v>17465100</v>
+        <v>18105500</v>
       </c>
       <c r="K76" s="3">
         <v>19764700</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6254600</v>
+        <v>6484000</v>
       </c>
       <c r="E81" s="3">
-        <v>7161000</v>
+        <v>7423600</v>
       </c>
       <c r="F81" s="3">
-        <v>4127700</v>
+        <v>4279100</v>
       </c>
       <c r="G81" s="3">
-        <v>6496400</v>
+        <v>6734600</v>
       </c>
       <c r="H81" s="3">
-        <v>3479700</v>
+        <v>3607300</v>
       </c>
       <c r="I81" s="3">
-        <v>519600</v>
+        <v>538700</v>
       </c>
       <c r="J81" s="3">
-        <v>1047800</v>
+        <v>1086300</v>
       </c>
       <c r="K81" s="3">
         <v>-1074600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5921800</v>
+        <v>6139000</v>
       </c>
       <c r="E83" s="3">
-        <v>4873500</v>
+        <v>5052200</v>
       </c>
       <c r="F83" s="3">
-        <v>2954000</v>
+        <v>3062300</v>
       </c>
       <c r="G83" s="3">
-        <v>2651800</v>
+        <v>2749100</v>
       </c>
       <c r="H83" s="3">
-        <v>2562600</v>
+        <v>2656600</v>
       </c>
       <c r="I83" s="3">
-        <v>2318800</v>
+        <v>2403800</v>
       </c>
       <c r="J83" s="3">
-        <v>2815400</v>
+        <v>2918600</v>
       </c>
       <c r="K83" s="3">
         <v>3024900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8746500</v>
+        <v>9067300</v>
       </c>
       <c r="E89" s="3">
-        <v>8084100</v>
+        <v>8380600</v>
       </c>
       <c r="F89" s="3">
-        <v>9548900</v>
+        <v>9899000</v>
       </c>
       <c r="G89" s="3">
-        <v>8897900</v>
+        <v>9224200</v>
       </c>
       <c r="H89" s="3">
-        <v>8843800</v>
+        <v>9168100</v>
       </c>
       <c r="I89" s="3">
-        <v>5737700</v>
+        <v>5948100</v>
       </c>
       <c r="J89" s="3">
-        <v>5311000</v>
+        <v>5505800</v>
       </c>
       <c r="K89" s="3">
         <v>6437100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3127400</v>
+        <v>-3242100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7020300</v>
+        <v>-7277700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3117900</v>
+        <v>-3232200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2216600</v>
+        <v>-2297900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1864600</v>
+        <v>-1933000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2364600</v>
+        <v>-2451300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2661700</v>
+        <v>-2759300</v>
       </c>
       <c r="K91" s="3">
         <v>-1841800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5167100</v>
+        <v>-5356500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3998100</v>
+        <v>-4144700</v>
       </c>
       <c r="F94" s="3">
-        <v>-9587700</v>
+        <v>-9939200</v>
       </c>
       <c r="G94" s="3">
-        <v>-9269800</v>
+        <v>-9609700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5835600</v>
+        <v>-6049500</v>
       </c>
       <c r="I94" s="3">
-        <v>-8890700</v>
+        <v>-9216700</v>
       </c>
       <c r="J94" s="3">
-        <v>-7305600</v>
+        <v>-7573500</v>
       </c>
       <c r="K94" s="3">
         <v>-5456100</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-527100</v>
+        <v>-546400</v>
       </c>
       <c r="E96" s="3">
-        <v>-434500</v>
+        <v>-450500</v>
       </c>
       <c r="F96" s="3">
-        <v>-351500</v>
+        <v>-364400</v>
       </c>
       <c r="G96" s="3">
-        <v>-269900</v>
+        <v>-279800</v>
       </c>
       <c r="H96" s="3">
-        <v>-202000</v>
+        <v>-209400</v>
       </c>
       <c r="I96" s="3">
-        <v>-179400</v>
+        <v>-186000</v>
       </c>
       <c r="J96" s="3">
-        <v>-90400</v>
+        <v>-93700</v>
       </c>
       <c r="K96" s="3">
         <v>-112300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2386300</v>
+        <v>-2473800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2400200</v>
+        <v>-2488200</v>
       </c>
       <c r="F100" s="3">
-        <v>465500</v>
+        <v>482600</v>
       </c>
       <c r="G100" s="3">
-        <v>-871200</v>
+        <v>-903200</v>
       </c>
       <c r="H100" s="3">
-        <v>1747400</v>
+        <v>1811500</v>
       </c>
       <c r="I100" s="3">
-        <v>3206800</v>
+        <v>3324400</v>
       </c>
       <c r="J100" s="3">
-        <v>2695100</v>
+        <v>2793900</v>
       </c>
       <c r="K100" s="3">
         <v>-2245100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>669100</v>
+        <v>693600</v>
       </c>
       <c r="E101" s="3">
-        <v>260100</v>
+        <v>269600</v>
       </c>
       <c r="F101" s="3">
-        <v>-153400</v>
+        <v>-159100</v>
       </c>
       <c r="G101" s="3">
-        <v>372000</v>
+        <v>385600</v>
       </c>
       <c r="H101" s="3">
-        <v>-376100</v>
+        <v>-389900</v>
       </c>
       <c r="I101" s="3">
-        <v>-220200</v>
+        <v>-228300</v>
       </c>
       <c r="J101" s="3">
-        <v>-458100</v>
+        <v>-474900</v>
       </c>
       <c r="K101" s="3">
         <v>436200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1862200</v>
+        <v>1930500</v>
       </c>
       <c r="E102" s="3">
-        <v>1945900</v>
+        <v>2017300</v>
       </c>
       <c r="F102" s="3">
-        <v>273300</v>
+        <v>283300</v>
       </c>
       <c r="G102" s="3">
-        <v>-871100</v>
+        <v>-903100</v>
       </c>
       <c r="H102" s="3">
-        <v>4379500</v>
+        <v>4540100</v>
       </c>
       <c r="I102" s="3">
-        <v>-166400</v>
+        <v>-172500</v>
       </c>
       <c r="J102" s="3">
-        <v>242500</v>
+        <v>251400</v>
       </c>
       <c r="K102" s="3">
         <v>-827900</v>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>SONY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72923100</v>
+        <v>83202200</v>
       </c>
       <c r="E8" s="3">
-        <v>66140200</v>
+        <v>71534100</v>
       </c>
       <c r="F8" s="3">
-        <v>60710200</v>
+        <v>64880300</v>
       </c>
       <c r="G8" s="3">
-        <v>63692800</v>
+        <v>59553800</v>
       </c>
       <c r="H8" s="3">
-        <v>62798300</v>
+        <v>62479600</v>
       </c>
       <c r="I8" s="3">
-        <v>55883900</v>
+        <v>61602100</v>
       </c>
       <c r="J8" s="3">
+        <v>54819400</v>
+      </c>
+      <c r="K8" s="3">
         <v>59577000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70081500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53065800</v>
+        <v>60556300</v>
       </c>
       <c r="E9" s="3">
-        <v>81695100</v>
+        <v>52055100</v>
       </c>
       <c r="F9" s="3">
-        <v>39879300</v>
+        <v>80139000</v>
       </c>
       <c r="G9" s="3">
-        <v>42497700</v>
+        <v>39119700</v>
       </c>
       <c r="H9" s="3">
-        <v>42423500</v>
+        <v>41688200</v>
       </c>
       <c r="I9" s="3">
-        <v>38335400</v>
+        <v>41615400</v>
       </c>
       <c r="J9" s="3">
+        <v>37605200</v>
+      </c>
+      <c r="K9" s="3">
         <v>41207500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48568200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19857300</v>
+        <v>22645900</v>
       </c>
       <c r="E10" s="3">
-        <v>-15554900</v>
+        <v>19479100</v>
       </c>
       <c r="F10" s="3">
-        <v>20830800</v>
+        <v>-15258600</v>
       </c>
       <c r="G10" s="3">
-        <v>21195100</v>
+        <v>20434000</v>
       </c>
       <c r="H10" s="3">
-        <v>20374800</v>
+        <v>20791400</v>
       </c>
       <c r="I10" s="3">
-        <v>17548500</v>
+        <v>19986700</v>
       </c>
       <c r="J10" s="3">
+        <v>17214200</v>
+      </c>
+      <c r="K10" s="3">
         <v>18369400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21513200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>3860000</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>3669800</v>
+        <v>3786500</v>
       </c>
       <c r="G12" s="3">
-        <v>3536800</v>
+        <v>3599900</v>
       </c>
       <c r="H12" s="3">
-        <v>3370100</v>
+        <v>3469500</v>
       </c>
       <c r="I12" s="3">
-        <v>3288800</v>
+        <v>3305900</v>
       </c>
       <c r="J12" s="3">
+        <v>3226200</v>
+      </c>
+      <c r="K12" s="3">
         <v>3441100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3960600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>175200</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>218900</v>
+        <v>171900</v>
       </c>
       <c r="G14" s="3">
-        <v>344900</v>
+        <v>214700</v>
       </c>
       <c r="H14" s="3">
-        <v>283700</v>
+        <v>338400</v>
       </c>
       <c r="I14" s="3">
-        <v>823700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>278300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>808000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64085900</v>
+        <v>74491100</v>
       </c>
       <c r="E17" s="3">
-        <v>59119000</v>
+        <v>62865200</v>
       </c>
       <c r="F17" s="3">
-        <v>54496000</v>
+        <v>57993000</v>
       </c>
       <c r="G17" s="3">
-        <v>57120200</v>
+        <v>53458000</v>
       </c>
       <c r="H17" s="3">
-        <v>57397000</v>
+        <v>56032200</v>
       </c>
       <c r="I17" s="3">
-        <v>53761900</v>
+        <v>56303800</v>
       </c>
       <c r="J17" s="3">
+        <v>52737900</v>
+      </c>
+      <c r="K17" s="3">
         <v>57414600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69496700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8837200</v>
+        <v>8711200</v>
       </c>
       <c r="E18" s="3">
-        <v>7021100</v>
+        <v>8668900</v>
       </c>
       <c r="F18" s="3">
-        <v>6214100</v>
+        <v>6887400</v>
       </c>
       <c r="G18" s="3">
-        <v>6572600</v>
+        <v>6095800</v>
       </c>
       <c r="H18" s="3">
-        <v>5401200</v>
+        <v>6447400</v>
       </c>
       <c r="I18" s="3">
-        <v>2122000</v>
+        <v>5298300</v>
       </c>
       <c r="J18" s="3">
+        <v>2081500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2162300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>584700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-516200</v>
+        <v>-201100</v>
       </c>
       <c r="E20" s="3">
-        <v>507900</v>
+        <v>-506400</v>
       </c>
       <c r="F20" s="3">
-        <v>-256700</v>
+        <v>498200</v>
       </c>
       <c r="G20" s="3">
-        <v>954600</v>
+        <v>-251800</v>
       </c>
       <c r="H20" s="3">
-        <v>-163500</v>
+        <v>936400</v>
       </c>
       <c r="I20" s="3">
-        <v>-165700</v>
+        <v>-160400</v>
       </c>
       <c r="J20" s="3">
+        <v>-162500</v>
+      </c>
+      <c r="K20" s="3">
         <v>261600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14401500</v>
+        <v>15803400</v>
       </c>
       <c r="E21" s="3">
-        <v>12533100</v>
+        <v>14226300</v>
       </c>
       <c r="F21" s="3">
-        <v>8990600</v>
+        <v>12375900</v>
       </c>
       <c r="G21" s="3">
-        <v>10250200</v>
+        <v>8868800</v>
       </c>
       <c r="H21" s="3">
-        <v>7869000</v>
+        <v>10099300</v>
       </c>
       <c r="I21" s="3">
-        <v>4337200</v>
+        <v>7762000</v>
       </c>
       <c r="J21" s="3">
+        <v>4293400</v>
+      </c>
+      <c r="K21" s="3">
         <v>5314800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3600600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>107300</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>194000</v>
+        <v>105300</v>
       </c>
       <c r="F22" s="3">
-        <v>81500</v>
+        <v>190300</v>
       </c>
       <c r="G22" s="3">
-        <v>91600</v>
+        <v>80000</v>
       </c>
       <c r="H22" s="3">
-        <v>99700</v>
+        <v>89900</v>
       </c>
       <c r="I22" s="3">
-        <v>106900</v>
+        <v>97800</v>
       </c>
       <c r="J22" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K22" s="3">
         <v>185900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8213600</v>
+        <v>8510100</v>
       </c>
       <c r="E23" s="3">
-        <v>7335000</v>
+        <v>8057200</v>
       </c>
       <c r="F23" s="3">
-        <v>5876000</v>
+        <v>7195300</v>
       </c>
       <c r="G23" s="3">
-        <v>7435600</v>
+        <v>5764000</v>
       </c>
       <c r="H23" s="3">
-        <v>5138000</v>
+        <v>7294000</v>
       </c>
       <c r="I23" s="3">
-        <v>1849400</v>
+        <v>5040100</v>
       </c>
       <c r="J23" s="3">
+        <v>1814200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2238100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>338900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1683900</v>
+        <v>1706500</v>
       </c>
       <c r="E24" s="3">
-        <v>-337600</v>
+        <v>1651800</v>
       </c>
       <c r="F24" s="3">
-        <v>1302300</v>
+        <v>-331200</v>
       </c>
       <c r="G24" s="3">
-        <v>331500</v>
+        <v>1277500</v>
       </c>
       <c r="H24" s="3">
-        <v>1115500</v>
+        <v>325200</v>
       </c>
       <c r="I24" s="3">
-        <v>911800</v>
+        <v>1094300</v>
       </c>
       <c r="J24" s="3">
+        <v>894500</v>
+      </c>
+      <c r="K24" s="3">
         <v>696700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>756900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6529800</v>
+        <v>6803500</v>
       </c>
       <c r="E26" s="3">
-        <v>7672600</v>
+        <v>6405400</v>
       </c>
       <c r="F26" s="3">
-        <v>4573600</v>
+        <v>7526500</v>
       </c>
       <c r="G26" s="3">
-        <v>7104100</v>
+        <v>4486500</v>
       </c>
       <c r="H26" s="3">
-        <v>4022500</v>
+        <v>6968800</v>
       </c>
       <c r="I26" s="3">
-        <v>937600</v>
+        <v>3945900</v>
       </c>
       <c r="J26" s="3">
+        <v>919700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1541400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-418000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6484000</v>
+        <v>6756700</v>
       </c>
       <c r="E27" s="3">
-        <v>7423600</v>
+        <v>6360500</v>
       </c>
       <c r="F27" s="3">
-        <v>4279100</v>
+        <v>7282200</v>
       </c>
       <c r="G27" s="3">
-        <v>6734600</v>
+        <v>4197600</v>
       </c>
       <c r="H27" s="3">
-        <v>3607300</v>
+        <v>6606300</v>
       </c>
       <c r="I27" s="3">
-        <v>538700</v>
+        <v>3538600</v>
       </c>
       <c r="J27" s="3">
+        <v>528400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1086300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1074600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>516200</v>
+        <v>201100</v>
       </c>
       <c r="E32" s="3">
-        <v>-507900</v>
+        <v>506400</v>
       </c>
       <c r="F32" s="3">
-        <v>256700</v>
+        <v>-498200</v>
       </c>
       <c r="G32" s="3">
-        <v>-954600</v>
+        <v>251800</v>
       </c>
       <c r="H32" s="3">
-        <v>163500</v>
+        <v>-936400</v>
       </c>
       <c r="I32" s="3">
-        <v>165700</v>
+        <v>160400</v>
       </c>
       <c r="J32" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-261600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6484000</v>
+        <v>6756700</v>
       </c>
       <c r="E33" s="3">
-        <v>7423600</v>
+        <v>6360500</v>
       </c>
       <c r="F33" s="3">
-        <v>4279100</v>
+        <v>7282200</v>
       </c>
       <c r="G33" s="3">
-        <v>6734600</v>
+        <v>4197600</v>
       </c>
       <c r="H33" s="3">
-        <v>3607300</v>
+        <v>6606300</v>
       </c>
       <c r="I33" s="3">
-        <v>538700</v>
+        <v>3538600</v>
       </c>
       <c r="J33" s="3">
+        <v>528400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1086300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1074600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6484000</v>
+        <v>6756700</v>
       </c>
       <c r="E35" s="3">
-        <v>7423600</v>
+        <v>6360500</v>
       </c>
       <c r="F35" s="3">
-        <v>4279100</v>
+        <v>7282200</v>
       </c>
       <c r="G35" s="3">
-        <v>6734600</v>
+        <v>4197600</v>
       </c>
       <c r="H35" s="3">
-        <v>3607300</v>
+        <v>6606300</v>
       </c>
       <c r="I35" s="3">
-        <v>538700</v>
+        <v>3538600</v>
       </c>
       <c r="J35" s="3">
+        <v>528400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1086300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1074600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15064800</v>
+        <v>10677300</v>
       </c>
       <c r="E41" s="3">
-        <v>26268600</v>
+        <v>14777900</v>
       </c>
       <c r="F41" s="3">
-        <v>11115800</v>
+        <v>25768300</v>
       </c>
       <c r="G41" s="3">
-        <v>10805000</v>
+        <v>10904100</v>
       </c>
       <c r="H41" s="3">
-        <v>11659500</v>
+        <v>10599200</v>
       </c>
       <c r="I41" s="3">
-        <v>7057000</v>
+        <v>11437400</v>
       </c>
       <c r="J41" s="3">
+        <v>6922600</v>
+      </c>
+      <c r="K41" s="3">
         <v>7229500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8098500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3748300</v>
+        <v>3167400</v>
       </c>
       <c r="E42" s="3">
-        <v>25225900</v>
+        <v>3676900</v>
       </c>
       <c r="F42" s="3">
-        <v>13581100</v>
+        <v>24745500</v>
       </c>
       <c r="G42" s="3">
-        <v>9735400</v>
+        <v>13322400</v>
       </c>
       <c r="H42" s="3">
-        <v>8648000</v>
+        <v>9549900</v>
       </c>
       <c r="I42" s="3">
-        <v>7728100</v>
+        <v>8483300</v>
       </c>
       <c r="J42" s="3">
+        <v>7580900</v>
+      </c>
+      <c r="K42" s="3">
         <v>6956000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7990300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11969600</v>
+        <v>12818900</v>
       </c>
       <c r="E43" s="3">
-        <v>19983800</v>
+        <v>11741600</v>
       </c>
       <c r="F43" s="3">
-        <v>8754000</v>
+        <v>19603200</v>
       </c>
       <c r="G43" s="3">
-        <v>9477300</v>
+        <v>8587300</v>
       </c>
       <c r="H43" s="3">
-        <v>8845600</v>
+        <v>9296700</v>
       </c>
       <c r="I43" s="3">
-        <v>8654200</v>
+        <v>8677100</v>
       </c>
       <c r="J43" s="3">
+        <v>8489400</v>
+      </c>
+      <c r="K43" s="3">
         <v>7788400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9654700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6424000</v>
+        <v>10584600</v>
       </c>
       <c r="E44" s="3">
-        <v>9359000</v>
+        <v>6301600</v>
       </c>
       <c r="F44" s="3">
-        <v>4336300</v>
+        <v>9180800</v>
       </c>
       <c r="G44" s="3">
-        <v>4801600</v>
+        <v>4253700</v>
       </c>
       <c r="H44" s="3">
-        <v>5093100</v>
+        <v>4710100</v>
       </c>
       <c r="I44" s="3">
-        <v>4710100</v>
+        <v>4996100</v>
       </c>
       <c r="J44" s="3">
+        <v>4620400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5021100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5676100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3477100</v>
+        <v>4400500</v>
       </c>
       <c r="E45" s="3">
-        <v>6870400</v>
+        <v>3410800</v>
       </c>
       <c r="F45" s="3">
-        <v>4366100</v>
+        <v>6739500</v>
       </c>
       <c r="G45" s="3">
-        <v>3743400</v>
+        <v>4282900</v>
       </c>
       <c r="H45" s="3">
-        <v>3798100</v>
+        <v>3672100</v>
       </c>
       <c r="I45" s="3">
-        <v>3865100</v>
+        <v>3725700</v>
       </c>
       <c r="J45" s="3">
+        <v>3791500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3850800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4388500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40683800</v>
+        <v>41648700</v>
       </c>
       <c r="E46" s="3">
-        <v>34655400</v>
+        <v>39908800</v>
       </c>
       <c r="F46" s="3">
-        <v>42153300</v>
+        <v>33995300</v>
       </c>
       <c r="G46" s="3">
-        <v>38562600</v>
+        <v>41350400</v>
       </c>
       <c r="H46" s="3">
-        <v>38044300</v>
+        <v>37828100</v>
       </c>
       <c r="I46" s="3">
-        <v>32014600</v>
+        <v>37319700</v>
       </c>
       <c r="J46" s="3">
+        <v>31404800</v>
+      </c>
+      <c r="K46" s="3">
         <v>30845900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35808100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>142663000</v>
+        <v>141340000</v>
       </c>
       <c r="E47" s="3">
-        <v>238738000</v>
+        <v>139945000</v>
       </c>
       <c r="F47" s="3">
-        <v>93595900</v>
+        <v>234191000</v>
       </c>
       <c r="G47" s="3">
-        <v>86176200</v>
+        <v>91813100</v>
       </c>
       <c r="H47" s="3">
-        <v>79057000</v>
+        <v>84534700</v>
       </c>
       <c r="I47" s="3">
-        <v>74321700</v>
+        <v>77551200</v>
       </c>
       <c r="J47" s="3">
+        <v>72906000</v>
+      </c>
+      <c r="K47" s="3">
         <v>67870500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>72772400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11220800</v>
+        <v>13143300</v>
       </c>
       <c r="E48" s="3">
-        <v>8005200</v>
+        <v>11007100</v>
       </c>
       <c r="F48" s="3">
-        <v>9564200</v>
+        <v>7852800</v>
       </c>
       <c r="G48" s="3">
-        <v>5711300</v>
+        <v>9382000</v>
       </c>
       <c r="H48" s="3">
-        <v>5435100</v>
+        <v>5602600</v>
       </c>
       <c r="I48" s="3">
-        <v>5572800</v>
+        <v>5331600</v>
       </c>
       <c r="J48" s="3">
+        <v>5466600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6033000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6306100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20176100</v>
+        <v>24520000</v>
       </c>
       <c r="E49" s="3">
-        <v>38533100</v>
+        <v>19791800</v>
       </c>
       <c r="F49" s="3">
-        <v>12423000</v>
+        <v>37799200</v>
       </c>
       <c r="G49" s="3">
-        <v>12395900</v>
+        <v>12186300</v>
       </c>
       <c r="H49" s="3">
-        <v>7773800</v>
+        <v>12159800</v>
       </c>
       <c r="I49" s="3">
-        <v>8134400</v>
+        <v>7625700</v>
       </c>
       <c r="J49" s="3">
+        <v>7979500</v>
+      </c>
+      <c r="K49" s="3">
         <v>8982000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10266800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9291600</v>
+        <v>10365400</v>
       </c>
       <c r="E52" s="3">
-        <v>15257400</v>
+        <v>9114600</v>
       </c>
       <c r="F52" s="3">
-        <v>11602800</v>
+        <v>14966800</v>
       </c>
       <c r="G52" s="3">
-        <v>11368600</v>
+        <v>11381800</v>
       </c>
       <c r="H52" s="3">
-        <v>9821500</v>
+        <v>11152100</v>
       </c>
       <c r="I52" s="3">
-        <v>9761700</v>
+        <v>9634400</v>
       </c>
       <c r="J52" s="3">
+        <v>9575700</v>
+      </c>
+      <c r="K52" s="3">
         <v>8817900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9913400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>224035000</v>
+        <v>231017000</v>
       </c>
       <c r="E54" s="3">
-        <v>202183000</v>
+        <v>219768000</v>
       </c>
       <c r="F54" s="3">
-        <v>169339000</v>
+        <v>198332000</v>
       </c>
       <c r="G54" s="3">
-        <v>154215000</v>
+        <v>166114000</v>
       </c>
       <c r="H54" s="3">
-        <v>140132000</v>
+        <v>151277000</v>
       </c>
       <c r="I54" s="3">
-        <v>129805000</v>
+        <v>137463000</v>
       </c>
       <c r="J54" s="3">
+        <v>127333000</v>
+      </c>
+      <c r="K54" s="3">
         <v>122549000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>135067000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13547800</v>
+        <v>13453800</v>
       </c>
       <c r="E57" s="3">
-        <v>29054300</v>
+        <v>13289800</v>
       </c>
       <c r="F57" s="3">
-        <v>14780900</v>
+        <v>28500900</v>
       </c>
       <c r="G57" s="3">
-        <v>16061000</v>
+        <v>14499400</v>
       </c>
       <c r="H57" s="3">
-        <v>14574900</v>
+        <v>15755100</v>
       </c>
       <c r="I57" s="3">
-        <v>14219700</v>
+        <v>14297300</v>
       </c>
       <c r="J57" s="3">
+        <v>13948900</v>
+      </c>
+      <c r="K57" s="3">
         <v>14097900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17028600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15787500</v>
+        <v>15161700</v>
       </c>
       <c r="E58" s="3">
-        <v>11310600</v>
+        <v>15486800</v>
       </c>
       <c r="F58" s="3">
-        <v>6173900</v>
+        <v>11095100</v>
       </c>
       <c r="G58" s="3">
-        <v>5814400</v>
+        <v>6056300</v>
       </c>
       <c r="H58" s="3">
-        <v>5303900</v>
+        <v>5703700</v>
       </c>
       <c r="I58" s="3">
-        <v>3807900</v>
+        <v>5202800</v>
       </c>
       <c r="J58" s="3">
+        <v>3735300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2476500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1889600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35051800</v>
+        <v>38501900</v>
       </c>
       <c r="E59" s="3">
-        <v>42008600</v>
+        <v>34384100</v>
       </c>
       <c r="F59" s="3">
-        <v>24912500</v>
+        <v>41208500</v>
       </c>
       <c r="G59" s="3">
-        <v>22811200</v>
+        <v>24438000</v>
       </c>
       <c r="H59" s="3">
-        <v>21432200</v>
+        <v>22376700</v>
       </c>
       <c r="I59" s="3">
-        <v>20352200</v>
+        <v>21023900</v>
       </c>
       <c r="J59" s="3">
+        <v>19964500</v>
+      </c>
+      <c r="K59" s="3">
         <v>18931600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21561700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64387100</v>
+        <v>67117400</v>
       </c>
       <c r="E60" s="3">
-        <v>54049000</v>
+        <v>63160700</v>
       </c>
       <c r="F60" s="3">
-        <v>45867300</v>
+        <v>53019500</v>
       </c>
       <c r="G60" s="3">
-        <v>44686600</v>
+        <v>44993600</v>
       </c>
       <c r="H60" s="3">
-        <v>41311000</v>
+        <v>43835500</v>
       </c>
       <c r="I60" s="3">
-        <v>38379800</v>
+        <v>40524100</v>
       </c>
       <c r="J60" s="3">
+        <v>37648700</v>
+      </c>
+      <c r="K60" s="3">
         <v>35506000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40479900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8846800</v>
+        <v>12745100</v>
       </c>
       <c r="E61" s="3">
-        <v>7744200</v>
+        <v>8678300</v>
       </c>
       <c r="F61" s="3">
-        <v>4667000</v>
+        <v>7596700</v>
       </c>
       <c r="G61" s="3">
-        <v>4177500</v>
+        <v>4578100</v>
       </c>
       <c r="H61" s="3">
-        <v>4582400</v>
+        <v>4098000</v>
       </c>
       <c r="I61" s="3">
-        <v>5008700</v>
+        <v>4495100</v>
       </c>
       <c r="J61" s="3">
+        <v>4913300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4091000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6074100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97901400</v>
+        <v>98605900</v>
       </c>
       <c r="E62" s="3">
-        <v>99825400</v>
+        <v>96036600</v>
       </c>
       <c r="F62" s="3">
-        <v>83544700</v>
+        <v>97924000</v>
       </c>
       <c r="G62" s="3">
-        <v>72676100</v>
+        <v>81953400</v>
       </c>
       <c r="H62" s="3">
-        <v>67364100</v>
+        <v>71291800</v>
       </c>
       <c r="I62" s="3">
-        <v>63282600</v>
+        <v>66080900</v>
       </c>
       <c r="J62" s="3">
+        <v>62077200</v>
+      </c>
+      <c r="K62" s="3">
         <v>59933000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63488300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171523000</v>
+        <v>178891000</v>
       </c>
       <c r="E66" s="3">
-        <v>153082000</v>
+        <v>168256000</v>
       </c>
       <c r="F66" s="3">
-        <v>139018000</v>
+        <v>150166000</v>
       </c>
       <c r="G66" s="3">
-        <v>126679000</v>
+        <v>136370000</v>
       </c>
       <c r="H66" s="3">
-        <v>118322000</v>
+        <v>124266000</v>
       </c>
       <c r="I66" s="3">
-        <v>111450000</v>
+        <v>116068000</v>
       </c>
       <c r="J66" s="3">
+        <v>109328000</v>
+      </c>
+      <c r="K66" s="3">
         <v>104444000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>115302000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27641600</v>
+        <v>33271500</v>
       </c>
       <c r="E72" s="3">
-        <v>21421600</v>
+        <v>27115100</v>
       </c>
       <c r="F72" s="3">
-        <v>20351100</v>
+        <v>21013600</v>
       </c>
       <c r="G72" s="3">
-        <v>17056300</v>
+        <v>19963500</v>
       </c>
       <c r="H72" s="3">
-        <v>10586800</v>
+        <v>16731400</v>
       </c>
       <c r="I72" s="3">
-        <v>7235100</v>
+        <v>10385200</v>
       </c>
       <c r="J72" s="3">
+        <v>7097300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6882000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6941400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52511900</v>
+        <v>52126200</v>
       </c>
       <c r="E76" s="3">
-        <v>49100500</v>
+        <v>51511600</v>
       </c>
       <c r="F76" s="3">
-        <v>30321000</v>
+        <v>48165300</v>
       </c>
       <c r="G76" s="3">
-        <v>27535900</v>
+        <v>29743500</v>
       </c>
       <c r="H76" s="3">
-        <v>21810100</v>
+        <v>27011400</v>
       </c>
       <c r="I76" s="3">
-        <v>18354800</v>
+        <v>21394700</v>
       </c>
       <c r="J76" s="3">
+        <v>18005100</v>
+      </c>
+      <c r="K76" s="3">
         <v>18105500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19764700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6484000</v>
+        <v>6756700</v>
       </c>
       <c r="E81" s="3">
-        <v>7423600</v>
+        <v>6360500</v>
       </c>
       <c r="F81" s="3">
-        <v>4279100</v>
+        <v>7282200</v>
       </c>
       <c r="G81" s="3">
-        <v>6734600</v>
+        <v>4197600</v>
       </c>
       <c r="H81" s="3">
-        <v>3607300</v>
+        <v>6606300</v>
       </c>
       <c r="I81" s="3">
-        <v>538700</v>
+        <v>3538600</v>
       </c>
       <c r="J81" s="3">
+        <v>528400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1086300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1074600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6139000</v>
+        <v>7243100</v>
       </c>
       <c r="E83" s="3">
-        <v>5052200</v>
+        <v>6022000</v>
       </c>
       <c r="F83" s="3">
-        <v>3062300</v>
+        <v>4956000</v>
       </c>
       <c r="G83" s="3">
-        <v>2749100</v>
+        <v>3004000</v>
       </c>
       <c r="H83" s="3">
-        <v>2656600</v>
+        <v>2696700</v>
       </c>
       <c r="I83" s="3">
-        <v>2403800</v>
+        <v>2606000</v>
       </c>
       <c r="J83" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2918600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3024900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9067300</v>
+        <v>2268900</v>
       </c>
       <c r="E89" s="3">
-        <v>8380600</v>
+        <v>8894600</v>
       </c>
       <c r="F89" s="3">
-        <v>9899000</v>
+        <v>8221000</v>
       </c>
       <c r="G89" s="3">
-        <v>9224200</v>
+        <v>9710500</v>
       </c>
       <c r="H89" s="3">
-        <v>9168100</v>
+        <v>9048500</v>
       </c>
       <c r="I89" s="3">
-        <v>5948100</v>
+        <v>8993500</v>
       </c>
       <c r="J89" s="3">
+        <v>5834800</v>
+      </c>
+      <c r="K89" s="3">
         <v>5505800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6437100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3242100</v>
+        <v>-4424300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7277700</v>
+        <v>-3180300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3232200</v>
+        <v>-7139100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2297900</v>
+        <v>-3170700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1933000</v>
+        <v>-2254200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2451300</v>
+        <v>-1896200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2404600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2759300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1841800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5356500</v>
+        <v>-7589700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4144700</v>
+        <v>-5254500</v>
       </c>
       <c r="F94" s="3">
-        <v>-9939200</v>
+        <v>-4065800</v>
       </c>
       <c r="G94" s="3">
-        <v>-9609700</v>
+        <v>-9749900</v>
       </c>
       <c r="H94" s="3">
-        <v>-6049500</v>
+        <v>-9426700</v>
       </c>
       <c r="I94" s="3">
-        <v>-9216700</v>
+        <v>-5934300</v>
       </c>
       <c r="J94" s="3">
+        <v>-9041100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7573500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5456100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-546400</v>
+        <v>-624200</v>
       </c>
       <c r="E96" s="3">
-        <v>-450500</v>
+        <v>-536000</v>
       </c>
       <c r="F96" s="3">
-        <v>-364400</v>
+        <v>-441900</v>
       </c>
       <c r="G96" s="3">
-        <v>-279800</v>
+        <v>-357400</v>
       </c>
       <c r="H96" s="3">
-        <v>-209400</v>
+        <v>-274500</v>
       </c>
       <c r="I96" s="3">
-        <v>-186000</v>
+        <v>-205400</v>
       </c>
       <c r="J96" s="3">
+        <v>-182400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-93700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-112300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2473800</v>
+        <v>607800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2488200</v>
+        <v>-2426700</v>
       </c>
       <c r="F100" s="3">
-        <v>482600</v>
+        <v>-2440800</v>
       </c>
       <c r="G100" s="3">
-        <v>-903200</v>
+        <v>473400</v>
       </c>
       <c r="H100" s="3">
-        <v>1811500</v>
+        <v>-886000</v>
       </c>
       <c r="I100" s="3">
-        <v>3324400</v>
+        <v>1776900</v>
       </c>
       <c r="J100" s="3">
+        <v>3261100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2793900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2245100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>693600</v>
+        <v>612400</v>
       </c>
       <c r="E101" s="3">
-        <v>269600</v>
+        <v>680400</v>
       </c>
       <c r="F101" s="3">
-        <v>-159100</v>
+        <v>264500</v>
       </c>
       <c r="G101" s="3">
-        <v>385600</v>
+        <v>-156000</v>
       </c>
       <c r="H101" s="3">
-        <v>-389900</v>
+        <v>378300</v>
       </c>
       <c r="I101" s="3">
-        <v>-228300</v>
+        <v>-382400</v>
       </c>
       <c r="J101" s="3">
+        <v>-223900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-474900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>436200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1930500</v>
+        <v>-4100600</v>
       </c>
       <c r="E102" s="3">
-        <v>2017300</v>
+        <v>1893700</v>
       </c>
       <c r="F102" s="3">
-        <v>283300</v>
+        <v>1978800</v>
       </c>
       <c r="G102" s="3">
-        <v>-903100</v>
+        <v>277900</v>
       </c>
       <c r="H102" s="3">
-        <v>4540100</v>
+        <v>-885900</v>
       </c>
       <c r="I102" s="3">
-        <v>-172500</v>
+        <v>4453700</v>
       </c>
       <c r="J102" s="3">
+        <v>-169200</v>
+      </c>
+      <c r="K102" s="3">
         <v>251400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-827900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>SONY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>83202200</v>
+        <v>79278700</v>
       </c>
       <c r="E8" s="3">
-        <v>71534100</v>
+        <v>68160800</v>
       </c>
       <c r="F8" s="3">
-        <v>64880300</v>
+        <v>61820800</v>
       </c>
       <c r="G8" s="3">
-        <v>59553800</v>
+        <v>56745400</v>
       </c>
       <c r="H8" s="3">
-        <v>62479600</v>
+        <v>59533300</v>
       </c>
       <c r="I8" s="3">
-        <v>61602100</v>
+        <v>58697200</v>
       </c>
       <c r="J8" s="3">
-        <v>54819400</v>
+        <v>52234300</v>
       </c>
       <c r="K8" s="3">
         <v>59577000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60556300</v>
+        <v>57700700</v>
       </c>
       <c r="E9" s="3">
-        <v>52055100</v>
+        <v>49600300</v>
       </c>
       <c r="F9" s="3">
-        <v>80139000</v>
+        <v>76359900</v>
       </c>
       <c r="G9" s="3">
-        <v>39119700</v>
+        <v>37275000</v>
       </c>
       <c r="H9" s="3">
-        <v>41688200</v>
+        <v>39722300</v>
       </c>
       <c r="I9" s="3">
-        <v>41615400</v>
+        <v>39653000</v>
       </c>
       <c r="J9" s="3">
-        <v>37605200</v>
+        <v>35831800</v>
       </c>
       <c r="K9" s="3">
         <v>41207500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22645900</v>
+        <v>21578000</v>
       </c>
       <c r="E10" s="3">
-        <v>19479100</v>
+        <v>18560500</v>
       </c>
       <c r="F10" s="3">
-        <v>-15258600</v>
+        <v>-14539100</v>
       </c>
       <c r="G10" s="3">
-        <v>20434000</v>
+        <v>19470400</v>
       </c>
       <c r="H10" s="3">
-        <v>20791400</v>
+        <v>19811000</v>
       </c>
       <c r="I10" s="3">
-        <v>19986700</v>
+        <v>19044200</v>
       </c>
       <c r="J10" s="3">
-        <v>17214200</v>
+        <v>16402500</v>
       </c>
       <c r="K10" s="3">
         <v>18369400</v>
@@ -837,19 +837,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>3786500</v>
+        <v>3608000</v>
       </c>
       <c r="G12" s="3">
-        <v>3599900</v>
+        <v>3430100</v>
       </c>
       <c r="H12" s="3">
-        <v>3469500</v>
+        <v>3305900</v>
       </c>
       <c r="I12" s="3">
-        <v>3305900</v>
+        <v>3150000</v>
       </c>
       <c r="J12" s="3">
-        <v>3226200</v>
+        <v>3074000</v>
       </c>
       <c r="K12" s="3">
         <v>3441100</v>
@@ -903,19 +903,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>171900</v>
+        <v>163700</v>
       </c>
       <c r="G14" s="3">
-        <v>214700</v>
+        <v>204600</v>
       </c>
       <c r="H14" s="3">
-        <v>338400</v>
+        <v>322400</v>
       </c>
       <c r="I14" s="3">
-        <v>278300</v>
+        <v>265200</v>
       </c>
       <c r="J14" s="3">
-        <v>808000</v>
+        <v>769900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74491100</v>
+        <v>70978300</v>
       </c>
       <c r="E17" s="3">
-        <v>62865200</v>
+        <v>59900700</v>
       </c>
       <c r="F17" s="3">
-        <v>57993000</v>
+        <v>55258200</v>
       </c>
       <c r="G17" s="3">
-        <v>53458000</v>
+        <v>50937100</v>
       </c>
       <c r="H17" s="3">
-        <v>56032200</v>
+        <v>53389900</v>
       </c>
       <c r="I17" s="3">
-        <v>56303800</v>
+        <v>53648700</v>
       </c>
       <c r="J17" s="3">
-        <v>52737900</v>
+        <v>50250900</v>
       </c>
       <c r="K17" s="3">
         <v>57414600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8711200</v>
+        <v>8300400</v>
       </c>
       <c r="E18" s="3">
-        <v>8668900</v>
+        <v>8260100</v>
       </c>
       <c r="F18" s="3">
-        <v>6887400</v>
+        <v>6562600</v>
       </c>
       <c r="G18" s="3">
-        <v>6095800</v>
+        <v>5808300</v>
       </c>
       <c r="H18" s="3">
-        <v>6447400</v>
+        <v>6143400</v>
       </c>
       <c r="I18" s="3">
-        <v>5298300</v>
+        <v>5048500</v>
       </c>
       <c r="J18" s="3">
-        <v>2081500</v>
+        <v>1983400</v>
       </c>
       <c r="K18" s="3">
         <v>2162300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-201100</v>
+        <v>-10300</v>
       </c>
       <c r="E20" s="3">
-        <v>-506400</v>
+        <v>-482500</v>
       </c>
       <c r="F20" s="3">
-        <v>498200</v>
+        <v>474700</v>
       </c>
       <c r="G20" s="3">
-        <v>-251800</v>
+        <v>-239900</v>
       </c>
       <c r="H20" s="3">
-        <v>936400</v>
+        <v>892300</v>
       </c>
       <c r="I20" s="3">
-        <v>-160400</v>
+        <v>-152800</v>
       </c>
       <c r="J20" s="3">
-        <v>-162500</v>
+        <v>-154800</v>
       </c>
       <c r="K20" s="3">
         <v>261600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15803400</v>
+        <v>15191600</v>
       </c>
       <c r="E21" s="3">
-        <v>14226300</v>
+        <v>13515600</v>
       </c>
       <c r="F21" s="3">
-        <v>12375900</v>
+        <v>11759600</v>
       </c>
       <c r="G21" s="3">
-        <v>8868800</v>
+        <v>8430700</v>
       </c>
       <c r="H21" s="3">
-        <v>10099300</v>
+        <v>9605200</v>
       </c>
       <c r="I21" s="3">
-        <v>7762000</v>
+        <v>7378800</v>
       </c>
       <c r="J21" s="3">
-        <v>4293400</v>
+        <v>4075400</v>
       </c>
       <c r="K21" s="3">
         <v>5314800</v>
@@ -1121,26 +1121,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>181400</v>
       </c>
       <c r="E22" s="3">
-        <v>105300</v>
+        <v>100300</v>
       </c>
       <c r="F22" s="3">
-        <v>190300</v>
+        <v>181300</v>
       </c>
       <c r="G22" s="3">
-        <v>80000</v>
+        <v>76200</v>
       </c>
       <c r="H22" s="3">
-        <v>89900</v>
+        <v>85600</v>
       </c>
       <c r="I22" s="3">
-        <v>97800</v>
+        <v>93200</v>
       </c>
       <c r="J22" s="3">
-        <v>104900</v>
+        <v>99900</v>
       </c>
       <c r="K22" s="3">
         <v>185900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8510100</v>
+        <v>8108800</v>
       </c>
       <c r="E23" s="3">
-        <v>8057200</v>
+        <v>7677200</v>
       </c>
       <c r="F23" s="3">
-        <v>7195300</v>
+        <v>6856000</v>
       </c>
       <c r="G23" s="3">
-        <v>5764000</v>
+        <v>5492200</v>
       </c>
       <c r="H23" s="3">
-        <v>7294000</v>
+        <v>6950000</v>
       </c>
       <c r="I23" s="3">
-        <v>5040100</v>
+        <v>4802500</v>
       </c>
       <c r="J23" s="3">
-        <v>1814200</v>
+        <v>1728600</v>
       </c>
       <c r="K23" s="3">
         <v>2238100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1706500</v>
+        <v>1626100</v>
       </c>
       <c r="E24" s="3">
-        <v>1651800</v>
+        <v>1573900</v>
       </c>
       <c r="F24" s="3">
-        <v>-331200</v>
+        <v>-315500</v>
       </c>
       <c r="G24" s="3">
-        <v>1277500</v>
+        <v>1217300</v>
       </c>
       <c r="H24" s="3">
-        <v>325200</v>
+        <v>309800</v>
       </c>
       <c r="I24" s="3">
-        <v>1094300</v>
+        <v>1042700</v>
       </c>
       <c r="J24" s="3">
-        <v>894500</v>
+        <v>852300</v>
       </c>
       <c r="K24" s="3">
         <v>696700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6803500</v>
+        <v>6482700</v>
       </c>
       <c r="E26" s="3">
-        <v>6405400</v>
+        <v>6103300</v>
       </c>
       <c r="F26" s="3">
-        <v>7526500</v>
+        <v>7171600</v>
       </c>
       <c r="G26" s="3">
-        <v>4486500</v>
+        <v>4274900</v>
       </c>
       <c r="H26" s="3">
-        <v>6968800</v>
+        <v>6640200</v>
       </c>
       <c r="I26" s="3">
-        <v>3945900</v>
+        <v>3759800</v>
       </c>
       <c r="J26" s="3">
-        <v>919700</v>
+        <v>876300</v>
       </c>
       <c r="K26" s="3">
         <v>1541400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6756700</v>
+        <v>6438100</v>
       </c>
       <c r="E27" s="3">
-        <v>6360500</v>
+        <v>6060600</v>
       </c>
       <c r="F27" s="3">
-        <v>7282200</v>
+        <v>6938800</v>
       </c>
       <c r="G27" s="3">
-        <v>4197600</v>
+        <v>3999700</v>
       </c>
       <c r="H27" s="3">
-        <v>6606300</v>
+        <v>6294800</v>
       </c>
       <c r="I27" s="3">
-        <v>3538600</v>
+        <v>3371800</v>
       </c>
       <c r="J27" s="3">
-        <v>528400</v>
+        <v>503500</v>
       </c>
       <c r="K27" s="3">
         <v>1086300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>201100</v>
+        <v>10300</v>
       </c>
       <c r="E32" s="3">
-        <v>506400</v>
+        <v>482500</v>
       </c>
       <c r="F32" s="3">
-        <v>-498200</v>
+        <v>-474700</v>
       </c>
       <c r="G32" s="3">
-        <v>251800</v>
+        <v>239900</v>
       </c>
       <c r="H32" s="3">
-        <v>-936400</v>
+        <v>-892300</v>
       </c>
       <c r="I32" s="3">
-        <v>160400</v>
+        <v>152800</v>
       </c>
       <c r="J32" s="3">
-        <v>162500</v>
+        <v>154800</v>
       </c>
       <c r="K32" s="3">
         <v>-261600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6756700</v>
+        <v>6438100</v>
       </c>
       <c r="E33" s="3">
-        <v>6360500</v>
+        <v>6060600</v>
       </c>
       <c r="F33" s="3">
-        <v>7282200</v>
+        <v>6938800</v>
       </c>
       <c r="G33" s="3">
-        <v>4197600</v>
+        <v>3999700</v>
       </c>
       <c r="H33" s="3">
-        <v>6606300</v>
+        <v>6294800</v>
       </c>
       <c r="I33" s="3">
-        <v>3538600</v>
+        <v>3371800</v>
       </c>
       <c r="J33" s="3">
-        <v>528400</v>
+        <v>503500</v>
       </c>
       <c r="K33" s="3">
         <v>1086300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6756700</v>
+        <v>6438100</v>
       </c>
       <c r="E35" s="3">
-        <v>6360500</v>
+        <v>6060600</v>
       </c>
       <c r="F35" s="3">
-        <v>7282200</v>
+        <v>6938800</v>
       </c>
       <c r="G35" s="3">
-        <v>4197600</v>
+        <v>3999700</v>
       </c>
       <c r="H35" s="3">
-        <v>6606300</v>
+        <v>6294800</v>
       </c>
       <c r="I35" s="3">
-        <v>3538600</v>
+        <v>3371800</v>
       </c>
       <c r="J35" s="3">
-        <v>528400</v>
+        <v>503500</v>
       </c>
       <c r="K35" s="3">
         <v>1086300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10677300</v>
+        <v>10173800</v>
       </c>
       <c r="E41" s="3">
-        <v>14777900</v>
+        <v>14081000</v>
       </c>
       <c r="F41" s="3">
-        <v>25768300</v>
+        <v>24553100</v>
       </c>
       <c r="G41" s="3">
-        <v>10904100</v>
+        <v>10389900</v>
       </c>
       <c r="H41" s="3">
-        <v>10599200</v>
+        <v>10099400</v>
       </c>
       <c r="I41" s="3">
-        <v>11437400</v>
+        <v>10898100</v>
       </c>
       <c r="J41" s="3">
-        <v>6922600</v>
+        <v>6596200</v>
       </c>
       <c r="K41" s="3">
         <v>7229500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3167400</v>
+        <v>3018000</v>
       </c>
       <c r="E42" s="3">
-        <v>3676900</v>
+        <v>3503500</v>
       </c>
       <c r="F42" s="3">
-        <v>24745500</v>
+        <v>23578500</v>
       </c>
       <c r="G42" s="3">
-        <v>13322400</v>
+        <v>12694200</v>
       </c>
       <c r="H42" s="3">
-        <v>9549900</v>
+        <v>9099600</v>
       </c>
       <c r="I42" s="3">
-        <v>8483300</v>
+        <v>8083200</v>
       </c>
       <c r="J42" s="3">
-        <v>7580900</v>
+        <v>7223400</v>
       </c>
       <c r="K42" s="3">
         <v>6956000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12818900</v>
+        <v>12166400</v>
       </c>
       <c r="E43" s="3">
-        <v>11741600</v>
+        <v>11187900</v>
       </c>
       <c r="F43" s="3">
-        <v>19603200</v>
+        <v>18678700</v>
       </c>
       <c r="G43" s="3">
-        <v>8587300</v>
+        <v>8182300</v>
       </c>
       <c r="H43" s="3">
-        <v>9296700</v>
+        <v>8858300</v>
       </c>
       <c r="I43" s="3">
-        <v>8677100</v>
+        <v>8267900</v>
       </c>
       <c r="J43" s="3">
-        <v>8489400</v>
+        <v>8089000</v>
       </c>
       <c r="K43" s="3">
         <v>7788400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10584600</v>
+        <v>20170900</v>
       </c>
       <c r="E44" s="3">
-        <v>6301600</v>
+        <v>6004400</v>
       </c>
       <c r="F44" s="3">
-        <v>9180800</v>
+        <v>8747800</v>
       </c>
       <c r="G44" s="3">
-        <v>4253700</v>
+        <v>4053100</v>
       </c>
       <c r="H44" s="3">
-        <v>4710100</v>
+        <v>4488000</v>
       </c>
       <c r="I44" s="3">
-        <v>4996100</v>
+        <v>4760500</v>
       </c>
       <c r="J44" s="3">
-        <v>4620400</v>
+        <v>4402500</v>
       </c>
       <c r="K44" s="3">
         <v>5021100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400500</v>
+        <v>3870100</v>
       </c>
       <c r="E45" s="3">
-        <v>3410800</v>
+        <v>3250000</v>
       </c>
       <c r="F45" s="3">
-        <v>6739500</v>
+        <v>6421700</v>
       </c>
       <c r="G45" s="3">
-        <v>4282900</v>
+        <v>4080900</v>
       </c>
       <c r="H45" s="3">
-        <v>3672100</v>
+        <v>3498900</v>
       </c>
       <c r="I45" s="3">
-        <v>3725700</v>
+        <v>3550000</v>
       </c>
       <c r="J45" s="3">
-        <v>3791500</v>
+        <v>3612700</v>
       </c>
       <c r="K45" s="3">
         <v>3850800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>41648700</v>
+        <v>39313800</v>
       </c>
       <c r="E46" s="3">
-        <v>39908800</v>
+        <v>38026900</v>
       </c>
       <c r="F46" s="3">
-        <v>33995300</v>
+        <v>32392200</v>
       </c>
       <c r="G46" s="3">
-        <v>41350400</v>
+        <v>39400400</v>
       </c>
       <c r="H46" s="3">
-        <v>37828100</v>
+        <v>36044200</v>
       </c>
       <c r="I46" s="3">
-        <v>37319700</v>
+        <v>35559800</v>
       </c>
       <c r="J46" s="3">
-        <v>31404800</v>
+        <v>29923800</v>
       </c>
       <c r="K46" s="3">
         <v>30845900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>141340000</v>
+        <v>133246000</v>
       </c>
       <c r="E47" s="3">
-        <v>139945000</v>
+        <v>133346000</v>
       </c>
       <c r="F47" s="3">
-        <v>234191000</v>
+        <v>223147000</v>
       </c>
       <c r="G47" s="3">
-        <v>91813100</v>
+        <v>87483500</v>
       </c>
       <c r="H47" s="3">
-        <v>84534700</v>
+        <v>80548400</v>
       </c>
       <c r="I47" s="3">
-        <v>77551200</v>
+        <v>73894100</v>
       </c>
       <c r="J47" s="3">
-        <v>72906000</v>
+        <v>69468000</v>
       </c>
       <c r="K47" s="3">
         <v>67870500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13143300</v>
+        <v>25047000</v>
       </c>
       <c r="E48" s="3">
-        <v>11007100</v>
+        <v>10488000</v>
       </c>
       <c r="F48" s="3">
-        <v>7852800</v>
+        <v>7482500</v>
       </c>
       <c r="G48" s="3">
-        <v>9382000</v>
+        <v>8939600</v>
       </c>
       <c r="H48" s="3">
-        <v>5602600</v>
+        <v>5338400</v>
       </c>
       <c r="I48" s="3">
-        <v>5331600</v>
+        <v>5080200</v>
       </c>
       <c r="J48" s="3">
-        <v>5466600</v>
+        <v>5208800</v>
       </c>
       <c r="K48" s="3">
         <v>6033000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24520000</v>
+        <v>46727500</v>
       </c>
       <c r="E49" s="3">
-        <v>19791800</v>
+        <v>18858500</v>
       </c>
       <c r="F49" s="3">
-        <v>37799200</v>
+        <v>36016700</v>
       </c>
       <c r="G49" s="3">
-        <v>12186300</v>
+        <v>11611700</v>
       </c>
       <c r="H49" s="3">
-        <v>12159800</v>
+        <v>11586400</v>
       </c>
       <c r="I49" s="3">
-        <v>7625700</v>
+        <v>7266100</v>
       </c>
       <c r="J49" s="3">
-        <v>7979500</v>
+        <v>7603200</v>
       </c>
       <c r="K49" s="3">
         <v>8982000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10365400</v>
+        <v>10602700</v>
       </c>
       <c r="E52" s="3">
-        <v>9114600</v>
+        <v>8684800</v>
       </c>
       <c r="F52" s="3">
-        <v>14966800</v>
+        <v>14261000</v>
       </c>
       <c r="G52" s="3">
-        <v>11381800</v>
+        <v>10845100</v>
       </c>
       <c r="H52" s="3">
-        <v>11152100</v>
+        <v>10626200</v>
       </c>
       <c r="I52" s="3">
-        <v>9634400</v>
+        <v>9180100</v>
       </c>
       <c r="J52" s="3">
-        <v>9575700</v>
+        <v>9124200</v>
       </c>
       <c r="K52" s="3">
         <v>8817900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>231017000</v>
+        <v>214029000</v>
       </c>
       <c r="E54" s="3">
-        <v>219768000</v>
+        <v>209404000</v>
       </c>
       <c r="F54" s="3">
-        <v>198332000</v>
+        <v>188979000</v>
       </c>
       <c r="G54" s="3">
-        <v>166114000</v>
+        <v>158280000</v>
       </c>
       <c r="H54" s="3">
-        <v>151277000</v>
+        <v>144144000</v>
       </c>
       <c r="I54" s="3">
-        <v>137463000</v>
+        <v>130980000</v>
       </c>
       <c r="J54" s="3">
-        <v>127333000</v>
+        <v>121328000</v>
       </c>
       <c r="K54" s="3">
         <v>122549000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13453800</v>
+        <v>12820100</v>
       </c>
       <c r="E57" s="3">
-        <v>13289800</v>
+        <v>12663100</v>
       </c>
       <c r="F57" s="3">
-        <v>28500900</v>
+        <v>27156900</v>
       </c>
       <c r="G57" s="3">
-        <v>14499400</v>
+        <v>13815600</v>
       </c>
       <c r="H57" s="3">
-        <v>15755100</v>
+        <v>15012100</v>
       </c>
       <c r="I57" s="3">
-        <v>14297300</v>
+        <v>13623100</v>
       </c>
       <c r="J57" s="3">
-        <v>13948900</v>
+        <v>13291100</v>
       </c>
       <c r="K57" s="3">
         <v>14097900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15161700</v>
+        <v>14446800</v>
       </c>
       <c r="E58" s="3">
-        <v>15486800</v>
+        <v>14756500</v>
       </c>
       <c r="F58" s="3">
-        <v>11095100</v>
+        <v>10571900</v>
       </c>
       <c r="G58" s="3">
-        <v>6056300</v>
+        <v>5770700</v>
       </c>
       <c r="H58" s="3">
-        <v>5703700</v>
+        <v>5434700</v>
       </c>
       <c r="I58" s="3">
-        <v>5202800</v>
+        <v>4957500</v>
       </c>
       <c r="J58" s="3">
-        <v>3735300</v>
+        <v>3559200</v>
       </c>
       <c r="K58" s="3">
         <v>2476500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38501900</v>
+        <v>36750600</v>
       </c>
       <c r="E59" s="3">
-        <v>34384100</v>
+        <v>32762700</v>
       </c>
       <c r="F59" s="3">
-        <v>41208500</v>
+        <v>39265200</v>
       </c>
       <c r="G59" s="3">
-        <v>24438000</v>
+        <v>23285500</v>
       </c>
       <c r="H59" s="3">
-        <v>22376700</v>
+        <v>21321500</v>
       </c>
       <c r="I59" s="3">
-        <v>21023900</v>
+        <v>20032500</v>
       </c>
       <c r="J59" s="3">
-        <v>19964500</v>
+        <v>19023000</v>
       </c>
       <c r="K59" s="3">
         <v>18931600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67117400</v>
+        <v>64017500</v>
       </c>
       <c r="E60" s="3">
-        <v>63160700</v>
+        <v>60182200</v>
       </c>
       <c r="F60" s="3">
-        <v>53019500</v>
+        <v>50519300</v>
       </c>
       <c r="G60" s="3">
-        <v>44993600</v>
+        <v>42871800</v>
       </c>
       <c r="H60" s="3">
-        <v>43835500</v>
+        <v>41768300</v>
       </c>
       <c r="I60" s="3">
-        <v>40524100</v>
+        <v>38613100</v>
       </c>
       <c r="J60" s="3">
-        <v>37648700</v>
+        <v>35873300</v>
       </c>
       <c r="K60" s="3">
         <v>35506000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12745100</v>
+        <v>12144100</v>
       </c>
       <c r="E61" s="3">
-        <v>8678300</v>
+        <v>8269000</v>
       </c>
       <c r="F61" s="3">
-        <v>7596700</v>
+        <v>7238500</v>
       </c>
       <c r="G61" s="3">
-        <v>4578100</v>
+        <v>4362200</v>
       </c>
       <c r="H61" s="3">
-        <v>4098000</v>
+        <v>3904700</v>
       </c>
       <c r="I61" s="3">
-        <v>4495100</v>
+        <v>4283100</v>
       </c>
       <c r="J61" s="3">
-        <v>4913300</v>
+        <v>4681600</v>
       </c>
       <c r="K61" s="3">
         <v>4091000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>98605900</v>
+        <v>177410000</v>
       </c>
       <c r="E62" s="3">
-        <v>96036600</v>
+        <v>91507900</v>
       </c>
       <c r="F62" s="3">
-        <v>97924000</v>
+        <v>93306200</v>
       </c>
       <c r="G62" s="3">
-        <v>81953400</v>
+        <v>78088800</v>
       </c>
       <c r="H62" s="3">
-        <v>71291800</v>
+        <v>67929900</v>
       </c>
       <c r="I62" s="3">
-        <v>66080900</v>
+        <v>62964800</v>
       </c>
       <c r="J62" s="3">
-        <v>62077200</v>
+        <v>59149800</v>
       </c>
       <c r="K62" s="3">
         <v>59933000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>178891000</v>
+        <v>168697000</v>
       </c>
       <c r="E66" s="3">
-        <v>168256000</v>
+        <v>160322000</v>
       </c>
       <c r="F66" s="3">
-        <v>150166000</v>
+        <v>143085000</v>
       </c>
       <c r="G66" s="3">
-        <v>136370000</v>
+        <v>129939000</v>
       </c>
       <c r="H66" s="3">
-        <v>124266000</v>
+        <v>118406000</v>
       </c>
       <c r="I66" s="3">
-        <v>116068000</v>
+        <v>110594000</v>
       </c>
       <c r="J66" s="3">
-        <v>109328000</v>
+        <v>104172000</v>
       </c>
       <c r="K66" s="3">
         <v>104444000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33271500</v>
+        <v>34985100</v>
       </c>
       <c r="E72" s="3">
-        <v>27115100</v>
+        <v>25836400</v>
       </c>
       <c r="F72" s="3">
-        <v>21013600</v>
+        <v>20022600</v>
       </c>
       <c r="G72" s="3">
-        <v>19963500</v>
+        <v>19022000</v>
       </c>
       <c r="H72" s="3">
-        <v>16731400</v>
+        <v>15942400</v>
       </c>
       <c r="I72" s="3">
-        <v>10385200</v>
+        <v>9895500</v>
       </c>
       <c r="J72" s="3">
-        <v>7097300</v>
+        <v>6762600</v>
       </c>
       <c r="K72" s="3">
         <v>6882000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52126200</v>
+        <v>45331900</v>
       </c>
       <c r="E76" s="3">
-        <v>51511600</v>
+        <v>49082500</v>
       </c>
       <c r="F76" s="3">
-        <v>48165300</v>
+        <v>45894000</v>
       </c>
       <c r="G76" s="3">
-        <v>29743500</v>
+        <v>28340900</v>
       </c>
       <c r="H76" s="3">
-        <v>27011400</v>
+        <v>25737600</v>
       </c>
       <c r="I76" s="3">
-        <v>21394700</v>
+        <v>20385800</v>
       </c>
       <c r="J76" s="3">
-        <v>18005100</v>
+        <v>17156100</v>
       </c>
       <c r="K76" s="3">
         <v>18105500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6756700</v>
+        <v>6438100</v>
       </c>
       <c r="E81" s="3">
-        <v>6360500</v>
+        <v>6060600</v>
       </c>
       <c r="F81" s="3">
-        <v>7282200</v>
+        <v>6938800</v>
       </c>
       <c r="G81" s="3">
-        <v>4197600</v>
+        <v>3999700</v>
       </c>
       <c r="H81" s="3">
-        <v>6606300</v>
+        <v>6294800</v>
       </c>
       <c r="I81" s="3">
-        <v>3538600</v>
+        <v>3371800</v>
       </c>
       <c r="J81" s="3">
-        <v>528400</v>
+        <v>503500</v>
       </c>
       <c r="K81" s="3">
         <v>1086300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7243100</v>
+        <v>6901500</v>
       </c>
       <c r="E83" s="3">
-        <v>6022000</v>
+        <v>5738100</v>
       </c>
       <c r="F83" s="3">
-        <v>4956000</v>
+        <v>4722300</v>
       </c>
       <c r="G83" s="3">
-        <v>3004000</v>
+        <v>2862300</v>
       </c>
       <c r="H83" s="3">
-        <v>2696700</v>
+        <v>2569600</v>
       </c>
       <c r="I83" s="3">
-        <v>2606000</v>
+        <v>2483100</v>
       </c>
       <c r="J83" s="3">
-        <v>2358000</v>
+        <v>2246800</v>
       </c>
       <c r="K83" s="3">
         <v>2918600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2268900</v>
+        <v>2161900</v>
       </c>
       <c r="E89" s="3">
-        <v>8894600</v>
+        <v>8475100</v>
       </c>
       <c r="F89" s="3">
-        <v>8221000</v>
+        <v>7833300</v>
       </c>
       <c r="G89" s="3">
-        <v>9710500</v>
+        <v>9252600</v>
       </c>
       <c r="H89" s="3">
-        <v>9048500</v>
+        <v>8621800</v>
       </c>
       <c r="I89" s="3">
-        <v>8993500</v>
+        <v>8569400</v>
       </c>
       <c r="J89" s="3">
-        <v>5834800</v>
+        <v>5559600</v>
       </c>
       <c r="K89" s="3">
         <v>5505800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4424300</v>
+        <v>-4215700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3180300</v>
+        <v>-3030300</v>
       </c>
       <c r="F91" s="3">
-        <v>-7139100</v>
+        <v>-6802500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3170700</v>
+        <v>-3021200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2254200</v>
+        <v>-2147900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1896200</v>
+        <v>-1806700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2404600</v>
+        <v>-2291200</v>
       </c>
       <c r="K91" s="3">
         <v>-2759300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7589700</v>
+        <v>-7231800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5254500</v>
+        <v>-5006700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4065800</v>
+        <v>-3874100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9749900</v>
+        <v>-9290100</v>
       </c>
       <c r="H94" s="3">
-        <v>-9426700</v>
+        <v>-8982100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5934300</v>
+        <v>-5654500</v>
       </c>
       <c r="J94" s="3">
-        <v>-9041100</v>
+        <v>-8614800</v>
       </c>
       <c r="K94" s="3">
         <v>-7573500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-624200</v>
+        <v>-594700</v>
       </c>
       <c r="E96" s="3">
-        <v>-536000</v>
+        <v>-510700</v>
       </c>
       <c r="F96" s="3">
-        <v>-441900</v>
+        <v>-421000</v>
       </c>
       <c r="G96" s="3">
-        <v>-357400</v>
+        <v>-340600</v>
       </c>
       <c r="H96" s="3">
-        <v>-274500</v>
+        <v>-261500</v>
       </c>
       <c r="I96" s="3">
-        <v>-205400</v>
+        <v>-195700</v>
       </c>
       <c r="J96" s="3">
-        <v>-182400</v>
+        <v>-173800</v>
       </c>
       <c r="K96" s="3">
         <v>-93700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>607800</v>
+        <v>579100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2426700</v>
+        <v>-2312300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2440800</v>
+        <v>-2325700</v>
       </c>
       <c r="G100" s="3">
-        <v>473400</v>
+        <v>451100</v>
       </c>
       <c r="H100" s="3">
-        <v>-886000</v>
+        <v>-844200</v>
       </c>
       <c r="I100" s="3">
-        <v>1776900</v>
+        <v>1693200</v>
       </c>
       <c r="J100" s="3">
-        <v>3261100</v>
+        <v>3107300</v>
       </c>
       <c r="K100" s="3">
         <v>2793900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>612400</v>
+        <v>583500</v>
       </c>
       <c r="E101" s="3">
-        <v>680400</v>
+        <v>648300</v>
       </c>
       <c r="F101" s="3">
-        <v>264500</v>
+        <v>252000</v>
       </c>
       <c r="G101" s="3">
-        <v>-156000</v>
+        <v>-148700</v>
       </c>
       <c r="H101" s="3">
-        <v>378300</v>
+        <v>360400</v>
       </c>
       <c r="I101" s="3">
-        <v>-382400</v>
+        <v>-364400</v>
       </c>
       <c r="J101" s="3">
-        <v>-223900</v>
+        <v>-213400</v>
       </c>
       <c r="K101" s="3">
         <v>-474900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4100600</v>
+        <v>-3907200</v>
       </c>
       <c r="E102" s="3">
-        <v>1893700</v>
+        <v>1804400</v>
       </c>
       <c r="F102" s="3">
-        <v>1978800</v>
+        <v>1885500</v>
       </c>
       <c r="G102" s="3">
-        <v>277900</v>
+        <v>264800</v>
       </c>
       <c r="H102" s="3">
-        <v>-885900</v>
+        <v>-844100</v>
       </c>
       <c r="I102" s="3">
-        <v>4453700</v>
+        <v>4243600</v>
       </c>
       <c r="J102" s="3">
-        <v>-169200</v>
+        <v>-161200</v>
       </c>
       <c r="K102" s="3">
         <v>251400</v>

--- a/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SONY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79278700</v>
+        <v>76624500</v>
       </c>
       <c r="E8" s="3">
-        <v>68160800</v>
+        <v>65878800</v>
       </c>
       <c r="F8" s="3">
-        <v>61820800</v>
+        <v>59751100</v>
       </c>
       <c r="G8" s="3">
-        <v>56745400</v>
+        <v>54845600</v>
       </c>
       <c r="H8" s="3">
-        <v>59533300</v>
+        <v>57540200</v>
       </c>
       <c r="I8" s="3">
-        <v>58697200</v>
+        <v>56732000</v>
       </c>
       <c r="J8" s="3">
-        <v>52234300</v>
+        <v>50485600</v>
       </c>
       <c r="K8" s="3">
         <v>59577000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57700700</v>
+        <v>55768900</v>
       </c>
       <c r="E9" s="3">
-        <v>49600300</v>
+        <v>47939700</v>
       </c>
       <c r="F9" s="3">
-        <v>76359900</v>
+        <v>73803400</v>
       </c>
       <c r="G9" s="3">
-        <v>37275000</v>
+        <v>36027000</v>
       </c>
       <c r="H9" s="3">
-        <v>39722300</v>
+        <v>38392400</v>
       </c>
       <c r="I9" s="3">
-        <v>39653000</v>
+        <v>38325400</v>
       </c>
       <c r="J9" s="3">
-        <v>35831800</v>
+        <v>34632200</v>
       </c>
       <c r="K9" s="3">
         <v>41207500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21578000</v>
+        <v>20855600</v>
       </c>
       <c r="E10" s="3">
-        <v>18560500</v>
+        <v>17939100</v>
       </c>
       <c r="F10" s="3">
-        <v>-14539100</v>
+        <v>-14052300</v>
       </c>
       <c r="G10" s="3">
-        <v>19470400</v>
+        <v>18818600</v>
       </c>
       <c r="H10" s="3">
-        <v>19811000</v>
+        <v>19147700</v>
       </c>
       <c r="I10" s="3">
-        <v>19044200</v>
+        <v>18406600</v>
       </c>
       <c r="J10" s="3">
-        <v>16402500</v>
+        <v>15853300</v>
       </c>
       <c r="K10" s="3">
         <v>18369400</v>
@@ -837,19 +837,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>3608000</v>
+        <v>3487200</v>
       </c>
       <c r="G12" s="3">
-        <v>3430100</v>
+        <v>3315300</v>
       </c>
       <c r="H12" s="3">
-        <v>3305900</v>
+        <v>3195200</v>
       </c>
       <c r="I12" s="3">
-        <v>3150000</v>
+        <v>3044600</v>
       </c>
       <c r="J12" s="3">
-        <v>3074000</v>
+        <v>2971100</v>
       </c>
       <c r="K12" s="3">
         <v>3441100</v>
@@ -903,19 +903,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>163700</v>
+        <v>158300</v>
       </c>
       <c r="G14" s="3">
-        <v>204600</v>
+        <v>197700</v>
       </c>
       <c r="H14" s="3">
-        <v>322400</v>
+        <v>311600</v>
       </c>
       <c r="I14" s="3">
-        <v>265200</v>
+        <v>256300</v>
       </c>
       <c r="J14" s="3">
-        <v>769900</v>
+        <v>744100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70978300</v>
+        <v>68602000</v>
       </c>
       <c r="E17" s="3">
-        <v>59900700</v>
+        <v>57895300</v>
       </c>
       <c r="F17" s="3">
-        <v>55258200</v>
+        <v>53408200</v>
       </c>
       <c r="G17" s="3">
-        <v>50937100</v>
+        <v>49231800</v>
       </c>
       <c r="H17" s="3">
-        <v>53389900</v>
+        <v>51602400</v>
       </c>
       <c r="I17" s="3">
-        <v>53648700</v>
+        <v>51852600</v>
       </c>
       <c r="J17" s="3">
-        <v>50250900</v>
+        <v>48568600</v>
       </c>
       <c r="K17" s="3">
         <v>57414600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8300400</v>
+        <v>8022500</v>
       </c>
       <c r="E18" s="3">
-        <v>8260100</v>
+        <v>7983500</v>
       </c>
       <c r="F18" s="3">
-        <v>6562600</v>
+        <v>6342900</v>
       </c>
       <c r="G18" s="3">
-        <v>5808300</v>
+        <v>5613800</v>
       </c>
       <c r="H18" s="3">
-        <v>6143400</v>
+        <v>5937700</v>
       </c>
       <c r="I18" s="3">
-        <v>5048500</v>
+        <v>4879500</v>
       </c>
       <c r="J18" s="3">
-        <v>1983400</v>
+        <v>1917000</v>
       </c>
       <c r="K18" s="3">
         <v>2162300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10300</v>
+        <v>-9900</v>
       </c>
       <c r="E20" s="3">
-        <v>-482500</v>
+        <v>-466400</v>
       </c>
       <c r="F20" s="3">
-        <v>474700</v>
+        <v>458800</v>
       </c>
       <c r="G20" s="3">
-        <v>-239900</v>
+        <v>-231900</v>
       </c>
       <c r="H20" s="3">
-        <v>892300</v>
+        <v>862400</v>
       </c>
       <c r="I20" s="3">
-        <v>-152800</v>
+        <v>-147700</v>
       </c>
       <c r="J20" s="3">
-        <v>-154800</v>
+        <v>-149700</v>
       </c>
       <c r="K20" s="3">
         <v>261600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15191600</v>
+        <v>14652900</v>
       </c>
       <c r="E21" s="3">
-        <v>13515600</v>
+        <v>13038100</v>
       </c>
       <c r="F21" s="3">
-        <v>11759600</v>
+        <v>11345300</v>
       </c>
       <c r="G21" s="3">
-        <v>8430700</v>
+        <v>8136000</v>
       </c>
       <c r="H21" s="3">
-        <v>9605200</v>
+        <v>9272400</v>
       </c>
       <c r="I21" s="3">
-        <v>7378800</v>
+        <v>7120900</v>
       </c>
       <c r="J21" s="3">
-        <v>4075400</v>
+        <v>3929100</v>
       </c>
       <c r="K21" s="3">
         <v>5314800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>181400</v>
+        <v>175300</v>
       </c>
       <c r="E22" s="3">
-        <v>100300</v>
+        <v>96900</v>
       </c>
       <c r="F22" s="3">
-        <v>181300</v>
+        <v>175200</v>
       </c>
       <c r="G22" s="3">
-        <v>76200</v>
+        <v>73600</v>
       </c>
       <c r="H22" s="3">
-        <v>85600</v>
+        <v>82800</v>
       </c>
       <c r="I22" s="3">
-        <v>93200</v>
+        <v>90100</v>
       </c>
       <c r="J22" s="3">
-        <v>99900</v>
+        <v>96600</v>
       </c>
       <c r="K22" s="3">
         <v>185900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8108800</v>
+        <v>7837300</v>
       </c>
       <c r="E23" s="3">
-        <v>7677200</v>
+        <v>7420200</v>
       </c>
       <c r="F23" s="3">
-        <v>6856000</v>
+        <v>6626500</v>
       </c>
       <c r="G23" s="3">
-        <v>5492200</v>
+        <v>5308300</v>
       </c>
       <c r="H23" s="3">
-        <v>6950000</v>
+        <v>6717300</v>
       </c>
       <c r="I23" s="3">
-        <v>4802500</v>
+        <v>4641700</v>
       </c>
       <c r="J23" s="3">
-        <v>1728600</v>
+        <v>1670800</v>
       </c>
       <c r="K23" s="3">
         <v>2238100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1626100</v>
+        <v>1571600</v>
       </c>
       <c r="E24" s="3">
-        <v>1573900</v>
+        <v>1521200</v>
       </c>
       <c r="F24" s="3">
-        <v>-315500</v>
+        <v>-305000</v>
       </c>
       <c r="G24" s="3">
-        <v>1217300</v>
+        <v>1176500</v>
       </c>
       <c r="H24" s="3">
-        <v>309800</v>
+        <v>299500</v>
       </c>
       <c r="I24" s="3">
-        <v>1042700</v>
+        <v>1007800</v>
       </c>
       <c r="J24" s="3">
-        <v>852300</v>
+        <v>823700</v>
       </c>
       <c r="K24" s="3">
         <v>696700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6482700</v>
+        <v>6265700</v>
       </c>
       <c r="E26" s="3">
-        <v>6103300</v>
+        <v>5899000</v>
       </c>
       <c r="F26" s="3">
-        <v>7171600</v>
+        <v>6931500</v>
       </c>
       <c r="G26" s="3">
-        <v>4274900</v>
+        <v>4131800</v>
       </c>
       <c r="H26" s="3">
-        <v>6640200</v>
+        <v>6417900</v>
       </c>
       <c r="I26" s="3">
-        <v>3759800</v>
+        <v>3633900</v>
       </c>
       <c r="J26" s="3">
-        <v>876300</v>
+        <v>847000</v>
       </c>
       <c r="K26" s="3">
         <v>1541400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6438100</v>
+        <v>6222500</v>
       </c>
       <c r="E27" s="3">
-        <v>6060600</v>
+        <v>5857700</v>
       </c>
       <c r="F27" s="3">
-        <v>6938800</v>
+        <v>6706500</v>
       </c>
       <c r="G27" s="3">
-        <v>3999700</v>
+        <v>3865700</v>
       </c>
       <c r="H27" s="3">
-        <v>6294800</v>
+        <v>6084000</v>
       </c>
       <c r="I27" s="3">
-        <v>3371800</v>
+        <v>3258900</v>
       </c>
       <c r="J27" s="3">
-        <v>503500</v>
+        <v>486600</v>
       </c>
       <c r="K27" s="3">
         <v>1086300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="E32" s="3">
-        <v>482500</v>
+        <v>466400</v>
       </c>
       <c r="F32" s="3">
-        <v>-474700</v>
+        <v>-458800</v>
       </c>
       <c r="G32" s="3">
-        <v>239900</v>
+        <v>231900</v>
       </c>
       <c r="H32" s="3">
-        <v>-892300</v>
+        <v>-862400</v>
       </c>
       <c r="I32" s="3">
-        <v>152800</v>
+        <v>147700</v>
       </c>
       <c r="J32" s="3">
-        <v>154800</v>
+        <v>149700</v>
       </c>
       <c r="K32" s="3">
         <v>-261600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6438100</v>
+        <v>6222500</v>
       </c>
       <c r="E33" s="3">
-        <v>6060600</v>
+        <v>5857700</v>
       </c>
       <c r="F33" s="3">
-        <v>6938800</v>
+        <v>6706500</v>
       </c>
       <c r="G33" s="3">
-        <v>3999700</v>
+        <v>3865700</v>
       </c>
       <c r="H33" s="3">
-        <v>6294800</v>
+        <v>6084000</v>
       </c>
       <c r="I33" s="3">
-        <v>3371800</v>
+        <v>3258900</v>
       </c>
       <c r="J33" s="3">
-        <v>503500</v>
+        <v>486600</v>
       </c>
       <c r="K33" s="3">
         <v>1086300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6438100</v>
+        <v>6222500</v>
       </c>
       <c r="E35" s="3">
-        <v>6060600</v>
+        <v>5857700</v>
       </c>
       <c r="F35" s="3">
-        <v>6938800</v>
+        <v>6706500</v>
       </c>
       <c r="G35" s="3">
-        <v>3999700</v>
+        <v>3865700</v>
       </c>
       <c r="H35" s="3">
-        <v>6294800</v>
+        <v>6084000</v>
       </c>
       <c r="I35" s="3">
-        <v>3371800</v>
+        <v>3258900</v>
       </c>
       <c r="J35" s="3">
-        <v>503500</v>
+        <v>486600</v>
       </c>
       <c r="K35" s="3">
         <v>1086300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10173800</v>
+        <v>9833200</v>
       </c>
       <c r="E41" s="3">
-        <v>14081000</v>
+        <v>13609600</v>
       </c>
       <c r="F41" s="3">
-        <v>24553100</v>
+        <v>23731100</v>
       </c>
       <c r="G41" s="3">
-        <v>10389900</v>
+        <v>10042100</v>
       </c>
       <c r="H41" s="3">
-        <v>10099400</v>
+        <v>9761300</v>
       </c>
       <c r="I41" s="3">
-        <v>10898100</v>
+        <v>10533200</v>
       </c>
       <c r="J41" s="3">
-        <v>6596200</v>
+        <v>6375300</v>
       </c>
       <c r="K41" s="3">
         <v>7229500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3018000</v>
+        <v>2917000</v>
       </c>
       <c r="E42" s="3">
-        <v>3503500</v>
+        <v>3386200</v>
       </c>
       <c r="F42" s="3">
-        <v>23578500</v>
+        <v>22789200</v>
       </c>
       <c r="G42" s="3">
-        <v>12694200</v>
+        <v>12269200</v>
       </c>
       <c r="H42" s="3">
-        <v>9099600</v>
+        <v>8794900</v>
       </c>
       <c r="I42" s="3">
-        <v>8083200</v>
+        <v>7812600</v>
       </c>
       <c r="J42" s="3">
-        <v>7223400</v>
+        <v>6981600</v>
       </c>
       <c r="K42" s="3">
         <v>6956000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12166400</v>
+        <v>11759100</v>
       </c>
       <c r="E43" s="3">
-        <v>11187900</v>
+        <v>10813400</v>
       </c>
       <c r="F43" s="3">
-        <v>18678700</v>
+        <v>18053400</v>
       </c>
       <c r="G43" s="3">
-        <v>8182300</v>
+        <v>7908400</v>
       </c>
       <c r="H43" s="3">
-        <v>8858300</v>
+        <v>8561800</v>
       </c>
       <c r="I43" s="3">
-        <v>8267900</v>
+        <v>7991100</v>
       </c>
       <c r="J43" s="3">
-        <v>8089000</v>
+        <v>7818200</v>
       </c>
       <c r="K43" s="3">
         <v>7788400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20170900</v>
+        <v>19495600</v>
       </c>
       <c r="E44" s="3">
-        <v>6004400</v>
+        <v>5803400</v>
       </c>
       <c r="F44" s="3">
-        <v>8747800</v>
+        <v>8455000</v>
       </c>
       <c r="G44" s="3">
-        <v>4053100</v>
+        <v>3917400</v>
       </c>
       <c r="H44" s="3">
-        <v>4488000</v>
+        <v>4337800</v>
       </c>
       <c r="I44" s="3">
-        <v>4760500</v>
+        <v>4601100</v>
       </c>
       <c r="J44" s="3">
-        <v>4402500</v>
+        <v>4255100</v>
       </c>
       <c r="K44" s="3">
         <v>5021100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3870100</v>
+        <v>3740500</v>
       </c>
       <c r="E45" s="3">
-        <v>3250000</v>
+        <v>3141200</v>
       </c>
       <c r="F45" s="3">
-        <v>6421700</v>
+        <v>6206700</v>
       </c>
       <c r="G45" s="3">
-        <v>4080900</v>
+        <v>3944300</v>
       </c>
       <c r="H45" s="3">
-        <v>3498900</v>
+        <v>3381800</v>
       </c>
       <c r="I45" s="3">
-        <v>3550000</v>
+        <v>3431200</v>
       </c>
       <c r="J45" s="3">
-        <v>3612700</v>
+        <v>3491700</v>
       </c>
       <c r="K45" s="3">
         <v>3850800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39313800</v>
+        <v>37997600</v>
       </c>
       <c r="E46" s="3">
-        <v>38026900</v>
+        <v>36753800</v>
       </c>
       <c r="F46" s="3">
-        <v>32392200</v>
+        <v>31307700</v>
       </c>
       <c r="G46" s="3">
-        <v>39400400</v>
+        <v>38081400</v>
       </c>
       <c r="H46" s="3">
-        <v>36044200</v>
+        <v>34837500</v>
       </c>
       <c r="I46" s="3">
-        <v>35559800</v>
+        <v>34369300</v>
       </c>
       <c r="J46" s="3">
-        <v>29923800</v>
+        <v>28922000</v>
       </c>
       <c r="K46" s="3">
         <v>30845900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>133246000</v>
+        <v>128785000</v>
       </c>
       <c r="E47" s="3">
-        <v>133346000</v>
+        <v>128882000</v>
       </c>
       <c r="F47" s="3">
-        <v>223147000</v>
+        <v>215676000</v>
       </c>
       <c r="G47" s="3">
-        <v>87483500</v>
+        <v>84554600</v>
       </c>
       <c r="H47" s="3">
-        <v>80548400</v>
+        <v>77851700</v>
       </c>
       <c r="I47" s="3">
-        <v>73894100</v>
+        <v>71420200</v>
       </c>
       <c r="J47" s="3">
-        <v>69468000</v>
+        <v>67142300</v>
       </c>
       <c r="K47" s="3">
         <v>67870500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25047000</v>
+        <v>24208500</v>
       </c>
       <c r="E48" s="3">
-        <v>10488000</v>
+        <v>10136900</v>
       </c>
       <c r="F48" s="3">
-        <v>7482500</v>
+        <v>7231900</v>
       </c>
       <c r="G48" s="3">
-        <v>8939600</v>
+        <v>8640300</v>
       </c>
       <c r="H48" s="3">
-        <v>5338400</v>
+        <v>5159600</v>
       </c>
       <c r="I48" s="3">
-        <v>5080200</v>
+        <v>4910100</v>
       </c>
       <c r="J48" s="3">
-        <v>5208800</v>
+        <v>5034400</v>
       </c>
       <c r="K48" s="3">
         <v>6033000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46727500</v>
+        <v>45163100</v>
       </c>
       <c r="E49" s="3">
-        <v>18858500</v>
+        <v>18227100</v>
       </c>
       <c r="F49" s="3">
-        <v>36016700</v>
+        <v>34810900</v>
       </c>
       <c r="G49" s="3">
-        <v>11611700</v>
+        <v>11222900</v>
       </c>
       <c r="H49" s="3">
-        <v>11586400</v>
+        <v>11198500</v>
       </c>
       <c r="I49" s="3">
-        <v>7266100</v>
+        <v>7022900</v>
       </c>
       <c r="J49" s="3">
-        <v>7603200</v>
+        <v>7348600</v>
       </c>
       <c r="K49" s="3">
         <v>8982000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10602700</v>
+        <v>10247800</v>
       </c>
       <c r="E52" s="3">
-        <v>8684800</v>
+        <v>8394100</v>
       </c>
       <c r="F52" s="3">
-        <v>14261000</v>
+        <v>13783600</v>
       </c>
       <c r="G52" s="3">
-        <v>10845100</v>
+        <v>10482000</v>
       </c>
       <c r="H52" s="3">
-        <v>10626200</v>
+        <v>10270400</v>
       </c>
       <c r="I52" s="3">
-        <v>9180100</v>
+        <v>8872700</v>
       </c>
       <c r="J52" s="3">
-        <v>9124200</v>
+        <v>8818700</v>
       </c>
       <c r="K52" s="3">
         <v>8817900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>214029000</v>
+        <v>206863000</v>
       </c>
       <c r="E54" s="3">
-        <v>209404000</v>
+        <v>202394000</v>
       </c>
       <c r="F54" s="3">
-        <v>188979000</v>
+        <v>182652000</v>
       </c>
       <c r="G54" s="3">
-        <v>158280000</v>
+        <v>152981000</v>
       </c>
       <c r="H54" s="3">
-        <v>144144000</v>
+        <v>139318000</v>
       </c>
       <c r="I54" s="3">
-        <v>130980000</v>
+        <v>126595000</v>
       </c>
       <c r="J54" s="3">
-        <v>121328000</v>
+        <v>117266000</v>
       </c>
       <c r="K54" s="3">
         <v>122549000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12820100</v>
+        <v>12390900</v>
       </c>
       <c r="E57" s="3">
-        <v>12663100</v>
+        <v>12239100</v>
       </c>
       <c r="F57" s="3">
-        <v>27156900</v>
+        <v>26247700</v>
       </c>
       <c r="G57" s="3">
-        <v>13815600</v>
+        <v>13353100</v>
       </c>
       <c r="H57" s="3">
-        <v>15012100</v>
+        <v>14509500</v>
       </c>
       <c r="I57" s="3">
-        <v>13623100</v>
+        <v>13167000</v>
       </c>
       <c r="J57" s="3">
-        <v>13291100</v>
+        <v>12846100</v>
       </c>
       <c r="K57" s="3">
         <v>14097900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14446800</v>
+        <v>13963100</v>
       </c>
       <c r="E58" s="3">
-        <v>14756500</v>
+        <v>14262500</v>
       </c>
       <c r="F58" s="3">
-        <v>10571900</v>
+        <v>10218000</v>
       </c>
       <c r="G58" s="3">
-        <v>5770700</v>
+        <v>5577500</v>
       </c>
       <c r="H58" s="3">
-        <v>5434700</v>
+        <v>5252800</v>
       </c>
       <c r="I58" s="3">
-        <v>4957500</v>
+        <v>4791500</v>
       </c>
       <c r="J58" s="3">
-        <v>3559200</v>
+        <v>3440000</v>
       </c>
       <c r="K58" s="3">
         <v>2476500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36750600</v>
+        <v>35520200</v>
       </c>
       <c r="E59" s="3">
-        <v>32762700</v>
+        <v>31665800</v>
       </c>
       <c r="F59" s="3">
-        <v>39265200</v>
+        <v>37950600</v>
       </c>
       <c r="G59" s="3">
-        <v>23285500</v>
+        <v>22506000</v>
       </c>
       <c r="H59" s="3">
-        <v>21321500</v>
+        <v>20607700</v>
       </c>
       <c r="I59" s="3">
-        <v>20032500</v>
+        <v>19361900</v>
       </c>
       <c r="J59" s="3">
-        <v>19023000</v>
+        <v>18386200</v>
       </c>
       <c r="K59" s="3">
         <v>18931600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64017500</v>
+        <v>61874200</v>
       </c>
       <c r="E60" s="3">
-        <v>60182200</v>
+        <v>58167400</v>
       </c>
       <c r="F60" s="3">
-        <v>50519300</v>
+        <v>48827900</v>
       </c>
       <c r="G60" s="3">
-        <v>42871800</v>
+        <v>41436500</v>
       </c>
       <c r="H60" s="3">
-        <v>41768300</v>
+        <v>40370000</v>
       </c>
       <c r="I60" s="3">
-        <v>38613100</v>
+        <v>37320400</v>
       </c>
       <c r="J60" s="3">
-        <v>35873300</v>
+        <v>34672300</v>
       </c>
       <c r="K60" s="3">
         <v>35506000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12144100</v>
+        <v>11737500</v>
       </c>
       <c r="E61" s="3">
-        <v>8269000</v>
+        <v>7992200</v>
       </c>
       <c r="F61" s="3">
-        <v>7238500</v>
+        <v>6996100</v>
       </c>
       <c r="G61" s="3">
-        <v>4362200</v>
+        <v>4216200</v>
       </c>
       <c r="H61" s="3">
-        <v>3904700</v>
+        <v>3774000</v>
       </c>
       <c r="I61" s="3">
-        <v>4283100</v>
+        <v>4139700</v>
       </c>
       <c r="J61" s="3">
-        <v>4681600</v>
+        <v>4524900</v>
       </c>
       <c r="K61" s="3">
         <v>4091000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>177410000</v>
+        <v>171470000</v>
       </c>
       <c r="E62" s="3">
-        <v>91507900</v>
+        <v>88444300</v>
       </c>
       <c r="F62" s="3">
-        <v>93306200</v>
+        <v>90182400</v>
       </c>
       <c r="G62" s="3">
-        <v>78088800</v>
+        <v>75474400</v>
       </c>
       <c r="H62" s="3">
-        <v>67929900</v>
+        <v>65655700</v>
       </c>
       <c r="I62" s="3">
-        <v>62964800</v>
+        <v>60856800</v>
       </c>
       <c r="J62" s="3">
-        <v>59149800</v>
+        <v>57169600</v>
       </c>
       <c r="K62" s="3">
         <v>59933000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>168697000</v>
+        <v>163049000</v>
       </c>
       <c r="E66" s="3">
-        <v>160322000</v>
+        <v>154954000</v>
       </c>
       <c r="F66" s="3">
-        <v>143085000</v>
+        <v>138295000</v>
       </c>
       <c r="G66" s="3">
-        <v>129939000</v>
+        <v>125589000</v>
       </c>
       <c r="H66" s="3">
-        <v>118406000</v>
+        <v>114442000</v>
       </c>
       <c r="I66" s="3">
-        <v>110594000</v>
+        <v>106892000</v>
       </c>
       <c r="J66" s="3">
-        <v>104172000</v>
+        <v>100684000</v>
       </c>
       <c r="K66" s="3">
         <v>104444000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34985100</v>
+        <v>33813800</v>
       </c>
       <c r="E72" s="3">
-        <v>25836400</v>
+        <v>24971500</v>
       </c>
       <c r="F72" s="3">
-        <v>20022600</v>
+        <v>19352300</v>
       </c>
       <c r="G72" s="3">
-        <v>19022000</v>
+        <v>18385200</v>
       </c>
       <c r="H72" s="3">
-        <v>15942400</v>
+        <v>15408700</v>
       </c>
       <c r="I72" s="3">
-        <v>9895500</v>
+        <v>9564200</v>
       </c>
       <c r="J72" s="3">
-        <v>6762600</v>
+        <v>6536200</v>
       </c>
       <c r="K72" s="3">
         <v>6882000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45331900</v>
+        <v>43814300</v>
       </c>
       <c r="E76" s="3">
-        <v>49082500</v>
+        <v>47439300</v>
       </c>
       <c r="F76" s="3">
-        <v>45894000</v>
+        <v>44357500</v>
       </c>
       <c r="G76" s="3">
-        <v>28340900</v>
+        <v>27392000</v>
       </c>
       <c r="H76" s="3">
-        <v>25737600</v>
+        <v>24875900</v>
       </c>
       <c r="I76" s="3">
-        <v>20385800</v>
+        <v>19703300</v>
       </c>
       <c r="J76" s="3">
-        <v>17156100</v>
+        <v>16581700</v>
       </c>
       <c r="K76" s="3">
         <v>18105500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6438100</v>
+        <v>6222500</v>
       </c>
       <c r="E81" s="3">
-        <v>6060600</v>
+        <v>5857700</v>
       </c>
       <c r="F81" s="3">
-        <v>6938800</v>
+        <v>6706500</v>
       </c>
       <c r="G81" s="3">
-        <v>3999700</v>
+        <v>3865700</v>
       </c>
       <c r="H81" s="3">
-        <v>6294800</v>
+        <v>6084000</v>
       </c>
       <c r="I81" s="3">
-        <v>3371800</v>
+        <v>3258900</v>
       </c>
       <c r="J81" s="3">
-        <v>503500</v>
+        <v>486600</v>
       </c>
       <c r="K81" s="3">
         <v>1086300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6901500</v>
+        <v>6670500</v>
       </c>
       <c r="E83" s="3">
-        <v>5738100</v>
+        <v>5545900</v>
       </c>
       <c r="F83" s="3">
-        <v>4722300</v>
+        <v>4564200</v>
       </c>
       <c r="G83" s="3">
-        <v>2862300</v>
+        <v>2766500</v>
       </c>
       <c r="H83" s="3">
-        <v>2569600</v>
+        <v>2483500</v>
       </c>
       <c r="I83" s="3">
-        <v>2483100</v>
+        <v>2400000</v>
       </c>
       <c r="J83" s="3">
-        <v>2246800</v>
+        <v>2171600</v>
       </c>
       <c r="K83" s="3">
         <v>2918600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2161900</v>
+        <v>2089500</v>
       </c>
       <c r="E89" s="3">
-        <v>8475100</v>
+        <v>8191400</v>
       </c>
       <c r="F89" s="3">
-        <v>7833300</v>
+        <v>7571000</v>
       </c>
       <c r="G89" s="3">
-        <v>9252600</v>
+        <v>8942800</v>
       </c>
       <c r="H89" s="3">
-        <v>8621800</v>
+        <v>8333200</v>
       </c>
       <c r="I89" s="3">
-        <v>8569400</v>
+        <v>8282500</v>
       </c>
       <c r="J89" s="3">
-        <v>5559600</v>
+        <v>5373500</v>
       </c>
       <c r="K89" s="3">
         <v>5505800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4215700</v>
+        <v>-4074500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3030300</v>
+        <v>-2928900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6802500</v>
+        <v>-6574700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3021200</v>
+        <v>-2920000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2147900</v>
+        <v>-2076000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1806700</v>
+        <v>-1746200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2291200</v>
+        <v>-2214500</v>
       </c>
       <c r="K91" s="3">
         <v>-2759300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7231800</v>
+        <v>-6989700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5006700</v>
+        <v>-4839100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3874100</v>
+        <v>-3744400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9290100</v>
+        <v>-8979100</v>
       </c>
       <c r="H94" s="3">
-        <v>-8982100</v>
+        <v>-8681400</v>
       </c>
       <c r="I94" s="3">
-        <v>-5654500</v>
+        <v>-5465200</v>
       </c>
       <c r="J94" s="3">
-        <v>-8614800</v>
+        <v>-8326400</v>
       </c>
       <c r="K94" s="3">
         <v>-7573500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-594700</v>
+        <v>-574800</v>
       </c>
       <c r="E96" s="3">
-        <v>-510700</v>
+        <v>-493600</v>
       </c>
       <c r="F96" s="3">
-        <v>-421000</v>
+        <v>-407000</v>
       </c>
       <c r="G96" s="3">
-        <v>-340600</v>
+        <v>-329200</v>
       </c>
       <c r="H96" s="3">
-        <v>-261500</v>
+        <v>-252800</v>
       </c>
       <c r="I96" s="3">
-        <v>-195700</v>
+        <v>-189200</v>
       </c>
       <c r="J96" s="3">
-        <v>-173800</v>
+        <v>-168000</v>
       </c>
       <c r="K96" s="3">
         <v>-93700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>579100</v>
+        <v>559800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2312300</v>
+        <v>-2234900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2325700</v>
+        <v>-2247900</v>
       </c>
       <c r="G100" s="3">
-        <v>451100</v>
+        <v>436000</v>
       </c>
       <c r="H100" s="3">
-        <v>-844200</v>
+        <v>-815900</v>
       </c>
       <c r="I100" s="3">
-        <v>1693200</v>
+        <v>1636500</v>
       </c>
       <c r="J100" s="3">
-        <v>3107300</v>
+        <v>3003300</v>
       </c>
       <c r="K100" s="3">
         <v>2793900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>583500</v>
+        <v>564000</v>
       </c>
       <c r="E101" s="3">
-        <v>648300</v>
+        <v>626600</v>
       </c>
       <c r="F101" s="3">
-        <v>252000</v>
+        <v>243600</v>
       </c>
       <c r="G101" s="3">
-        <v>-148700</v>
+        <v>-143700</v>
       </c>
       <c r="H101" s="3">
-        <v>360400</v>
+        <v>348400</v>
       </c>
       <c r="I101" s="3">
-        <v>-364400</v>
+        <v>-352200</v>
       </c>
       <c r="J101" s="3">
-        <v>-213400</v>
+        <v>-206200</v>
       </c>
       <c r="K101" s="3">
         <v>-474900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3907200</v>
+        <v>-3776400</v>
       </c>
       <c r="E102" s="3">
-        <v>1804400</v>
+        <v>1744000</v>
       </c>
       <c r="F102" s="3">
-        <v>1885500</v>
+        <v>1822400</v>
       </c>
       <c r="G102" s="3">
-        <v>264800</v>
+        <v>255900</v>
       </c>
       <c r="H102" s="3">
-        <v>-844100</v>
+        <v>-815800</v>
       </c>
       <c r="I102" s="3">
-        <v>4243600</v>
+        <v>4101600</v>
       </c>
       <c r="J102" s="3">
-        <v>-161200</v>
+        <v>-155800</v>
       </c>
       <c r="K102" s="3">
         <v>251400</v>
